--- a/BackTest/2020-01-16 BackTest WAXP.xlsx
+++ b/BackTest/2020-01-16 BackTest WAXP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N109"/>
+  <dimension ref="A1:M138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>21.2</v>
+        <v>21.28</v>
       </c>
       <c r="C2" t="n">
-        <v>21.13</v>
+        <v>21.28</v>
       </c>
       <c r="D2" t="n">
-        <v>21.2</v>
+        <v>21.28</v>
       </c>
       <c r="E2" t="n">
-        <v>21.13</v>
+        <v>21.28</v>
       </c>
       <c r="F2" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="G2" t="n">
-        <v>21.25399999999998</v>
+        <v>-422428.0313</v>
       </c>
       <c r="H2" t="n">
-        <v>21.41850000000004</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21.13</v>
+        <v>21.28</v>
       </c>
       <c r="C3" t="n">
-        <v>21.13</v>
+        <v>21.49</v>
       </c>
       <c r="D3" t="n">
-        <v>21.13</v>
+        <v>21.49</v>
       </c>
       <c r="E3" t="n">
-        <v>21.13</v>
+        <v>21.28</v>
       </c>
       <c r="F3" t="n">
-        <v>3000</v>
+        <v>12050</v>
       </c>
       <c r="G3" t="n">
-        <v>21.24933333333332</v>
+        <v>-410378.0313</v>
       </c>
       <c r="H3" t="n">
-        <v>21.41266666666671</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>21.13</v>
+        <v>21.49</v>
       </c>
       <c r="C4" t="n">
-        <v>21.13</v>
+        <v>21.49</v>
       </c>
       <c r="D4" t="n">
-        <v>21.13</v>
+        <v>21.49</v>
       </c>
       <c r="E4" t="n">
-        <v>21.13</v>
+        <v>21.49</v>
       </c>
       <c r="F4" t="n">
-        <v>3000</v>
+        <v>30</v>
       </c>
       <c r="G4" t="n">
-        <v>21.24466666666665</v>
+        <v>-410378.0313</v>
       </c>
       <c r="H4" t="n">
-        <v>21.40816666666671</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,40 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>21.13</v>
+        <v>21.49</v>
       </c>
       <c r="C5" t="n">
-        <v>21.13</v>
+        <v>21.49</v>
       </c>
       <c r="D5" t="n">
-        <v>21.13</v>
+        <v>21.49</v>
       </c>
       <c r="E5" t="n">
-        <v>21.13</v>
+        <v>21.49</v>
       </c>
       <c r="F5" t="n">
-        <v>1000</v>
+        <v>606</v>
       </c>
       <c r="G5" t="n">
-        <v>21.23999999999999</v>
+        <v>-410378.0313</v>
       </c>
       <c r="H5" t="n">
-        <v>21.40233333333337</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="L5" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -594,44 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>21.4</v>
+        <v>21.49</v>
       </c>
       <c r="C6" t="n">
         <v>21.5</v>
       </c>
       <c r="D6" t="n">
-        <v>21.5</v>
+        <v>21.8</v>
       </c>
       <c r="E6" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="F6" t="n">
-        <v>140116.95121373</v>
+        <v>39485.3054</v>
       </c>
       <c r="G6" t="n">
-        <v>21.25999999999999</v>
+        <v>-370892.7259</v>
       </c>
       <c r="H6" t="n">
-        <v>21.40266666666671</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="L6" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -640,44 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>21.5</v>
+        <v>21.49</v>
       </c>
       <c r="C7" t="n">
-        <v>21.5</v>
+        <v>21.49</v>
       </c>
       <c r="D7" t="n">
-        <v>21.5</v>
+        <v>21.49</v>
       </c>
       <c r="E7" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="F7" t="n">
-        <v>81825.2763</v>
+        <v>115651.3873</v>
       </c>
       <c r="G7" t="n">
-        <v>21.27999999999999</v>
+        <v>-486544.1132</v>
       </c>
       <c r="H7" t="n">
-        <v>21.40300000000004</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="L7" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -686,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>21.53</v>
+        <v>21.49</v>
       </c>
       <c r="C8" t="n">
-        <v>21.65</v>
+        <v>21.5</v>
       </c>
       <c r="D8" t="n">
-        <v>21.65</v>
+        <v>21.5</v>
       </c>
       <c r="E8" t="n">
-        <v>21.53</v>
+        <v>21.49</v>
       </c>
       <c r="F8" t="n">
-        <v>19000</v>
+        <v>45370.7504</v>
       </c>
       <c r="G8" t="n">
-        <v>21.30999999999999</v>
+        <v>-441173.3628</v>
       </c>
       <c r="H8" t="n">
-        <v>21.40583333333337</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -724,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>21.65</v>
+        <v>21.31</v>
       </c>
       <c r="C9" t="n">
-        <v>21.65</v>
+        <v>21.1</v>
       </c>
       <c r="D9" t="n">
-        <v>21.65</v>
+        <v>21.31</v>
       </c>
       <c r="E9" t="n">
-        <v>21.65</v>
+        <v>21.1</v>
       </c>
       <c r="F9" t="n">
-        <v>40824.6196</v>
+        <v>190000</v>
       </c>
       <c r="G9" t="n">
-        <v>21.33933333333332</v>
+        <v>-631173.3628</v>
       </c>
       <c r="H9" t="n">
-        <v>21.40866666666671</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -762,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>21.8</v>
+        <v>21.1</v>
       </c>
       <c r="C10" t="n">
-        <v>21.8</v>
+        <v>21.1</v>
       </c>
       <c r="D10" t="n">
-        <v>21.8</v>
+        <v>21.1</v>
       </c>
       <c r="E10" t="n">
-        <v>21.8</v>
+        <v>21.1</v>
       </c>
       <c r="F10" t="n">
-        <v>6726.7802</v>
+        <v>8379.3001</v>
       </c>
       <c r="G10" t="n">
-        <v>21.37866666666666</v>
+        <v>-631173.3628</v>
       </c>
       <c r="H10" t="n">
-        <v>21.41400000000004</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -800,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>21.8</v>
+        <v>21.1</v>
       </c>
       <c r="C11" t="n">
-        <v>21.9</v>
+        <v>21.1</v>
       </c>
       <c r="D11" t="n">
-        <v>21.9</v>
+        <v>21.1</v>
       </c>
       <c r="E11" t="n">
-        <v>21.8</v>
+        <v>21.1</v>
       </c>
       <c r="F11" t="n">
-        <v>44712.1108</v>
+        <v>24170.2654</v>
       </c>
       <c r="G11" t="n">
-        <v>21.42466666666666</v>
+        <v>-631173.3628</v>
       </c>
       <c r="H11" t="n">
-        <v>21.42100000000004</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -838,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>21.94</v>
+        <v>21.09</v>
       </c>
       <c r="C12" t="n">
-        <v>21.94</v>
+        <v>21.09</v>
       </c>
       <c r="D12" t="n">
-        <v>21.94</v>
+        <v>21.09</v>
       </c>
       <c r="E12" t="n">
-        <v>21.94</v>
+        <v>21.09</v>
       </c>
       <c r="F12" t="n">
-        <v>12000</v>
+        <v>12101.015</v>
       </c>
       <c r="G12" t="n">
-        <v>21.47333333333332</v>
+        <v>-643274.3778</v>
       </c>
       <c r="H12" t="n">
-        <v>21.42866666666671</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -876,36 +818,37 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>21.95</v>
+        <v>21.1</v>
       </c>
       <c r="C13" t="n">
-        <v>21.95</v>
+        <v>21.1</v>
       </c>
       <c r="D13" t="n">
-        <v>21.95</v>
+        <v>21.1</v>
       </c>
       <c r="E13" t="n">
-        <v>21.95</v>
+        <v>21.1</v>
       </c>
       <c r="F13" t="n">
-        <v>15248.1931</v>
+        <v>221.1012</v>
       </c>
       <c r="G13" t="n">
-        <v>21.51133333333332</v>
+        <v>-643053.2766</v>
       </c>
       <c r="H13" t="n">
-        <v>21.43650000000004</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
+        <v>21.09</v>
+      </c>
+      <c r="K13" t="n">
+        <v>21.09</v>
+      </c>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -914,36 +857,41 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>21.9</v>
+        <v>21.21</v>
       </c>
       <c r="C14" t="n">
-        <v>21.9</v>
+        <v>21.2</v>
       </c>
       <c r="D14" t="n">
-        <v>21.9</v>
+        <v>21.21</v>
       </c>
       <c r="E14" t="n">
-        <v>21.9</v>
+        <v>21.2</v>
       </c>
       <c r="F14" t="n">
-        <v>28198</v>
+        <v>26368.6509</v>
       </c>
       <c r="G14" t="n">
-        <v>21.54599999999999</v>
+        <v>-616684.6257</v>
       </c>
       <c r="H14" t="n">
-        <v>21.44350000000004</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>21.09</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -952,36 +900,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>21.9</v>
+        <v>21.2</v>
       </c>
       <c r="C15" t="n">
-        <v>21.68</v>
+        <v>21.2</v>
       </c>
       <c r="D15" t="n">
-        <v>21.9</v>
+        <v>21.2</v>
       </c>
       <c r="E15" t="n">
-        <v>21.68</v>
+        <v>21.2</v>
       </c>
       <c r="F15" t="n">
-        <v>3000</v>
+        <v>4737.0914</v>
       </c>
       <c r="G15" t="n">
-        <v>21.56599999999999</v>
+        <v>-616684.6257</v>
       </c>
       <c r="H15" t="n">
-        <v>21.44650000000005</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>21.09</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -990,36 +941,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>21.65</v>
+        <v>21.2</v>
       </c>
       <c r="C16" t="n">
-        <v>21.65</v>
+        <v>21.2</v>
       </c>
       <c r="D16" t="n">
-        <v>21.65</v>
+        <v>21.2</v>
       </c>
       <c r="E16" t="n">
-        <v>21.65</v>
+        <v>21.2</v>
       </c>
       <c r="F16" t="n">
-        <v>12000</v>
+        <v>26808.0381</v>
       </c>
       <c r="G16" t="n">
-        <v>21.57599999999999</v>
+        <v>-616684.6257</v>
       </c>
       <c r="H16" t="n">
-        <v>21.44850000000005</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1028,36 +976,37 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>21.6</v>
+        <v>21.2</v>
       </c>
       <c r="C17" t="n">
-        <v>21.6</v>
+        <v>21.2</v>
       </c>
       <c r="D17" t="n">
-        <v>21.6</v>
+        <v>21.2</v>
       </c>
       <c r="E17" t="n">
-        <v>21.6</v>
+        <v>21.2</v>
       </c>
       <c r="F17" t="n">
-        <v>2090.5717</v>
+        <v>27979.2719</v>
       </c>
       <c r="G17" t="n">
-        <v>21.60733333333332</v>
+        <v>-616684.6257</v>
       </c>
       <c r="H17" t="n">
-        <v>21.44966666666671</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
+        <v>21.2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>21.2</v>
+      </c>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1066,36 +1015,41 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>21.6</v>
+        <v>21.2</v>
       </c>
       <c r="C18" t="n">
-        <v>21.5</v>
+        <v>21.2</v>
       </c>
       <c r="D18" t="n">
-        <v>21.6</v>
+        <v>21.2</v>
       </c>
       <c r="E18" t="n">
-        <v>21.5</v>
+        <v>21.2</v>
       </c>
       <c r="F18" t="n">
-        <v>61865.9754</v>
+        <v>3303.9059</v>
       </c>
       <c r="G18" t="n">
-        <v>21.63199999999999</v>
+        <v>-616684.6257</v>
       </c>
       <c r="H18" t="n">
-        <v>21.44916666666671</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1104,36 +1058,41 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>21.45</v>
+        <v>21.12</v>
       </c>
       <c r="C19" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="D19" t="n">
-        <v>21.45</v>
+        <v>21.2</v>
       </c>
       <c r="E19" t="n">
-        <v>21.4</v>
+        <v>21.12</v>
       </c>
       <c r="F19" t="n">
-        <v>2829.367</v>
+        <v>19501.9662</v>
       </c>
       <c r="G19" t="n">
-        <v>21.64999999999999</v>
+        <v>-616684.6257</v>
       </c>
       <c r="H19" t="n">
-        <v>21.44600000000005</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1142,36 +1101,41 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="C20" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="D20" t="n">
-        <v>21.4</v>
+        <v>21.21</v>
       </c>
       <c r="E20" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="F20" t="n">
-        <v>2330.6074</v>
+        <v>46000</v>
       </c>
       <c r="G20" t="n">
-        <v>21.66799999999999</v>
+        <v>-616684.6257</v>
       </c>
       <c r="H20" t="n">
-        <v>21.44250000000005</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="K20" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1180,36 +1144,41 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>21.31</v>
+        <v>21.2</v>
       </c>
       <c r="C21" t="n">
-        <v>21.31</v>
+        <v>21.2</v>
       </c>
       <c r="D21" t="n">
-        <v>21.31</v>
+        <v>21.2</v>
       </c>
       <c r="E21" t="n">
-        <v>21.31</v>
+        <v>21.12</v>
       </c>
       <c r="F21" t="n">
-        <v>28900</v>
+        <v>70047.5828</v>
       </c>
       <c r="G21" t="n">
-        <v>21.65533333333332</v>
+        <v>-616684.6257</v>
       </c>
       <c r="H21" t="n">
-        <v>21.44250000000005</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="K21" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,40 +1187,41 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="C22" t="n">
-        <v>21.9</v>
+        <v>21.2</v>
       </c>
       <c r="D22" t="n">
-        <v>21.9</v>
+        <v>21.2</v>
       </c>
       <c r="E22" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="F22" t="n">
-        <v>59103.6673</v>
+        <v>12000</v>
       </c>
       <c r="G22" t="n">
-        <v>21.68199999999998</v>
+        <v>-616684.6257</v>
       </c>
       <c r="H22" t="n">
-        <v>21.44283333333339</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>21.2</v>
       </c>
       <c r="K22" t="n">
-        <v>21.31</v>
-      </c>
-      <c r="L22" t="n">
-        <v>21.31</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1260,42 +1230,41 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>21.85</v>
+        <v>21.21</v>
       </c>
       <c r="C23" t="n">
-        <v>21.85</v>
+        <v>21.21</v>
       </c>
       <c r="D23" t="n">
-        <v>21.91</v>
+        <v>21.21</v>
       </c>
       <c r="E23" t="n">
-        <v>21.85</v>
+        <v>21.21</v>
       </c>
       <c r="F23" t="n">
-        <v>59410</v>
+        <v>9167.510200000001</v>
       </c>
       <c r="G23" t="n">
-        <v>21.69533333333332</v>
+        <v>-607517.1155</v>
       </c>
       <c r="H23" t="n">
-        <v>21.44050000000005</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>21.31</v>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="K23" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1304,42 +1273,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>21.91</v>
+        <v>21.21</v>
       </c>
       <c r="C24" t="n">
-        <v>21.9</v>
+        <v>21.21</v>
       </c>
       <c r="D24" t="n">
-        <v>21.91</v>
+        <v>21.21</v>
       </c>
       <c r="E24" t="n">
-        <v>21.9</v>
+        <v>21.21</v>
       </c>
       <c r="F24" t="n">
-        <v>40521.2586</v>
+        <v>590.8256</v>
       </c>
       <c r="G24" t="n">
-        <v>21.71199999999999</v>
+        <v>-607517.1155</v>
       </c>
       <c r="H24" t="n">
-        <v>21.44350000000005</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>21.31</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1348,36 +1314,41 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>21.9</v>
+        <v>21.21</v>
       </c>
       <c r="C25" t="n">
-        <v>21.9</v>
+        <v>21.21</v>
       </c>
       <c r="D25" t="n">
-        <v>21.9</v>
+        <v>21.21</v>
       </c>
       <c r="E25" t="n">
-        <v>21.9</v>
+        <v>21.21</v>
       </c>
       <c r="F25" t="n">
-        <v>6808</v>
+        <v>1020</v>
       </c>
       <c r="G25" t="n">
-        <v>21.71866666666665</v>
+        <v>-607517.1155</v>
       </c>
       <c r="H25" t="n">
-        <v>21.44266666666672</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+        <v>21.21</v>
+      </c>
+      <c r="K25" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1386,36 +1357,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>21.9</v>
+        <v>21.21</v>
       </c>
       <c r="C26" t="n">
-        <v>21.9</v>
+        <v>21.21</v>
       </c>
       <c r="D26" t="n">
-        <v>21.9</v>
+        <v>21.21</v>
       </c>
       <c r="E26" t="n">
-        <v>21.9</v>
+        <v>21.21</v>
       </c>
       <c r="F26" t="n">
-        <v>218179.5339</v>
+        <v>21672</v>
       </c>
       <c r="G26" t="n">
-        <v>21.71866666666665</v>
+        <v>-607517.1155</v>
       </c>
       <c r="H26" t="n">
-        <v>21.44600000000005</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1424,36 +1398,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>21.85</v>
+        <v>21.21</v>
       </c>
       <c r="C27" t="n">
-        <v>21.8</v>
+        <v>21.38</v>
       </c>
       <c r="D27" t="n">
-        <v>21.85</v>
+        <v>21.38</v>
       </c>
       <c r="E27" t="n">
-        <v>21.8</v>
+        <v>21.21</v>
       </c>
       <c r="F27" t="n">
-        <v>82041.0613</v>
+        <v>49237</v>
       </c>
       <c r="G27" t="n">
-        <v>21.70933333333332</v>
+        <v>-558280.1155</v>
       </c>
       <c r="H27" t="n">
-        <v>21.44766666666672</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1462,36 +1439,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>21.7</v>
+        <v>21.38</v>
       </c>
       <c r="C28" t="n">
-        <v>21.51</v>
+        <v>21.38</v>
       </c>
       <c r="D28" t="n">
-        <v>21.7</v>
+        <v>21.38</v>
       </c>
       <c r="E28" t="n">
-        <v>21.51</v>
+        <v>21.38</v>
       </c>
       <c r="F28" t="n">
-        <v>96555.5307</v>
+        <v>10113</v>
       </c>
       <c r="G28" t="n">
-        <v>21.67999999999999</v>
+        <v>-558280.1155</v>
       </c>
       <c r="H28" t="n">
-        <v>21.43950000000005</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1500,36 +1480,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>21.6</v>
+        <v>21.38</v>
       </c>
       <c r="C29" t="n">
-        <v>21.6</v>
+        <v>21.38</v>
       </c>
       <c r="D29" t="n">
-        <v>21.6</v>
+        <v>21.38</v>
       </c>
       <c r="E29" t="n">
-        <v>21.6</v>
+        <v>21.38</v>
       </c>
       <c r="F29" t="n">
-        <v>1112.9954</v>
+        <v>46772.6847521</v>
       </c>
       <c r="G29" t="n">
-        <v>21.65999999999999</v>
+        <v>-558280.1155</v>
       </c>
       <c r="H29" t="n">
-        <v>21.43783333333338</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1538,36 +1521,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>21.6</v>
+        <v>21.38</v>
       </c>
       <c r="C30" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="D30" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="E30" t="n">
-        <v>21.6</v>
+        <v>21.38</v>
       </c>
       <c r="F30" t="n">
-        <v>4247.93</v>
+        <v>40155.15293417</v>
       </c>
       <c r="G30" t="n">
-        <v>21.65466666666666</v>
+        <v>-518124.96256583</v>
       </c>
       <c r="H30" t="n">
-        <v>21.43766666666671</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1576,36 +1562,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>21.62</v>
+        <v>21.2</v>
       </c>
       <c r="C31" t="n">
-        <v>21.6</v>
+        <v>21.13</v>
       </c>
       <c r="D31" t="n">
-        <v>21.62</v>
+        <v>21.2</v>
       </c>
       <c r="E31" t="n">
-        <v>21.6</v>
+        <v>21.13</v>
       </c>
       <c r="F31" t="n">
-        <v>6472.6113</v>
+        <v>9000</v>
       </c>
       <c r="G31" t="n">
-        <v>21.65133333333333</v>
+        <v>-527124.96256583</v>
       </c>
       <c r="H31" t="n">
-        <v>21.44850000000005</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1614,36 +1603,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>21.59</v>
+        <v>21.13</v>
       </c>
       <c r="C32" t="n">
-        <v>21.59</v>
+        <v>21.13</v>
       </c>
       <c r="D32" t="n">
-        <v>21.59</v>
+        <v>21.13</v>
       </c>
       <c r="E32" t="n">
-        <v>21.59</v>
+        <v>21.13</v>
       </c>
       <c r="F32" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G32" t="n">
-        <v>21.65066666666666</v>
+        <v>-527124.96256583</v>
       </c>
       <c r="H32" t="n">
-        <v>21.45016666666671</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1652,36 +1644,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>21.6</v>
+        <v>21.13</v>
       </c>
       <c r="C33" t="n">
-        <v>21.59</v>
+        <v>21.13</v>
       </c>
       <c r="D33" t="n">
-        <v>21.6</v>
+        <v>21.13</v>
       </c>
       <c r="E33" t="n">
-        <v>21.59</v>
+        <v>21.13</v>
       </c>
       <c r="F33" t="n">
-        <v>7255</v>
+        <v>3000</v>
       </c>
       <c r="G33" t="n">
-        <v>21.65666666666666</v>
+        <v>-527124.96256583</v>
       </c>
       <c r="H33" t="n">
-        <v>21.45533333333338</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1690,36 +1685,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>21.59</v>
+        <v>21.13</v>
       </c>
       <c r="C34" t="n">
-        <v>21.58</v>
+        <v>21.13</v>
       </c>
       <c r="D34" t="n">
-        <v>21.59</v>
+        <v>21.13</v>
       </c>
       <c r="E34" t="n">
-        <v>21.58</v>
+        <v>21.13</v>
       </c>
       <c r="F34" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G34" t="n">
-        <v>21.66866666666666</v>
+        <v>-527124.96256583</v>
       </c>
       <c r="H34" t="n">
-        <v>21.45683333333337</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1728,36 +1726,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>21.58</v>
+        <v>21.4</v>
       </c>
       <c r="C35" t="n">
-        <v>21.58</v>
+        <v>21.5</v>
       </c>
       <c r="D35" t="n">
-        <v>21.58</v>
+        <v>21.5</v>
       </c>
       <c r="E35" t="n">
-        <v>21.58</v>
+        <v>21.4</v>
       </c>
       <c r="F35" t="n">
-        <v>1167.5102</v>
+        <v>140116.95121373</v>
       </c>
       <c r="G35" t="n">
-        <v>21.68066666666666</v>
+        <v>-387008.0113520999</v>
       </c>
       <c r="H35" t="n">
-        <v>21.45833333333337</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1766,36 +1767,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>21.58</v>
+        <v>21.5</v>
       </c>
       <c r="C36" t="n">
-        <v>21.58</v>
+        <v>21.5</v>
       </c>
       <c r="D36" t="n">
-        <v>21.58</v>
+        <v>21.5</v>
       </c>
       <c r="E36" t="n">
-        <v>21.58</v>
+        <v>21.5</v>
       </c>
       <c r="F36" t="n">
-        <v>3572.228</v>
+        <v>81825.2763</v>
       </c>
       <c r="G36" t="n">
-        <v>21.69866666666666</v>
+        <v>-387008.0113520999</v>
       </c>
       <c r="H36" t="n">
-        <v>21.45983333333337</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1804,36 +1808,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>21.57</v>
+        <v>21.53</v>
       </c>
       <c r="C37" t="n">
-        <v>21.57</v>
+        <v>21.65</v>
       </c>
       <c r="D37" t="n">
-        <v>21.57</v>
+        <v>21.65</v>
       </c>
       <c r="E37" t="n">
-        <v>21.57</v>
+        <v>21.53</v>
       </c>
       <c r="F37" t="n">
-        <v>2651.7045</v>
+        <v>19000</v>
       </c>
       <c r="G37" t="n">
-        <v>21.67666666666666</v>
+        <v>-368008.0113520999</v>
       </c>
       <c r="H37" t="n">
-        <v>21.46100000000004</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1842,36 +1849,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>21.56</v>
+        <v>21.65</v>
       </c>
       <c r="C38" t="n">
-        <v>21.56</v>
+        <v>21.65</v>
       </c>
       <c r="D38" t="n">
-        <v>21.56</v>
+        <v>21.65</v>
       </c>
       <c r="E38" t="n">
-        <v>21.56</v>
+        <v>21.65</v>
       </c>
       <c r="F38" t="n">
-        <v>2000</v>
+        <v>40824.6196</v>
       </c>
       <c r="G38" t="n">
-        <v>21.65733333333332</v>
+        <v>-368008.0113520999</v>
       </c>
       <c r="H38" t="n">
-        <v>21.4621666666667</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1880,36 +1890,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>21.51</v>
+        <v>21.8</v>
       </c>
       <c r="C39" t="n">
-        <v>21.51</v>
+        <v>21.8</v>
       </c>
       <c r="D39" t="n">
-        <v>21.51</v>
+        <v>21.8</v>
       </c>
       <c r="E39" t="n">
-        <v>21.51</v>
+        <v>21.8</v>
       </c>
       <c r="F39" t="n">
-        <v>28016.4583</v>
+        <v>6726.7802</v>
       </c>
       <c r="G39" t="n">
-        <v>21.63133333333332</v>
+        <v>-361281.2311521</v>
       </c>
       <c r="H39" t="n">
-        <v>21.46233333333337</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,36 +1931,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>21.5</v>
+        <v>21.8</v>
       </c>
       <c r="C40" t="n">
-        <v>21.5</v>
+        <v>21.9</v>
       </c>
       <c r="D40" t="n">
-        <v>21.5</v>
+        <v>21.9</v>
       </c>
       <c r="E40" t="n">
-        <v>21.5</v>
+        <v>21.8</v>
       </c>
       <c r="F40" t="n">
-        <v>4000</v>
+        <v>44712.1108</v>
       </c>
       <c r="G40" t="n">
-        <v>21.60466666666666</v>
+        <v>-316569.1203520999</v>
       </c>
       <c r="H40" t="n">
-        <v>21.46900000000004</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1956,37 +1972,40 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>21.5</v>
+        <v>21.94</v>
       </c>
       <c r="C41" t="n">
-        <v>21.5</v>
+        <v>21.94</v>
       </c>
       <c r="D41" t="n">
-        <v>21.5</v>
+        <v>21.94</v>
       </c>
       <c r="E41" t="n">
-        <v>21.5</v>
+        <v>21.94</v>
       </c>
       <c r="F41" t="n">
-        <v>18597.9817</v>
+        <v>12000</v>
       </c>
       <c r="G41" t="n">
-        <v>21.57799999999999</v>
+        <v>-304569.1203520999</v>
       </c>
       <c r="H41" t="n">
-        <v>21.47566666666671</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>1.029905660377359</v>
       </c>
     </row>
     <row r="42">
@@ -1994,36 +2013,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>21.51</v>
+        <v>21.95</v>
       </c>
       <c r="C42" t="n">
-        <v>21.51</v>
+        <v>21.95</v>
       </c>
       <c r="D42" t="n">
-        <v>21.51</v>
+        <v>21.95</v>
       </c>
       <c r="E42" t="n">
-        <v>21.51</v>
+        <v>21.95</v>
       </c>
       <c r="F42" t="n">
-        <v>2000</v>
+        <v>15248.1931</v>
       </c>
       <c r="G42" t="n">
-        <v>21.55866666666666</v>
+        <v>-289320.9272521</v>
       </c>
       <c r="H42" t="n">
-        <v>21.48250000000004</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2032,36 +2048,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>21.51</v>
+        <v>21.9</v>
       </c>
       <c r="C43" t="n">
-        <v>21.51</v>
+        <v>21.9</v>
       </c>
       <c r="D43" t="n">
-        <v>21.51</v>
+        <v>21.9</v>
       </c>
       <c r="E43" t="n">
-        <v>21.51</v>
+        <v>21.9</v>
       </c>
       <c r="F43" t="n">
-        <v>5000</v>
+        <v>28198</v>
       </c>
       <c r="G43" t="n">
-        <v>21.55866666666666</v>
+        <v>-317518.9272521</v>
       </c>
       <c r="H43" t="n">
-        <v>21.48950000000004</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2070,36 +2083,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>21.5</v>
+        <v>21.9</v>
       </c>
       <c r="C44" t="n">
-        <v>21.5</v>
+        <v>21.68</v>
       </c>
       <c r="D44" t="n">
-        <v>21.5</v>
+        <v>21.9</v>
       </c>
       <c r="E44" t="n">
-        <v>21.5</v>
+        <v>21.68</v>
       </c>
       <c r="F44" t="n">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="G44" t="n">
-        <v>21.55199999999999</v>
+        <v>-320518.9272521</v>
       </c>
       <c r="H44" t="n">
-        <v>21.49616666666671</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2108,36 +2118,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>21.5</v>
+        <v>21.65</v>
       </c>
       <c r="C45" t="n">
-        <v>21.48</v>
+        <v>21.65</v>
       </c>
       <c r="D45" t="n">
-        <v>21.5</v>
+        <v>21.65</v>
       </c>
       <c r="E45" t="n">
-        <v>21.48</v>
+        <v>21.65</v>
       </c>
       <c r="F45" t="n">
-        <v>4496.1302</v>
+        <v>12000</v>
       </c>
       <c r="G45" t="n">
-        <v>21.54399999999999</v>
+        <v>-332518.9272521</v>
       </c>
       <c r="H45" t="n">
-        <v>21.50083333333338</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2146,40 +2153,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>21.51</v>
+        <v>21.6</v>
       </c>
       <c r="C46" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="D46" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="E46" t="n">
-        <v>21.51</v>
+        <v>21.6</v>
       </c>
       <c r="F46" t="n">
-        <v>2000</v>
+        <v>2090.5717</v>
       </c>
       <c r="G46" t="n">
-        <v>21.55733333333332</v>
+        <v>-334609.4989520999</v>
       </c>
       <c r="H46" t="n">
-        <v>21.51083333333338</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L46" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2188,42 +2188,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>21.49</v>
+        <v>21.6</v>
       </c>
       <c r="C47" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="D47" t="n">
-        <v>21.49</v>
+        <v>21.6</v>
       </c>
       <c r="E47" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="F47" t="n">
-        <v>18307.1577</v>
+        <v>61865.9754</v>
       </c>
       <c r="G47" t="n">
-        <v>21.54466666666666</v>
+        <v>-396475.4743520999</v>
       </c>
       <c r="H47" t="n">
-        <v>21.51416666666671</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2232,44 +2223,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>21.6</v>
+        <v>21.45</v>
       </c>
       <c r="C48" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="D48" t="n">
-        <v>21.6</v>
+        <v>21.45</v>
       </c>
       <c r="E48" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="F48" t="n">
-        <v>9341.6109</v>
+        <v>2829.367</v>
       </c>
       <c r="G48" t="n">
-        <v>21.54533333333332</v>
+        <v>-399304.8413521</v>
       </c>
       <c r="H48" t="n">
-        <v>21.52083333333337</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="L48" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2278,44 +2258,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="C49" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="D49" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="E49" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="F49" t="n">
-        <v>2321.9273</v>
+        <v>2330.6074</v>
       </c>
       <c r="G49" t="n">
-        <v>21.54666666666666</v>
+        <v>-399304.8413521</v>
       </c>
       <c r="H49" t="n">
-        <v>21.52750000000004</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="L49" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2324,42 +2293,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>21.5</v>
+        <v>21.31</v>
       </c>
       <c r="C50" t="n">
-        <v>21.5</v>
+        <v>21.31</v>
       </c>
       <c r="D50" t="n">
-        <v>21.5</v>
+        <v>21.31</v>
       </c>
       <c r="E50" t="n">
-        <v>21.5</v>
+        <v>21.31</v>
       </c>
       <c r="F50" t="n">
-        <v>368.3708</v>
+        <v>28900</v>
       </c>
       <c r="G50" t="n">
-        <v>21.54133333333333</v>
+        <v>-428204.8413521</v>
       </c>
       <c r="H50" t="n">
-        <v>21.53250000000004</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2368,44 +2328,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="C51" t="n">
-        <v>21.34</v>
+        <v>21.9</v>
       </c>
       <c r="D51" t="n">
-        <v>21.5</v>
+        <v>21.9</v>
       </c>
       <c r="E51" t="n">
-        <v>21.34</v>
+        <v>21.4</v>
       </c>
       <c r="F51" t="n">
-        <v>30000</v>
+        <v>59103.6673</v>
       </c>
       <c r="G51" t="n">
-        <v>21.52533333333333</v>
+        <v>-369101.1740520999</v>
       </c>
       <c r="H51" t="n">
-        <v>21.53483333333337</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="L51" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,44 +2363,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>21.5</v>
+        <v>21.85</v>
       </c>
       <c r="C52" t="n">
-        <v>21.5</v>
+        <v>21.85</v>
       </c>
       <c r="D52" t="n">
-        <v>21.5</v>
+        <v>21.91</v>
       </c>
       <c r="E52" t="n">
-        <v>21.5</v>
+        <v>21.85</v>
       </c>
       <c r="F52" t="n">
-        <v>1187.6127</v>
+        <v>59410</v>
       </c>
       <c r="G52" t="n">
-        <v>21.52066666666666</v>
+        <v>-428511.1740520999</v>
       </c>
       <c r="H52" t="n">
-        <v>21.53983333333337</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="n">
-        <v>21.34</v>
-      </c>
-      <c r="L52" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2460,44 +2398,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>21.5</v>
+        <v>21.91</v>
       </c>
       <c r="C53" t="n">
-        <v>21.5</v>
+        <v>21.9</v>
       </c>
       <c r="D53" t="n">
-        <v>21.5</v>
+        <v>21.91</v>
       </c>
       <c r="E53" t="n">
-        <v>21.5</v>
+        <v>21.9</v>
       </c>
       <c r="F53" t="n">
-        <v>4479.7607</v>
+        <v>40521.2586</v>
       </c>
       <c r="G53" t="n">
-        <v>21.51666666666666</v>
+        <v>-387989.9154520999</v>
       </c>
       <c r="H53" t="n">
-        <v>21.54483333333337</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="L53" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2506,42 +2433,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>21.5</v>
+        <v>21.9</v>
       </c>
       <c r="C54" t="n">
-        <v>21.76</v>
+        <v>21.9</v>
       </c>
       <c r="D54" t="n">
-        <v>21.77</v>
+        <v>21.9</v>
       </c>
       <c r="E54" t="n">
-        <v>21.5</v>
+        <v>21.9</v>
       </c>
       <c r="F54" t="n">
-        <v>49866.49836465</v>
+        <v>6808</v>
       </c>
       <c r="G54" t="n">
-        <v>21.53333333333333</v>
+        <v>-387989.9154520999</v>
       </c>
       <c r="H54" t="n">
-        <v>21.55400000000003</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2550,42 +2468,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>21.69</v>
+        <v>21.9</v>
       </c>
       <c r="C55" t="n">
-        <v>21.69</v>
+        <v>21.9</v>
       </c>
       <c r="D55" t="n">
-        <v>21.69</v>
+        <v>21.9</v>
       </c>
       <c r="E55" t="n">
-        <v>21.69</v>
+        <v>21.9</v>
       </c>
       <c r="F55" t="n">
-        <v>1854</v>
+        <v>218179.5339</v>
       </c>
       <c r="G55" t="n">
-        <v>21.546</v>
+        <v>-387989.9154520999</v>
       </c>
       <c r="H55" t="n">
-        <v>21.56200000000003</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2594,42 +2503,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>21.69</v>
+        <v>21.85</v>
       </c>
       <c r="C56" t="n">
-        <v>21.69</v>
+        <v>21.8</v>
       </c>
       <c r="D56" t="n">
-        <v>21.69</v>
+        <v>21.85</v>
       </c>
       <c r="E56" t="n">
-        <v>21.69</v>
+        <v>21.8</v>
       </c>
       <c r="F56" t="n">
-        <v>3470.6905</v>
+        <v>82041.0613</v>
       </c>
       <c r="G56" t="n">
-        <v>21.55866666666666</v>
+        <v>-470030.9767520999</v>
       </c>
       <c r="H56" t="n">
-        <v>21.57000000000004</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2638,42 +2538,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>21.69</v>
+        <v>21.7</v>
       </c>
       <c r="C57" t="n">
-        <v>21.69</v>
+        <v>21.51</v>
       </c>
       <c r="D57" t="n">
-        <v>21.69</v>
+        <v>21.7</v>
       </c>
       <c r="E57" t="n">
-        <v>21.69</v>
+        <v>21.51</v>
       </c>
       <c r="F57" t="n">
-        <v>2034.5367</v>
+        <v>96555.5307</v>
       </c>
       <c r="G57" t="n">
-        <v>21.57066666666666</v>
+        <v>-566586.5074520999</v>
       </c>
       <c r="H57" t="n">
-        <v>21.57800000000003</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2682,42 +2573,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>21.55</v>
+        <v>21.6</v>
       </c>
       <c r="C58" t="n">
-        <v>21.55</v>
+        <v>21.6</v>
       </c>
       <c r="D58" t="n">
-        <v>21.55</v>
+        <v>21.6</v>
       </c>
       <c r="E58" t="n">
-        <v>21.55</v>
+        <v>21.6</v>
       </c>
       <c r="F58" t="n">
-        <v>5000</v>
+        <v>1112.9954</v>
       </c>
       <c r="G58" t="n">
-        <v>21.57333333333333</v>
+        <v>-565473.5120520999</v>
       </c>
       <c r="H58" t="n">
-        <v>21.58083333333337</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2726,42 +2608,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>21.55</v>
+        <v>21.6</v>
       </c>
       <c r="C59" t="n">
-        <v>21.55</v>
+        <v>21.6</v>
       </c>
       <c r="D59" t="n">
-        <v>21.55</v>
+        <v>21.6</v>
       </c>
       <c r="E59" t="n">
-        <v>21.55</v>
+        <v>21.6</v>
       </c>
       <c r="F59" t="n">
-        <v>311.5212</v>
+        <v>4247.93</v>
       </c>
       <c r="G59" t="n">
-        <v>21.57666666666666</v>
+        <v>-565473.5120520999</v>
       </c>
       <c r="H59" t="n">
-        <v>21.5836666666667</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2770,44 +2643,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>21.55</v>
+        <v>21.62</v>
       </c>
       <c r="C60" t="n">
-        <v>21.55</v>
+        <v>21.6</v>
       </c>
       <c r="D60" t="n">
-        <v>21.55</v>
+        <v>21.62</v>
       </c>
       <c r="E60" t="n">
-        <v>21.55</v>
+        <v>21.6</v>
       </c>
       <c r="F60" t="n">
-        <v>2000</v>
+        <v>6472.6113</v>
       </c>
       <c r="G60" t="n">
-        <v>21.58133333333333</v>
+        <v>-565473.5120520999</v>
       </c>
       <c r="H60" t="n">
-        <v>21.58650000000003</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="n">
-        <v>21.55</v>
-      </c>
-      <c r="L60" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2816,44 +2678,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>21.55</v>
+        <v>21.59</v>
       </c>
       <c r="C61" t="n">
-        <v>21.36</v>
+        <v>21.59</v>
       </c>
       <c r="D61" t="n">
-        <v>21.55</v>
+        <v>21.59</v>
       </c>
       <c r="E61" t="n">
-        <v>21.36</v>
+        <v>21.59</v>
       </c>
       <c r="F61" t="n">
-        <v>63800</v>
+        <v>2000</v>
       </c>
       <c r="G61" t="n">
-        <v>21.552</v>
+        <v>-567473.5120520999</v>
       </c>
       <c r="H61" t="n">
-        <v>21.58416666666669</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="n">
-        <v>21.55</v>
-      </c>
-      <c r="L61" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2862,44 +2713,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="C62" t="n">
-        <v>21.5</v>
+        <v>21.59</v>
       </c>
       <c r="D62" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="E62" t="n">
-        <v>21.5</v>
+        <v>21.59</v>
       </c>
       <c r="F62" t="n">
-        <v>6891</v>
+        <v>7255</v>
       </c>
       <c r="G62" t="n">
-        <v>21.55866666666667</v>
+        <v>-567473.5120520999</v>
       </c>
       <c r="H62" t="n">
-        <v>21.59033333333336</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="n">
-        <v>21.36</v>
-      </c>
-      <c r="L62" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,44 +2748,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>21.5</v>
+        <v>21.59</v>
       </c>
       <c r="C63" t="n">
-        <v>21.35</v>
+        <v>21.58</v>
       </c>
       <c r="D63" t="n">
-        <v>21.5</v>
+        <v>21.59</v>
       </c>
       <c r="E63" t="n">
-        <v>21.35</v>
+        <v>21.58</v>
       </c>
       <c r="F63" t="n">
-        <v>30500</v>
+        <v>8000</v>
       </c>
       <c r="G63" t="n">
-        <v>21.542</v>
+        <v>-575473.5120520999</v>
       </c>
       <c r="H63" t="n">
-        <v>21.59400000000002</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="L63" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2954,44 +2783,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>21.35</v>
+        <v>21.58</v>
       </c>
       <c r="C64" t="n">
-        <v>21.35</v>
+        <v>21.58</v>
       </c>
       <c r="D64" t="n">
-        <v>21.35</v>
+        <v>21.58</v>
       </c>
       <c r="E64" t="n">
-        <v>21.35</v>
+        <v>21.58</v>
       </c>
       <c r="F64" t="n">
-        <v>425</v>
+        <v>1167.5102</v>
       </c>
       <c r="G64" t="n">
-        <v>21.52533333333333</v>
+        <v>-575473.5120520999</v>
       </c>
       <c r="H64" t="n">
-        <v>21.59766666666668</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="n">
-        <v>21.35</v>
-      </c>
-      <c r="L64" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3000,44 +2818,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>21.7</v>
+        <v>21.58</v>
       </c>
       <c r="C65" t="n">
-        <v>21.7</v>
+        <v>21.58</v>
       </c>
       <c r="D65" t="n">
-        <v>21.7</v>
+        <v>21.58</v>
       </c>
       <c r="E65" t="n">
-        <v>21.7</v>
+        <v>21.58</v>
       </c>
       <c r="F65" t="n">
-        <v>200</v>
+        <v>3572.228</v>
       </c>
       <c r="G65" t="n">
-        <v>21.53866666666666</v>
+        <v>-575473.5120520999</v>
       </c>
       <c r="H65" t="n">
-        <v>21.60716666666668</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="n">
-        <v>21.35</v>
-      </c>
-      <c r="L65" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3046,42 +2853,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>21.68</v>
+        <v>21.57</v>
       </c>
       <c r="C66" t="n">
-        <v>21.68</v>
+        <v>21.57</v>
       </c>
       <c r="D66" t="n">
-        <v>21.68</v>
+        <v>21.57</v>
       </c>
       <c r="E66" t="n">
-        <v>21.68</v>
+        <v>21.57</v>
       </c>
       <c r="F66" t="n">
-        <v>2444.64944649</v>
+        <v>2651.7045</v>
       </c>
       <c r="G66" t="n">
-        <v>21.56133333333333</v>
+        <v>-578125.2165520999</v>
       </c>
       <c r="H66" t="n">
-        <v>21.61016666666668</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3090,42 +2888,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>21.68</v>
+        <v>21.56</v>
       </c>
       <c r="C67" t="n">
-        <v>21.68</v>
+        <v>21.56</v>
       </c>
       <c r="D67" t="n">
-        <v>21.68</v>
+        <v>21.56</v>
       </c>
       <c r="E67" t="n">
-        <v>21.68</v>
+        <v>21.56</v>
       </c>
       <c r="F67" t="n">
-        <v>2300.5073</v>
+        <v>2000</v>
       </c>
       <c r="G67" t="n">
-        <v>21.57333333333333</v>
+        <v>-580125.2165520999</v>
       </c>
       <c r="H67" t="n">
-        <v>21.61316666666669</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3134,42 +2923,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>21.68</v>
+        <v>21.51</v>
       </c>
       <c r="C68" t="n">
-        <v>21.68</v>
+        <v>21.51</v>
       </c>
       <c r="D68" t="n">
-        <v>21.68</v>
+        <v>21.51</v>
       </c>
       <c r="E68" t="n">
-        <v>21.68</v>
+        <v>21.51</v>
       </c>
       <c r="F68" t="n">
-        <v>12420.7523</v>
+        <v>28016.4583</v>
       </c>
       <c r="G68" t="n">
-        <v>21.58533333333333</v>
+        <v>-608141.6748521</v>
       </c>
       <c r="H68" t="n">
-        <v>21.61366666666668</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,42 +2958,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>21.68</v>
+        <v>21.5</v>
       </c>
       <c r="C69" t="n">
-        <v>21.69</v>
+        <v>21.5</v>
       </c>
       <c r="D69" t="n">
-        <v>21.69</v>
+        <v>21.5</v>
       </c>
       <c r="E69" t="n">
-        <v>21.68</v>
+        <v>21.5</v>
       </c>
       <c r="F69" t="n">
-        <v>3600.6222</v>
+        <v>4000</v>
       </c>
       <c r="G69" t="n">
-        <v>21.58066666666667</v>
+        <v>-612141.6748521</v>
       </c>
       <c r="H69" t="n">
-        <v>21.61433333333335</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3222,42 +2993,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>21.69</v>
+        <v>21.5</v>
       </c>
       <c r="C70" t="n">
-        <v>21.9</v>
+        <v>21.5</v>
       </c>
       <c r="D70" t="n">
-        <v>21.9</v>
+        <v>21.5</v>
       </c>
       <c r="E70" t="n">
-        <v>21.69</v>
+        <v>21.5</v>
       </c>
       <c r="F70" t="n">
-        <v>87460.41025351</v>
+        <v>18597.9817</v>
       </c>
       <c r="G70" t="n">
-        <v>21.59466666666667</v>
+        <v>-612141.6748521</v>
       </c>
       <c r="H70" t="n">
-        <v>21.61600000000002</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3266,42 +3028,37 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>21.9</v>
+        <v>21.51</v>
       </c>
       <c r="C71" t="n">
-        <v>21.91</v>
+        <v>21.51</v>
       </c>
       <c r="D71" t="n">
-        <v>21.91</v>
+        <v>21.51</v>
       </c>
       <c r="E71" t="n">
-        <v>21.9</v>
+        <v>21.51</v>
       </c>
       <c r="F71" t="n">
-        <v>7423.0031</v>
+        <v>2000</v>
       </c>
       <c r="G71" t="n">
-        <v>21.60933333333334</v>
+        <v>-610141.6748521</v>
       </c>
       <c r="H71" t="n">
-        <v>21.61616666666669</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K71" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3310,42 +3067,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>21.91</v>
+        <v>21.51</v>
       </c>
       <c r="C72" t="n">
-        <v>21.91</v>
+        <v>21.51</v>
       </c>
       <c r="D72" t="n">
-        <v>21.91</v>
+        <v>21.51</v>
       </c>
       <c r="E72" t="n">
-        <v>21.91</v>
+        <v>21.51</v>
       </c>
       <c r="F72" t="n">
-        <v>30000</v>
+        <v>5000</v>
       </c>
       <c r="G72" t="n">
-        <v>21.62400000000001</v>
+        <v>-610141.6748521</v>
       </c>
       <c r="H72" t="n">
-        <v>21.61566666666669</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3354,42 +3108,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>21.91</v>
+        <v>21.5</v>
       </c>
       <c r="C73" t="n">
-        <v>21.91</v>
+        <v>21.5</v>
       </c>
       <c r="D73" t="n">
-        <v>21.91</v>
+        <v>21.5</v>
       </c>
       <c r="E73" t="n">
-        <v>21.91</v>
+        <v>21.5</v>
       </c>
       <c r="F73" t="n">
-        <v>20511.627</v>
+        <v>100</v>
       </c>
       <c r="G73" t="n">
-        <v>21.64800000000001</v>
+        <v>-610241.6748521</v>
       </c>
       <c r="H73" t="n">
-        <v>21.61500000000002</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3398,42 +3149,41 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>21.94</v>
+        <v>21.5</v>
       </c>
       <c r="C74" t="n">
-        <v>21.94</v>
+        <v>21.48</v>
       </c>
       <c r="D74" t="n">
-        <v>21.94</v>
+        <v>21.5</v>
       </c>
       <c r="E74" t="n">
-        <v>21.94</v>
+        <v>21.48</v>
       </c>
       <c r="F74" t="n">
-        <v>496.6249</v>
+        <v>4496.1302</v>
       </c>
       <c r="G74" t="n">
-        <v>21.674</v>
+        <v>-614737.8050521</v>
       </c>
       <c r="H74" t="n">
-        <v>21.61566666666669</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K74" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3442,42 +3192,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>21.94</v>
+        <v>21.51</v>
       </c>
       <c r="C75" t="n">
-        <v>21.94</v>
+        <v>21.8</v>
       </c>
       <c r="D75" t="n">
-        <v>21.94</v>
+        <v>21.8</v>
       </c>
       <c r="E75" t="n">
-        <v>21.94</v>
+        <v>21.51</v>
       </c>
       <c r="F75" t="n">
-        <v>135898.9408</v>
+        <v>2000</v>
       </c>
       <c r="G75" t="n">
-        <v>21.7</v>
+        <v>-612737.8050521</v>
       </c>
       <c r="H75" t="n">
-        <v>21.62000000000002</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3486,42 +3233,41 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>21.95</v>
+        <v>21.49</v>
       </c>
       <c r="C76" t="n">
-        <v>22.09</v>
+        <v>21.4</v>
       </c>
       <c r="D76" t="n">
-        <v>22.09</v>
+        <v>21.49</v>
       </c>
       <c r="E76" t="n">
-        <v>21.95</v>
+        <v>21.4</v>
       </c>
       <c r="F76" t="n">
-        <v>19807.0534</v>
+        <v>18307.1577</v>
       </c>
       <c r="G76" t="n">
-        <v>21.74866666666667</v>
+        <v>-631044.9627521</v>
       </c>
       <c r="H76" t="n">
-        <v>21.62733333333335</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="K76" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3530,42 +3276,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>22.09</v>
+        <v>21.6</v>
       </c>
       <c r="C77" t="n">
-        <v>22.09</v>
+        <v>21.6</v>
       </c>
       <c r="D77" t="n">
-        <v>22.09</v>
+        <v>21.6</v>
       </c>
       <c r="E77" t="n">
-        <v>22.09</v>
+        <v>21.6</v>
       </c>
       <c r="F77" t="n">
-        <v>1198.2552</v>
+        <v>9341.6109</v>
       </c>
       <c r="G77" t="n">
-        <v>21.788</v>
+        <v>-621703.3518521</v>
       </c>
       <c r="H77" t="n">
-        <v>21.63550000000002</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3574,42 +3317,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>22.09</v>
+        <v>21.6</v>
       </c>
       <c r="C78" t="n">
-        <v>22.09</v>
+        <v>21.6</v>
       </c>
       <c r="D78" t="n">
-        <v>22.09</v>
+        <v>21.6</v>
       </c>
       <c r="E78" t="n">
-        <v>22.09</v>
+        <v>21.6</v>
       </c>
       <c r="F78" t="n">
-        <v>23001.4635</v>
+        <v>2321.9273</v>
       </c>
       <c r="G78" t="n">
-        <v>21.83733333333333</v>
+        <v>-621703.3518521</v>
       </c>
       <c r="H78" t="n">
-        <v>21.64533333333335</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3618,42 +3358,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>22.09</v>
+        <v>21.5</v>
       </c>
       <c r="C79" t="n">
-        <v>22.19</v>
+        <v>21.5</v>
       </c>
       <c r="D79" t="n">
-        <v>22.19</v>
+        <v>21.5</v>
       </c>
       <c r="E79" t="n">
-        <v>22.09</v>
+        <v>21.5</v>
       </c>
       <c r="F79" t="n">
-        <v>66550.27099999999</v>
+        <v>368.3708</v>
       </c>
       <c r="G79" t="n">
-        <v>21.89333333333333</v>
+        <v>-622071.7226521</v>
       </c>
       <c r="H79" t="n">
-        <v>21.65850000000001</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3662,42 +3399,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>22.19</v>
+        <v>21.5</v>
       </c>
       <c r="C80" t="n">
-        <v>22.19</v>
+        <v>21.34</v>
       </c>
       <c r="D80" t="n">
-        <v>22.19</v>
+        <v>21.5</v>
       </c>
       <c r="E80" t="n">
-        <v>22.19</v>
+        <v>21.34</v>
       </c>
       <c r="F80" t="n">
-        <v>69</v>
+        <v>30000</v>
       </c>
       <c r="G80" t="n">
-        <v>21.92599999999999</v>
+        <v>-652071.7226521</v>
       </c>
       <c r="H80" t="n">
-        <v>21.67166666666668</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3706,42 +3440,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>22.19</v>
+        <v>21.5</v>
       </c>
       <c r="C81" t="n">
-        <v>22.19</v>
+        <v>21.5</v>
       </c>
       <c r="D81" t="n">
-        <v>22.19</v>
+        <v>21.5</v>
       </c>
       <c r="E81" t="n">
-        <v>22.19</v>
+        <v>21.5</v>
       </c>
       <c r="F81" t="n">
-        <v>1449.5001</v>
+        <v>1187.6127</v>
       </c>
       <c r="G81" t="n">
-        <v>21.95999999999999</v>
+        <v>-650884.1099521</v>
       </c>
       <c r="H81" t="n">
-        <v>21.68633333333335</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3750,42 +3481,41 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>22.02</v>
+        <v>21.5</v>
       </c>
       <c r="C82" t="n">
-        <v>22.02</v>
+        <v>21.5</v>
       </c>
       <c r="D82" t="n">
-        <v>22.02</v>
+        <v>21.5</v>
       </c>
       <c r="E82" t="n">
-        <v>22.02</v>
+        <v>21.5</v>
       </c>
       <c r="F82" t="n">
-        <v>12000</v>
+        <v>4479.7607</v>
       </c>
       <c r="G82" t="n">
-        <v>21.98266666666666</v>
+        <v>-650884.1099521</v>
       </c>
       <c r="H82" t="n">
-        <v>21.68833333333335</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K82" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3794,42 +3524,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>22.02</v>
+        <v>21.5</v>
       </c>
       <c r="C83" t="n">
-        <v>22.02</v>
+        <v>21.76</v>
       </c>
       <c r="D83" t="n">
-        <v>22.02</v>
+        <v>21.77</v>
       </c>
       <c r="E83" t="n">
-        <v>22.02</v>
+        <v>21.5</v>
       </c>
       <c r="F83" t="n">
-        <v>2264.9863</v>
+        <v>49866.49836465</v>
       </c>
       <c r="G83" t="n">
-        <v>22.00533333333333</v>
+        <v>-601017.61158745</v>
       </c>
       <c r="H83" t="n">
-        <v>21.69116666666668</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3838,42 +3565,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>21.99</v>
+        <v>21.69</v>
       </c>
       <c r="C84" t="n">
-        <v>21.99</v>
+        <v>21.69</v>
       </c>
       <c r="D84" t="n">
-        <v>21.99</v>
+        <v>21.69</v>
       </c>
       <c r="E84" t="n">
-        <v>21.99</v>
+        <v>21.69</v>
       </c>
       <c r="F84" t="n">
-        <v>16327.7923</v>
+        <v>1854</v>
       </c>
       <c r="G84" t="n">
-        <v>22.02533333333333</v>
+        <v>-602871.61158745</v>
       </c>
       <c r="H84" t="n">
-        <v>21.69266666666668</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3882,42 +3606,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>21.99</v>
+        <v>21.69</v>
       </c>
       <c r="C85" t="n">
-        <v>21.99</v>
+        <v>21.69</v>
       </c>
       <c r="D85" t="n">
-        <v>21.99</v>
+        <v>21.69</v>
       </c>
       <c r="E85" t="n">
-        <v>21.99</v>
+        <v>21.69</v>
       </c>
       <c r="F85" t="n">
-        <v>2018.5904</v>
+        <v>3470.6905</v>
       </c>
       <c r="G85" t="n">
-        <v>22.03133333333333</v>
+        <v>-602871.61158745</v>
       </c>
       <c r="H85" t="n">
-        <v>21.69416666666668</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3926,42 +3647,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>21.99</v>
+        <v>21.69</v>
       </c>
       <c r="C86" t="n">
-        <v>21.99</v>
+        <v>21.69</v>
       </c>
       <c r="D86" t="n">
-        <v>21.99</v>
+        <v>21.69</v>
       </c>
       <c r="E86" t="n">
-        <v>21.99</v>
+        <v>21.69</v>
       </c>
       <c r="F86" t="n">
-        <v>860.5569</v>
+        <v>2034.5367</v>
       </c>
       <c r="G86" t="n">
-        <v>22.03666666666666</v>
+        <v>-602871.61158745</v>
       </c>
       <c r="H86" t="n">
-        <v>21.69566666666668</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3970,42 +3688,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>21.99</v>
+        <v>21.55</v>
       </c>
       <c r="C87" t="n">
-        <v>21.99</v>
+        <v>21.55</v>
       </c>
       <c r="D87" t="n">
-        <v>21.99</v>
+        <v>21.55</v>
       </c>
       <c r="E87" t="n">
-        <v>21.99</v>
+        <v>21.55</v>
       </c>
       <c r="F87" t="n">
-        <v>793.0604</v>
+        <v>5000</v>
       </c>
       <c r="G87" t="n">
-        <v>22.04199999999999</v>
+        <v>-607871.61158745</v>
       </c>
       <c r="H87" t="n">
-        <v>21.69883333333335</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4014,42 +3729,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>21.99</v>
+        <v>21.55</v>
       </c>
       <c r="C88" t="n">
-        <v>21.87</v>
+        <v>21.55</v>
       </c>
       <c r="D88" t="n">
-        <v>21.99</v>
+        <v>21.55</v>
       </c>
       <c r="E88" t="n">
-        <v>21.87</v>
+        <v>21.55</v>
       </c>
       <c r="F88" t="n">
-        <v>4000</v>
+        <v>311.5212</v>
       </c>
       <c r="G88" t="n">
-        <v>22.03933333333332</v>
+        <v>-607871.61158745</v>
       </c>
       <c r="H88" t="n">
-        <v>21.70483333333334</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4058,42 +3770,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>21.87</v>
+        <v>21.55</v>
       </c>
       <c r="C89" t="n">
-        <v>22.02</v>
+        <v>21.55</v>
       </c>
       <c r="D89" t="n">
-        <v>22.02</v>
+        <v>21.55</v>
       </c>
       <c r="E89" t="n">
-        <v>21.66</v>
+        <v>21.55</v>
       </c>
       <c r="F89" t="n">
-        <v>11430.6267</v>
+        <v>2000</v>
       </c>
       <c r="G89" t="n">
-        <v>22.04466666666666</v>
+        <v>-607871.61158745</v>
       </c>
       <c r="H89" t="n">
-        <v>21.71183333333335</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4102,42 +3811,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>22.02</v>
+        <v>21.55</v>
       </c>
       <c r="C90" t="n">
-        <v>22.02</v>
+        <v>21.36</v>
       </c>
       <c r="D90" t="n">
-        <v>22.02</v>
+        <v>21.55</v>
       </c>
       <c r="E90" t="n">
-        <v>22.02</v>
+        <v>21.36</v>
       </c>
       <c r="F90" t="n">
-        <v>2264.9863</v>
+        <v>63800</v>
       </c>
       <c r="G90" t="n">
-        <v>22.04999999999999</v>
+        <v>-671671.61158745</v>
       </c>
       <c r="H90" t="n">
-        <v>21.71883333333335</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4146,42 +3852,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>22.02</v>
+        <v>21.5</v>
       </c>
       <c r="C91" t="n">
-        <v>22.02</v>
+        <v>21.5</v>
       </c>
       <c r="D91" t="n">
-        <v>22.02</v>
+        <v>21.5</v>
       </c>
       <c r="E91" t="n">
-        <v>22.02</v>
+        <v>21.5</v>
       </c>
       <c r="F91" t="n">
-        <v>3604.5877</v>
+        <v>6891</v>
       </c>
       <c r="G91" t="n">
-        <v>22.04533333333332</v>
+        <v>-664780.61158745</v>
       </c>
       <c r="H91" t="n">
-        <v>21.72583333333335</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4190,42 +3893,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>22.2</v>
+        <v>21.5</v>
       </c>
       <c r="C92" t="n">
-        <v>22.2</v>
+        <v>21.35</v>
       </c>
       <c r="D92" t="n">
-        <v>22.2</v>
+        <v>21.5</v>
       </c>
       <c r="E92" t="n">
-        <v>22.2</v>
+        <v>21.35</v>
       </c>
       <c r="F92" t="n">
-        <v>1000</v>
+        <v>30500</v>
       </c>
       <c r="G92" t="n">
-        <v>22.05266666666666</v>
+        <v>-695280.61158745</v>
       </c>
       <c r="H92" t="n">
-        <v>21.73600000000001</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4234,42 +3934,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>22.02</v>
+        <v>21.35</v>
       </c>
       <c r="C93" t="n">
-        <v>22.2</v>
+        <v>21.35</v>
       </c>
       <c r="D93" t="n">
-        <v>22.2</v>
+        <v>21.35</v>
       </c>
       <c r="E93" t="n">
-        <v>22.02</v>
+        <v>21.35</v>
       </c>
       <c r="F93" t="n">
-        <v>550</v>
+        <v>425</v>
       </c>
       <c r="G93" t="n">
-        <v>22.05999999999999</v>
+        <v>-695280.61158745</v>
       </c>
       <c r="H93" t="n">
-        <v>21.74616666666669</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4278,43 +3975,40 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>22.2</v>
+        <v>21.7</v>
       </c>
       <c r="C94" t="n">
-        <v>22.2</v>
+        <v>21.7</v>
       </c>
       <c r="D94" t="n">
-        <v>22.2</v>
+        <v>21.7</v>
       </c>
       <c r="E94" t="n">
-        <v>22.2</v>
+        <v>21.7</v>
       </c>
       <c r="F94" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G94" t="n">
-        <v>22.06066666666666</v>
+        <v>-695080.61158745</v>
       </c>
       <c r="H94" t="n">
-        <v>21.75650000000002</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>1</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
-        <v>1.028519553072626</v>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -4322,36 +4016,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>22.15</v>
+        <v>21.68</v>
       </c>
       <c r="C95" t="n">
-        <v>22.15</v>
+        <v>21.68</v>
       </c>
       <c r="D95" t="n">
-        <v>22.15</v>
+        <v>21.68</v>
       </c>
       <c r="E95" t="n">
-        <v>22.15</v>
+        <v>21.68</v>
       </c>
       <c r="F95" t="n">
-        <v>25</v>
+        <v>2444.64944649</v>
       </c>
       <c r="G95" t="n">
-        <v>22.05799999999999</v>
+        <v>-697525.26103394</v>
       </c>
       <c r="H95" t="n">
-        <v>21.76600000000002</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>1</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4360,36 +4057,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>22.19</v>
+        <v>21.68</v>
       </c>
       <c r="C96" t="n">
-        <v>22.19</v>
+        <v>21.68</v>
       </c>
       <c r="D96" t="n">
-        <v>22.19</v>
+        <v>21.68</v>
       </c>
       <c r="E96" t="n">
-        <v>22.19</v>
+        <v>21.68</v>
       </c>
       <c r="F96" t="n">
-        <v>12000</v>
+        <v>2300.5073</v>
       </c>
       <c r="G96" t="n">
-        <v>22.05799999999999</v>
+        <v>-697525.26103394</v>
       </c>
       <c r="H96" t="n">
-        <v>21.77616666666669</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>1</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4398,36 +4098,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>22.2</v>
+        <v>21.68</v>
       </c>
       <c r="C97" t="n">
-        <v>22.2</v>
+        <v>21.68</v>
       </c>
       <c r="D97" t="n">
-        <v>22.2</v>
+        <v>21.68</v>
       </c>
       <c r="E97" t="n">
-        <v>22.2</v>
+        <v>21.68</v>
       </c>
       <c r="F97" t="n">
-        <v>10482.3707</v>
+        <v>12420.7523</v>
       </c>
       <c r="G97" t="n">
-        <v>22.06999999999999</v>
+        <v>-697525.26103394</v>
       </c>
       <c r="H97" t="n">
-        <v>21.78666666666669</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>1</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4436,36 +4139,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>22.2</v>
+        <v>21.68</v>
       </c>
       <c r="C98" t="n">
-        <v>22.2</v>
+        <v>21.69</v>
       </c>
       <c r="D98" t="n">
-        <v>22.2</v>
+        <v>21.69</v>
       </c>
       <c r="E98" t="n">
-        <v>22.2</v>
+        <v>21.68</v>
       </c>
       <c r="F98" t="n">
-        <v>9.9293</v>
+        <v>3600.6222</v>
       </c>
       <c r="G98" t="n">
-        <v>22.08199999999999</v>
+        <v>-693924.63883394</v>
       </c>
       <c r="H98" t="n">
-        <v>21.79733333333336</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>1</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4474,36 +4180,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>22.2</v>
+        <v>21.69</v>
       </c>
       <c r="C99" t="n">
-        <v>22.2</v>
+        <v>21.9</v>
       </c>
       <c r="D99" t="n">
-        <v>22.2</v>
+        <v>21.9</v>
       </c>
       <c r="E99" t="n">
-        <v>22.2</v>
+        <v>21.69</v>
       </c>
       <c r="F99" t="n">
-        <v>2905.4659</v>
+        <v>87460.41025351</v>
       </c>
       <c r="G99" t="n">
-        <v>22.09599999999999</v>
+        <v>-606464.22858043</v>
       </c>
       <c r="H99" t="n">
-        <v>21.80883333333336</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>1</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4512,36 +4221,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>22.19</v>
+        <v>21.9</v>
       </c>
       <c r="C100" t="n">
-        <v>22.19</v>
+        <v>21.91</v>
       </c>
       <c r="D100" t="n">
-        <v>22.19</v>
+        <v>21.91</v>
       </c>
       <c r="E100" t="n">
-        <v>22.19</v>
+        <v>21.9</v>
       </c>
       <c r="F100" t="n">
-        <v>19781.5348</v>
+        <v>7423.0031</v>
       </c>
       <c r="G100" t="n">
-        <v>22.10933333333332</v>
+        <v>-599041.2254804301</v>
       </c>
       <c r="H100" t="n">
-        <v>21.82033333333336</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>1</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4550,36 +4262,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>22.15</v>
+        <v>21.91</v>
       </c>
       <c r="C101" t="n">
-        <v>22.15</v>
+        <v>21.91</v>
       </c>
       <c r="D101" t="n">
-        <v>22.15</v>
+        <v>21.91</v>
       </c>
       <c r="E101" t="n">
-        <v>22.15</v>
+        <v>21.91</v>
       </c>
       <c r="F101" t="n">
-        <v>29857.5682</v>
+        <v>30000</v>
       </c>
       <c r="G101" t="n">
-        <v>22.11999999999999</v>
+        <v>-599041.2254804301</v>
       </c>
       <c r="H101" t="n">
-        <v>21.8311666666667</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>1</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4588,36 +4303,39 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>22.29</v>
+        <v>21.91</v>
       </c>
       <c r="C102" t="n">
-        <v>22.29</v>
+        <v>21.91</v>
       </c>
       <c r="D102" t="n">
-        <v>22.29</v>
+        <v>21.91</v>
       </c>
       <c r="E102" t="n">
-        <v>22.29</v>
+        <v>21.91</v>
       </c>
       <c r="F102" t="n">
-        <v>216.2403</v>
+        <v>20511.627</v>
       </c>
       <c r="G102" t="n">
-        <v>22.13999999999999</v>
+        <v>-599041.2254804301</v>
       </c>
       <c r="H102" t="n">
-        <v>21.8441666666667</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>1</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4626,36 +4344,39 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>22.15</v>
+        <v>21.94</v>
       </c>
       <c r="C103" t="n">
-        <v>22.15</v>
+        <v>21.94</v>
       </c>
       <c r="D103" t="n">
-        <v>22.15</v>
+        <v>21.94</v>
       </c>
       <c r="E103" t="n">
-        <v>22.15</v>
+        <v>21.94</v>
       </c>
       <c r="F103" t="n">
-        <v>46822.828</v>
+        <v>496.6249</v>
       </c>
       <c r="G103" t="n">
-        <v>22.15866666666665</v>
+        <v>-598544.60058043</v>
       </c>
       <c r="H103" t="n">
-        <v>21.85483333333337</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>1</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4664,36 +4385,39 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>22.1</v>
+        <v>21.94</v>
       </c>
       <c r="C104" t="n">
-        <v>22.1</v>
+        <v>21.94</v>
       </c>
       <c r="D104" t="n">
-        <v>22.1</v>
+        <v>21.94</v>
       </c>
       <c r="E104" t="n">
-        <v>22.1</v>
+        <v>21.94</v>
       </c>
       <c r="F104" t="n">
-        <v>68213.397</v>
+        <v>135898.9408</v>
       </c>
       <c r="G104" t="n">
-        <v>22.16399999999999</v>
+        <v>-598544.60058043</v>
       </c>
       <c r="H104" t="n">
-        <v>21.86483333333337</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>1</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4702,36 +4426,39 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>22.1</v>
+        <v>21.95</v>
       </c>
       <c r="C105" t="n">
-        <v>22.1</v>
+        <v>22.09</v>
       </c>
       <c r="D105" t="n">
-        <v>22.1</v>
+        <v>22.09</v>
       </c>
       <c r="E105" t="n">
-        <v>22.1</v>
+        <v>21.95</v>
       </c>
       <c r="F105" t="n">
-        <v>7720.0635</v>
+        <v>19807.0534</v>
       </c>
       <c r="G105" t="n">
-        <v>22.16933333333332</v>
+        <v>-578737.54718043</v>
       </c>
       <c r="H105" t="n">
-        <v>21.8751666666667</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>1</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4740,36 +4467,39 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>22.1</v>
+        <v>22.09</v>
       </c>
       <c r="C106" t="n">
-        <v>22.1</v>
+        <v>22.09</v>
       </c>
       <c r="D106" t="n">
-        <v>22.1</v>
+        <v>22.09</v>
       </c>
       <c r="E106" t="n">
-        <v>22.1</v>
+        <v>22.09</v>
       </c>
       <c r="F106" t="n">
-        <v>271.9357</v>
+        <v>1198.2552</v>
       </c>
       <c r="G106" t="n">
-        <v>22.17466666666666</v>
+        <v>-578737.54718043</v>
       </c>
       <c r="H106" t="n">
-        <v>21.8801666666667</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>1</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4778,36 +4508,39 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>22.2</v>
+        <v>22.09</v>
       </c>
       <c r="C107" t="n">
-        <v>22.2</v>
+        <v>22.09</v>
       </c>
       <c r="D107" t="n">
-        <v>22.2</v>
+        <v>22.09</v>
       </c>
       <c r="E107" t="n">
-        <v>22.2</v>
+        <v>22.09</v>
       </c>
       <c r="F107" t="n">
-        <v>500</v>
+        <v>23001.4635</v>
       </c>
       <c r="G107" t="n">
-        <v>22.17466666666666</v>
+        <v>-578737.54718043</v>
       </c>
       <c r="H107" t="n">
-        <v>21.89350000000003</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>1</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4816,36 +4549,39 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>22.2</v>
+        <v>22.09</v>
       </c>
       <c r="C108" t="n">
-        <v>22.2</v>
+        <v>22.19</v>
       </c>
       <c r="D108" t="n">
-        <v>22.2</v>
+        <v>22.19</v>
       </c>
       <c r="E108" t="n">
-        <v>22.2</v>
+        <v>22.09</v>
       </c>
       <c r="F108" t="n">
-        <v>500</v>
+        <v>66550.27099999999</v>
       </c>
       <c r="G108" t="n">
-        <v>22.17466666666666</v>
+        <v>-512187.27618043</v>
       </c>
       <c r="H108" t="n">
-        <v>21.90350000000003</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>1</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4854,36 +4590,1132 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="C109" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="D109" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="E109" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="F109" t="n">
+        <v>69</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-512187.27618043</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="C110" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="D110" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="E110" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1449.5001</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-512187.27618043</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="C111" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="D111" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="E111" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="F111" t="n">
+        <v>12000</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-524187.27618043</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="C112" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="D112" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="E112" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2264.9863</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-524187.27618043</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="C113" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="D113" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="E113" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="F113" t="n">
+        <v>16327.7923</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-540515.0684804301</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="C114" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="D114" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="E114" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="F114" t="n">
+        <v>2018.5904</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-540515.0684804301</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="C115" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="D115" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="E115" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="F115" t="n">
+        <v>860.5569</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-540515.0684804301</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="C116" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="D116" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="E116" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="F116" t="n">
+        <v>793.0604</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-540515.0684804301</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="C117" t="n">
+        <v>21.87</v>
+      </c>
+      <c r="D117" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="E117" t="n">
+        <v>21.87</v>
+      </c>
+      <c r="F117" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-544515.0684804301</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>21.87</v>
+      </c>
+      <c r="C118" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="D118" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="E118" t="n">
+        <v>21.66</v>
+      </c>
+      <c r="F118" t="n">
+        <v>11430.6267</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-533084.44178043</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="C119" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="D119" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="E119" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="F119" t="n">
+        <v>2264.9863</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-533084.44178043</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="C120" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="D120" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="E120" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="F120" t="n">
+        <v>3604.5877</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-533084.44178043</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="C121" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="D121" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="E121" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-532084.44178043</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="C122" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="D122" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="E122" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="F122" t="n">
+        <v>550</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-532084.44178043</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1.027558139534884</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="C123" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="D123" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="E123" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-532084.44178043</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>22.15</v>
+      </c>
+      <c r="C124" t="n">
+        <v>22.15</v>
+      </c>
+      <c r="D124" t="n">
+        <v>22.15</v>
+      </c>
+      <c r="E124" t="n">
+        <v>22.15</v>
+      </c>
+      <c r="F124" t="n">
+        <v>25</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-532109.44178043</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="C125" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="D125" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="E125" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="F125" t="n">
+        <v>12000</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-520109.44178043</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="C126" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="D126" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="E126" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="F126" t="n">
+        <v>10482.3707</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-509627.0710804301</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="C127" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="D127" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="E127" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="F127" t="n">
+        <v>9.9293</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-509627.0710804301</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="C128" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="D128" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="E128" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="F128" t="n">
+        <v>2905.4659</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-509627.0710804301</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="C129" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="D129" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="E129" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="F129" t="n">
+        <v>19781.5348</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-529408.6058804301</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>22.15</v>
+      </c>
+      <c r="C130" t="n">
+        <v>22.15</v>
+      </c>
+      <c r="D130" t="n">
+        <v>22.15</v>
+      </c>
+      <c r="E130" t="n">
+        <v>22.15</v>
+      </c>
+      <c r="F130" t="n">
+        <v>29857.5682</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-559266.1740804301</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>22.29</v>
+      </c>
+      <c r="C131" t="n">
+        <v>22.29</v>
+      </c>
+      <c r="D131" t="n">
+        <v>22.29</v>
+      </c>
+      <c r="E131" t="n">
+        <v>22.29</v>
+      </c>
+      <c r="F131" t="n">
+        <v>216.2403</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-559049.9337804301</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>22.15</v>
+      </c>
+      <c r="C132" t="n">
+        <v>22.15</v>
+      </c>
+      <c r="D132" t="n">
+        <v>22.15</v>
+      </c>
+      <c r="E132" t="n">
+        <v>22.15</v>
+      </c>
+      <c r="F132" t="n">
+        <v>46822.828</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-605872.7617804301</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
         <v>22.1</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C133" t="n">
         <v>22.1</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D133" t="n">
         <v>22.1</v>
       </c>
-      <c r="E109" t="n">
+      <c r="E133" t="n">
         <v>22.1</v>
       </c>
-      <c r="F109" t="n">
+      <c r="F133" t="n">
+        <v>68213.397</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-674086.1587804301</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="C134" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="D134" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="E134" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="F134" t="n">
+        <v>7720.0635</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-674086.1587804301</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="C135" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="D135" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="E135" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="F135" t="n">
+        <v>271.9357</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-674086.1587804301</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="C136" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="D136" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="E136" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="F136" t="n">
+        <v>500</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-673586.1587804301</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="C137" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="D137" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="E137" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="F137" t="n">
+        <v>500</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-673586.1587804301</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="C138" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="D138" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="E138" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="F138" t="n">
         <v>25</v>
       </c>
-      <c r="G109" t="n">
-        <v>22.168</v>
-      </c>
-      <c r="H109" t="n">
-        <v>21.91183333333337</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>1</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="G138" t="n">
+        <v>-673611.1587804301</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-16 BackTest WAXP.xlsx
+++ b/BackTest/2020-01-16 BackTest WAXP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M138"/>
+  <dimension ref="A1:N138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -454,7 +459,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -489,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -629,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -699,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -851,6 +867,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -894,6 +911,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -935,6 +953,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -970,6 +989,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1009,6 +1029,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1052,6 +1073,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1095,6 +1117,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1138,6 +1161,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1181,6 +1205,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1224,6 +1249,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1267,6 +1293,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1308,6 +1335,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1351,6 +1379,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1392,6 +1421,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1433,6 +1463,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1474,6 +1505,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1501,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
@@ -1515,6 +1547,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1542,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
@@ -1550,11 +1583,14 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>1.009150943396226</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1.03366524419156</v>
       </c>
     </row>
     <row r="31">
@@ -1583,20 +1619,15 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1627,17 +1658,12 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1668,17 +1694,12 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1709,17 +1730,12 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1750,17 +1766,12 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1791,17 +1802,12 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1829,20 +1835,15 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1870,20 +1871,15 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1914,17 +1910,12 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1952,20 +1943,15 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1996,17 +1982,12 @@
         <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>1.029905660377359</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2042,6 +2023,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2069,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -2077,6 +2059,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2104,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -2112,6 +2095,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2139,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -2147,6 +2131,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2174,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2182,6 +2167,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2217,6 +2203,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2252,6 +2239,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2287,6 +2275,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2322,6 +2311,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2357,6 +2347,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2392,6 +2383,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2419,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2427,6 +2419,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2454,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2462,6 +2455,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2489,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2497,6 +2491,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2532,6 +2527,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2559,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2567,6 +2563,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2594,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2602,6 +2599,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2637,6 +2635,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2672,6 +2671,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2707,6 +2707,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2742,6 +2743,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2777,6 +2779,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2812,6 +2815,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2847,6 +2851,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2882,6 +2887,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2917,6 +2923,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2952,6 +2959,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2987,6 +2995,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3022,6 +3031,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3061,6 +3071,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3102,6 +3113,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3143,6 +3155,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3186,6 +3199,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3227,6 +3241,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3270,6 +3285,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3311,6 +3327,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3352,6 +3369,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3393,6 +3411,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3434,6 +3453,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3475,6 +3495,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3518,6 +3539,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3559,6 +3581,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3600,6 +3623,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3641,6 +3665,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3682,6 +3707,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3723,6 +3749,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3764,6 +3791,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3805,6 +3833,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3846,6 +3875,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3887,6 +3917,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3928,6 +3959,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3969,6 +4001,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4010,6 +4043,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4051,6 +4085,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4092,6 +4127,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4133,6 +4169,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4174,6 +4211,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4215,6 +4253,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4256,6 +4295,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4297,6 +4337,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4338,6 +4379,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4379,6 +4421,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4420,6 +4463,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4461,6 +4505,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4502,6 +4547,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4529,7 +4575,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
@@ -4537,11 +4583,14 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>1</v>
+        <v>1.022441860465116</v>
+      </c>
+      <c r="N107" t="n">
+        <v>1.040777619724988</v>
       </c>
     </row>
     <row r="108">
@@ -4573,17 +4622,12 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4611,20 +4655,15 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4652,20 +4691,15 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4693,20 +4727,15 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4734,20 +4763,15 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4775,20 +4799,15 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4819,17 +4838,12 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4860,17 +4874,12 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4898,20 +4907,15 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4939,20 +4943,15 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4980,20 +4979,15 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5024,17 +5018,12 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5062,20 +5051,15 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5103,20 +5087,15 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5147,17 +5126,12 @@
         <v>1</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
-        <v>1.027558139534884</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5193,6 +5167,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5228,6 +5203,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5263,6 +5239,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5298,6 +5275,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5333,6 +5311,7 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5368,6 +5347,7 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5403,6 +5383,7 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5438,6 +5419,7 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5473,6 +5455,7 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5508,6 +5491,7 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5543,6 +5527,7 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5578,6 +5563,7 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5613,6 +5599,7 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5640,7 +5627,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
@@ -5648,6 +5635,7 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5683,6 +5671,7 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5718,6 +5707,7 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-16 BackTest WAXP.xlsx
+++ b/BackTest/2020-01-16 BackTest WAXP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N138"/>
+  <dimension ref="A1:N167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,28 +438,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>21.28</v>
+        <v>21.4</v>
       </c>
       <c r="C2" t="n">
-        <v>21.28</v>
+        <v>21.4</v>
       </c>
       <c r="D2" t="n">
-        <v>21.28</v>
+        <v>21.4</v>
       </c>
       <c r="E2" t="n">
-        <v>21.28</v>
+        <v>21.4</v>
       </c>
       <c r="F2" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="G2" t="n">
-        <v>-422428.0313</v>
+        <v>-225090.4165000001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -474,28 +474,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21.28</v>
+        <v>21.4</v>
       </c>
       <c r="C3" t="n">
-        <v>21.49</v>
+        <v>21.48</v>
       </c>
       <c r="D3" t="n">
-        <v>21.49</v>
+        <v>21.48</v>
       </c>
       <c r="E3" t="n">
-        <v>21.28</v>
+        <v>21.4</v>
       </c>
       <c r="F3" t="n">
-        <v>12050</v>
+        <v>16075</v>
       </c>
       <c r="G3" t="n">
-        <v>-410378.0313</v>
+        <v>-209015.4165000001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>21.49</v>
+        <v>21.48</v>
       </c>
       <c r="C4" t="n">
-        <v>21.49</v>
+        <v>21.48</v>
       </c>
       <c r="D4" t="n">
-        <v>21.49</v>
+        <v>21.48</v>
       </c>
       <c r="E4" t="n">
-        <v>21.49</v>
+        <v>21.48</v>
       </c>
       <c r="F4" t="n">
-        <v>30</v>
+        <v>3000</v>
       </c>
       <c r="G4" t="n">
-        <v>-410378.0313</v>
+        <v>-209015.4165000001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>21.49</v>
+        <v>21.48</v>
       </c>
       <c r="C5" t="n">
-        <v>21.49</v>
+        <v>21.48</v>
       </c>
       <c r="D5" t="n">
-        <v>21.49</v>
+        <v>21.48</v>
       </c>
       <c r="E5" t="n">
-        <v>21.49</v>
+        <v>21.48</v>
       </c>
       <c r="F5" t="n">
-        <v>606</v>
+        <v>3000</v>
       </c>
       <c r="G5" t="n">
-        <v>-410378.0313</v>
+        <v>-209015.4165000001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>21.49</v>
+        <v>21.48</v>
       </c>
       <c r="C6" t="n">
-        <v>21.5</v>
+        <v>21.48</v>
       </c>
       <c r="D6" t="n">
-        <v>21.8</v>
+        <v>21.48</v>
       </c>
       <c r="E6" t="n">
-        <v>21.3</v>
+        <v>21.48</v>
       </c>
       <c r="F6" t="n">
-        <v>39485.3054</v>
+        <v>12517</v>
       </c>
       <c r="G6" t="n">
-        <v>-370892.7259</v>
+        <v>-209015.4165000001</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,28 +618,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>21.49</v>
+        <v>21.48</v>
       </c>
       <c r="C7" t="n">
-        <v>21.49</v>
+        <v>21.48</v>
       </c>
       <c r="D7" t="n">
-        <v>21.49</v>
+        <v>21.48</v>
       </c>
       <c r="E7" t="n">
-        <v>21.4</v>
+        <v>21.48</v>
       </c>
       <c r="F7" t="n">
-        <v>115651.3873</v>
+        <v>11000</v>
       </c>
       <c r="G7" t="n">
-        <v>-486544.1132</v>
+        <v>-209015.4165000001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>21.49</v>
+        <v>21.48</v>
       </c>
       <c r="C8" t="n">
-        <v>21.5</v>
+        <v>21.48</v>
       </c>
       <c r="D8" t="n">
-        <v>21.5</v>
+        <v>21.48</v>
       </c>
       <c r="E8" t="n">
-        <v>21.49</v>
+        <v>21.48</v>
       </c>
       <c r="F8" t="n">
-        <v>45370.7504</v>
+        <v>17302</v>
       </c>
       <c r="G8" t="n">
-        <v>-441173.3628</v>
+        <v>-209015.4165000001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,31 +690,35 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>21.31</v>
+        <v>21.48</v>
       </c>
       <c r="C9" t="n">
-        <v>21.1</v>
+        <v>21.48</v>
       </c>
       <c r="D9" t="n">
-        <v>21.31</v>
+        <v>21.48</v>
       </c>
       <c r="E9" t="n">
-        <v>21.1</v>
+        <v>21.48</v>
       </c>
       <c r="F9" t="n">
-        <v>190000</v>
+        <v>4000</v>
       </c>
       <c r="G9" t="n">
-        <v>-631173.3628</v>
+        <v>-209015.4165000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="K9" t="n">
+        <v>21.48</v>
+      </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
@@ -726,32 +730,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>21.1</v>
+        <v>21.48</v>
       </c>
       <c r="C10" t="n">
-        <v>21.1</v>
+        <v>21.48</v>
       </c>
       <c r="D10" t="n">
-        <v>21.1</v>
+        <v>21.48</v>
       </c>
       <c r="E10" t="n">
-        <v>21.1</v>
+        <v>21.48</v>
       </c>
       <c r="F10" t="n">
-        <v>8379.3001</v>
+        <v>11000</v>
       </c>
       <c r="G10" t="n">
-        <v>-631173.3628</v>
+        <v>-209015.4165000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="K10" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,32 +774,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>21.1</v>
+        <v>21.48</v>
       </c>
       <c r="C11" t="n">
-        <v>21.1</v>
+        <v>21.48</v>
       </c>
       <c r="D11" t="n">
-        <v>21.1</v>
+        <v>21.48</v>
       </c>
       <c r="E11" t="n">
-        <v>21.1</v>
+        <v>21.48</v>
       </c>
       <c r="F11" t="n">
-        <v>24170.2654</v>
+        <v>4000</v>
       </c>
       <c r="G11" t="n">
-        <v>-631173.3628</v>
+        <v>-209015.4165000001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="K11" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,31 +818,35 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>21.09</v>
+        <v>21.48</v>
       </c>
       <c r="C12" t="n">
-        <v>21.09</v>
+        <v>21.48</v>
       </c>
       <c r="D12" t="n">
-        <v>21.09</v>
+        <v>21.48</v>
       </c>
       <c r="E12" t="n">
-        <v>21.09</v>
+        <v>21.48</v>
       </c>
       <c r="F12" t="n">
-        <v>12101.015</v>
+        <v>57558.1115</v>
       </c>
       <c r="G12" t="n">
-        <v>-643274.3778</v>
+        <v>-209015.4165000001</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="K12" t="n">
+        <v>21.48</v>
+      </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
@@ -834,22 +858,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>21.1</v>
+        <v>21.5</v>
       </c>
       <c r="C13" t="n">
-        <v>21.1</v>
+        <v>21.5</v>
       </c>
       <c r="D13" t="n">
-        <v>21.1</v>
+        <v>21.5</v>
       </c>
       <c r="E13" t="n">
-        <v>21.1</v>
+        <v>21.5</v>
       </c>
       <c r="F13" t="n">
-        <v>221.1012</v>
+        <v>12531.685</v>
       </c>
       <c r="G13" t="n">
-        <v>-643053.2766</v>
+        <v>-196483.7315000001</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -858,12 +882,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>21.09</v>
+        <v>21.48</v>
       </c>
       <c r="K13" t="n">
-        <v>21.09</v>
-      </c>
-      <c r="L13" t="inlineStr"/>
+        <v>21.48</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -874,22 +902,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>21.21</v>
+        <v>21.53</v>
       </c>
       <c r="C14" t="n">
-        <v>21.2</v>
+        <v>21.53</v>
       </c>
       <c r="D14" t="n">
-        <v>21.21</v>
+        <v>21.53</v>
       </c>
       <c r="E14" t="n">
-        <v>21.2</v>
+        <v>21.53</v>
       </c>
       <c r="F14" t="n">
-        <v>26368.6509</v>
+        <v>185.2604</v>
       </c>
       <c r="G14" t="n">
-        <v>-616684.6257</v>
+        <v>-196298.4711000001</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -898,10 +926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>21.1</v>
+        <v>21.5</v>
       </c>
       <c r="K14" t="n">
-        <v>21.09</v>
+        <v>21.48</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -918,38 +946,36 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>21.2</v>
+        <v>21.53</v>
       </c>
       <c r="C15" t="n">
-        <v>21.2</v>
+        <v>21.53</v>
       </c>
       <c r="D15" t="n">
-        <v>21.2</v>
+        <v>21.53</v>
       </c>
       <c r="E15" t="n">
-        <v>21.2</v>
+        <v>21.53</v>
       </c>
       <c r="F15" t="n">
-        <v>4737.0914</v>
+        <v>1000</v>
       </c>
       <c r="G15" t="n">
-        <v>-616684.6257</v>
+        <v>-196298.4711000001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>21.53</v>
+      </c>
       <c r="K15" t="n">
-        <v>21.09</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>21.53</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -960,32 +986,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>21.2</v>
+        <v>21.53</v>
       </c>
       <c r="C16" t="n">
-        <v>21.2</v>
+        <v>21.53</v>
       </c>
       <c r="D16" t="n">
-        <v>21.2</v>
+        <v>21.53</v>
       </c>
       <c r="E16" t="n">
-        <v>21.2</v>
+        <v>21.53</v>
       </c>
       <c r="F16" t="n">
-        <v>26808.0381</v>
+        <v>789</v>
       </c>
       <c r="G16" t="n">
-        <v>-616684.6257</v>
+        <v>-196298.4711000001</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>21.53</v>
+      </c>
+      <c r="K16" t="n">
+        <v>21.53</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -996,22 +1030,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>21.2</v>
+        <v>21.53</v>
       </c>
       <c r="C17" t="n">
-        <v>21.2</v>
+        <v>21.59</v>
       </c>
       <c r="D17" t="n">
-        <v>21.2</v>
+        <v>21.59</v>
       </c>
       <c r="E17" t="n">
-        <v>21.2</v>
+        <v>21.53</v>
       </c>
       <c r="F17" t="n">
-        <v>27979.2719</v>
+        <v>20088.484</v>
       </c>
       <c r="G17" t="n">
-        <v>-616684.6257</v>
+        <v>-176209.9871000001</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1020,12 +1054,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>21.2</v>
+        <v>21.53</v>
       </c>
       <c r="K17" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="L17" t="inlineStr"/>
+        <v>21.53</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1036,22 +1074,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>21.2</v>
+        <v>21.61</v>
       </c>
       <c r="C18" t="n">
-        <v>21.2</v>
+        <v>21.61</v>
       </c>
       <c r="D18" t="n">
-        <v>21.2</v>
+        <v>21.61</v>
       </c>
       <c r="E18" t="n">
-        <v>21.2</v>
+        <v>21.61</v>
       </c>
       <c r="F18" t="n">
-        <v>3303.9059</v>
+        <v>347.3859</v>
       </c>
       <c r="G18" t="n">
-        <v>-616684.6257</v>
+        <v>-175862.6012000001</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -1060,14 +1098,14 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>21.2</v>
+        <v>21.59</v>
       </c>
       <c r="K18" t="n">
-        <v>21.2</v>
+        <v>21.53</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M18" t="n">
@@ -1080,22 +1118,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>21.12</v>
+        <v>21.5</v>
       </c>
       <c r="C19" t="n">
-        <v>21.2</v>
+        <v>21.31</v>
       </c>
       <c r="D19" t="n">
-        <v>21.2</v>
+        <v>21.5</v>
       </c>
       <c r="E19" t="n">
-        <v>21.12</v>
+        <v>21.31</v>
       </c>
       <c r="F19" t="n">
-        <v>19501.9662</v>
+        <v>60786.9901</v>
       </c>
       <c r="G19" t="n">
-        <v>-616684.6257</v>
+        <v>-236649.5913000001</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -1104,14 +1142,14 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>21.2</v>
+        <v>21.61</v>
       </c>
       <c r="K19" t="n">
-        <v>21.2</v>
+        <v>21.53</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M19" t="n">
@@ -1124,22 +1162,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>21.2</v>
+        <v>21.6</v>
       </c>
       <c r="C20" t="n">
-        <v>21.2</v>
+        <v>21.88</v>
       </c>
       <c r="D20" t="n">
-        <v>21.21</v>
+        <v>21.88</v>
       </c>
       <c r="E20" t="n">
-        <v>21.2</v>
+        <v>21.6</v>
       </c>
       <c r="F20" t="n">
-        <v>46000</v>
+        <v>20596</v>
       </c>
       <c r="G20" t="n">
-        <v>-616684.6257</v>
+        <v>-216053.5913000001</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -1148,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>21.2</v>
+        <v>21.31</v>
       </c>
       <c r="K20" t="n">
-        <v>21.2</v>
+        <v>21.53</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1168,22 +1206,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>21.2</v>
+        <v>21.85</v>
       </c>
       <c r="C21" t="n">
-        <v>21.2</v>
+        <v>21.99</v>
       </c>
       <c r="D21" t="n">
-        <v>21.2</v>
+        <v>21.99</v>
       </c>
       <c r="E21" t="n">
-        <v>21.12</v>
+        <v>21.85</v>
       </c>
       <c r="F21" t="n">
-        <v>70047.5828</v>
+        <v>35472.99981764</v>
       </c>
       <c r="G21" t="n">
-        <v>-616684.6257</v>
+        <v>-180580.5914823601</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -1192,10 +1230,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>21.2</v>
+        <v>21.88</v>
       </c>
       <c r="K21" t="n">
-        <v>21.2</v>
+        <v>21.53</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1212,34 +1250,32 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>21.2</v>
+        <v>21.72</v>
       </c>
       <c r="C22" t="n">
-        <v>21.2</v>
+        <v>21.72</v>
       </c>
       <c r="D22" t="n">
-        <v>21.2</v>
+        <v>21.72</v>
       </c>
       <c r="E22" t="n">
-        <v>21.2</v>
+        <v>21.72</v>
       </c>
       <c r="F22" t="n">
-        <v>12000</v>
+        <v>10000.0875</v>
       </c>
       <c r="G22" t="n">
-        <v>-616684.6257</v>
+        <v>-190580.6789823601</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>21.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>21.2</v>
+        <v>21.53</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1256,34 +1292,32 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>21.21</v>
+        <v>21.95</v>
       </c>
       <c r="C23" t="n">
-        <v>21.21</v>
+        <v>21.95</v>
       </c>
       <c r="D23" t="n">
-        <v>21.21</v>
+        <v>21.95</v>
       </c>
       <c r="E23" t="n">
-        <v>21.21</v>
+        <v>21.95</v>
       </c>
       <c r="F23" t="n">
-        <v>9167.510200000001</v>
+        <v>13201.62</v>
       </c>
       <c r="G23" t="n">
-        <v>-607517.1155</v>
+        <v>-177379.0589823601</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>21.2</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>21.2</v>
+        <v>21.53</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1300,32 +1334,32 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>21.21</v>
+        <v>21.95</v>
       </c>
       <c r="C24" t="n">
-        <v>21.21</v>
+        <v>21.7</v>
       </c>
       <c r="D24" t="n">
-        <v>21.21</v>
+        <v>21.95</v>
       </c>
       <c r="E24" t="n">
-        <v>21.21</v>
+        <v>21.7</v>
       </c>
       <c r="F24" t="n">
-        <v>590.8256</v>
+        <v>10979.1232</v>
       </c>
       <c r="G24" t="n">
-        <v>-607517.1155</v>
+        <v>-188358.1821823601</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>21.2</v>
+        <v>21.53</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1342,34 +1376,32 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>21.21</v>
+        <v>21.7</v>
       </c>
       <c r="C25" t="n">
-        <v>21.21</v>
+        <v>21.7</v>
       </c>
       <c r="D25" t="n">
-        <v>21.21</v>
+        <v>21.7</v>
       </c>
       <c r="E25" t="n">
-        <v>21.21</v>
+        <v>21.7</v>
       </c>
       <c r="F25" t="n">
-        <v>1020</v>
+        <v>6191.4408</v>
       </c>
       <c r="G25" t="n">
-        <v>-607517.1155</v>
+        <v>-188358.1821823601</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>21.21</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>21.2</v>
+        <v>21.53</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1386,22 +1418,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>21.21</v>
+        <v>21.9</v>
       </c>
       <c r="C26" t="n">
-        <v>21.21</v>
+        <v>22</v>
       </c>
       <c r="D26" t="n">
-        <v>21.21</v>
+        <v>22</v>
       </c>
       <c r="E26" t="n">
-        <v>21.21</v>
+        <v>21.9</v>
       </c>
       <c r="F26" t="n">
-        <v>21672</v>
+        <v>84840.06008236</v>
       </c>
       <c r="G26" t="n">
-        <v>-607517.1155</v>
+        <v>-103518.1221000001</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1411,7 +1443,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>21.2</v>
+        <v>21.53</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1428,32 +1460,32 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>21.21</v>
+        <v>22</v>
       </c>
       <c r="C27" t="n">
-        <v>21.38</v>
+        <v>21.7</v>
       </c>
       <c r="D27" t="n">
-        <v>21.38</v>
+        <v>22</v>
       </c>
       <c r="E27" t="n">
-        <v>21.21</v>
+        <v>21.7</v>
       </c>
       <c r="F27" t="n">
-        <v>49237</v>
+        <v>1932.9092</v>
       </c>
       <c r="G27" t="n">
-        <v>-558280.1155</v>
+        <v>-105451.0313000001</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>21.2</v>
+        <v>21.53</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1470,40 +1502,40 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>21.38</v>
+        <v>21.7</v>
       </c>
       <c r="C28" t="n">
-        <v>21.38</v>
+        <v>21.61</v>
       </c>
       <c r="D28" t="n">
-        <v>21.38</v>
+        <v>21.7</v>
       </c>
       <c r="E28" t="n">
-        <v>21.38</v>
+        <v>21.61</v>
       </c>
       <c r="F28" t="n">
-        <v>10113</v>
+        <v>155000</v>
       </c>
       <c r="G28" t="n">
-        <v>-558280.1155</v>
+        <v>-260451.0313000001</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>21.2</v>
+        <v>21.53</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>0.9987157454714352</v>
       </c>
       <c r="N28" t="inlineStr"/>
     </row>
@@ -1512,22 +1544,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>21.38</v>
+        <v>21.61</v>
       </c>
       <c r="C29" t="n">
-        <v>21.38</v>
+        <v>20.95</v>
       </c>
       <c r="D29" t="n">
-        <v>21.38</v>
+        <v>21.61</v>
       </c>
       <c r="E29" t="n">
-        <v>21.38</v>
+        <v>20.95</v>
       </c>
       <c r="F29" t="n">
-        <v>46772.6847521</v>
+        <v>150000</v>
       </c>
       <c r="G29" t="n">
-        <v>-558280.1155</v>
+        <v>-410451.0313</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1536,14 +1568,8 @@
         <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1554,72 +1580,64 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>21.38</v>
+        <v>21.49</v>
       </c>
       <c r="C30" t="n">
-        <v>21.5</v>
+        <v>21.49</v>
       </c>
       <c r="D30" t="n">
-        <v>21.5</v>
+        <v>21.49</v>
       </c>
       <c r="E30" t="n">
-        <v>21.38</v>
+        <v>21.49</v>
       </c>
       <c r="F30" t="n">
-        <v>40155.15293417</v>
+        <v>23</v>
       </c>
       <c r="G30" t="n">
-        <v>-518124.96256583</v>
+        <v>-410428.0313</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>1.009150943396226</v>
-      </c>
-      <c r="N30" t="n">
-        <v>1.03366524419156</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>21.2</v>
+        <v>21.28</v>
       </c>
       <c r="C31" t="n">
-        <v>21.13</v>
+        <v>21.28</v>
       </c>
       <c r="D31" t="n">
-        <v>21.2</v>
+        <v>21.28</v>
       </c>
       <c r="E31" t="n">
-        <v>21.13</v>
+        <v>21.28</v>
       </c>
       <c r="F31" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="G31" t="n">
-        <v>-527124.96256583</v>
+        <v>-422428.0313</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1634,22 +1652,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>21.13</v>
+        <v>21.28</v>
       </c>
       <c r="C32" t="n">
-        <v>21.13</v>
+        <v>21.49</v>
       </c>
       <c r="D32" t="n">
-        <v>21.13</v>
+        <v>21.49</v>
       </c>
       <c r="E32" t="n">
-        <v>21.13</v>
+        <v>21.28</v>
       </c>
       <c r="F32" t="n">
-        <v>3000</v>
+        <v>12050</v>
       </c>
       <c r="G32" t="n">
-        <v>-527124.96256583</v>
+        <v>-410378.0313</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1670,22 +1688,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>21.13</v>
+        <v>21.49</v>
       </c>
       <c r="C33" t="n">
-        <v>21.13</v>
+        <v>21.49</v>
       </c>
       <c r="D33" t="n">
-        <v>21.13</v>
+        <v>21.49</v>
       </c>
       <c r="E33" t="n">
-        <v>21.13</v>
+        <v>21.49</v>
       </c>
       <c r="F33" t="n">
-        <v>3000</v>
+        <v>30</v>
       </c>
       <c r="G33" t="n">
-        <v>-527124.96256583</v>
+        <v>-410378.0313</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1706,22 +1724,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>21.13</v>
+        <v>21.49</v>
       </c>
       <c r="C34" t="n">
-        <v>21.13</v>
+        <v>21.49</v>
       </c>
       <c r="D34" t="n">
-        <v>21.13</v>
+        <v>21.49</v>
       </c>
       <c r="E34" t="n">
-        <v>21.13</v>
+        <v>21.49</v>
       </c>
       <c r="F34" t="n">
-        <v>1000</v>
+        <v>606</v>
       </c>
       <c r="G34" t="n">
-        <v>-527124.96256583</v>
+        <v>-410378.0313</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1742,22 +1760,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>21.4</v>
+        <v>21.49</v>
       </c>
       <c r="C35" t="n">
         <v>21.5</v>
       </c>
       <c r="D35" t="n">
-        <v>21.5</v>
+        <v>21.8</v>
       </c>
       <c r="E35" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="F35" t="n">
-        <v>140116.95121373</v>
+        <v>39485.3054</v>
       </c>
       <c r="G35" t="n">
-        <v>-387008.0113520999</v>
+        <v>-370892.7259</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1778,22 +1796,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>21.5</v>
+        <v>21.49</v>
       </c>
       <c r="C36" t="n">
-        <v>21.5</v>
+        <v>21.49</v>
       </c>
       <c r="D36" t="n">
-        <v>21.5</v>
+        <v>21.49</v>
       </c>
       <c r="E36" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="F36" t="n">
-        <v>81825.2763</v>
+        <v>115651.3873</v>
       </c>
       <c r="G36" t="n">
-        <v>-387008.0113520999</v>
+        <v>-486544.1132</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1814,28 +1832,28 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>21.53</v>
+        <v>21.49</v>
       </c>
       <c r="C37" t="n">
-        <v>21.65</v>
+        <v>21.5</v>
       </c>
       <c r="D37" t="n">
-        <v>21.65</v>
+        <v>21.5</v>
       </c>
       <c r="E37" t="n">
-        <v>21.53</v>
+        <v>21.49</v>
       </c>
       <c r="F37" t="n">
-        <v>19000</v>
+        <v>45370.7504</v>
       </c>
       <c r="G37" t="n">
-        <v>-368008.0113520999</v>
+        <v>-441173.3628</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1850,28 +1868,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>21.65</v>
+        <v>21.31</v>
       </c>
       <c r="C38" t="n">
-        <v>21.65</v>
+        <v>21.1</v>
       </c>
       <c r="D38" t="n">
-        <v>21.65</v>
+        <v>21.31</v>
       </c>
       <c r="E38" t="n">
-        <v>21.65</v>
+        <v>21.1</v>
       </c>
       <c r="F38" t="n">
-        <v>40824.6196</v>
+        <v>190000</v>
       </c>
       <c r="G38" t="n">
-        <v>-368008.0113520999</v>
+        <v>-631173.3628</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1886,22 +1904,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>21.8</v>
+        <v>21.1</v>
       </c>
       <c r="C39" t="n">
-        <v>21.8</v>
+        <v>21.1</v>
       </c>
       <c r="D39" t="n">
-        <v>21.8</v>
+        <v>21.1</v>
       </c>
       <c r="E39" t="n">
-        <v>21.8</v>
+        <v>21.1</v>
       </c>
       <c r="F39" t="n">
-        <v>6726.7802</v>
+        <v>8379.3001</v>
       </c>
       <c r="G39" t="n">
-        <v>-361281.2311521</v>
+        <v>-631173.3628</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1922,28 +1940,28 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>21.8</v>
+        <v>21.1</v>
       </c>
       <c r="C40" t="n">
-        <v>21.9</v>
+        <v>21.1</v>
       </c>
       <c r="D40" t="n">
-        <v>21.9</v>
+        <v>21.1</v>
       </c>
       <c r="E40" t="n">
-        <v>21.8</v>
+        <v>21.1</v>
       </c>
       <c r="F40" t="n">
-        <v>44712.1108</v>
+        <v>24170.2654</v>
       </c>
       <c r="G40" t="n">
-        <v>-316569.1203520999</v>
+        <v>-631173.3628</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1958,28 +1976,28 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>21.94</v>
+        <v>21.09</v>
       </c>
       <c r="C41" t="n">
-        <v>21.94</v>
+        <v>21.09</v>
       </c>
       <c r="D41" t="n">
-        <v>21.94</v>
+        <v>21.09</v>
       </c>
       <c r="E41" t="n">
-        <v>21.94</v>
+        <v>21.09</v>
       </c>
       <c r="F41" t="n">
-        <v>12000</v>
+        <v>12101.015</v>
       </c>
       <c r="G41" t="n">
-        <v>-304569.1203520999</v>
+        <v>-643274.3778</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1994,28 +2012,28 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>21.95</v>
+        <v>21.1</v>
       </c>
       <c r="C42" t="n">
-        <v>21.95</v>
+        <v>21.1</v>
       </c>
       <c r="D42" t="n">
-        <v>21.95</v>
+        <v>21.1</v>
       </c>
       <c r="E42" t="n">
-        <v>21.95</v>
+        <v>21.1</v>
       </c>
       <c r="F42" t="n">
-        <v>15248.1931</v>
+        <v>221.1012</v>
       </c>
       <c r="G42" t="n">
-        <v>-289320.9272521</v>
+        <v>-643053.2766</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -2030,28 +2048,28 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>21.9</v>
+        <v>21.21</v>
       </c>
       <c r="C43" t="n">
-        <v>21.9</v>
+        <v>21.2</v>
       </c>
       <c r="D43" t="n">
-        <v>21.9</v>
+        <v>21.21</v>
       </c>
       <c r="E43" t="n">
-        <v>21.9</v>
+        <v>21.2</v>
       </c>
       <c r="F43" t="n">
-        <v>28198</v>
+        <v>26368.6509</v>
       </c>
       <c r="G43" t="n">
-        <v>-317518.9272521</v>
+        <v>-616684.6257</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -2066,28 +2084,28 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>21.9</v>
+        <v>21.2</v>
       </c>
       <c r="C44" t="n">
-        <v>21.68</v>
+        <v>21.2</v>
       </c>
       <c r="D44" t="n">
-        <v>21.9</v>
+        <v>21.2</v>
       </c>
       <c r="E44" t="n">
-        <v>21.68</v>
+        <v>21.2</v>
       </c>
       <c r="F44" t="n">
-        <v>3000</v>
+        <v>4737.0914</v>
       </c>
       <c r="G44" t="n">
-        <v>-320518.9272521</v>
+        <v>-616684.6257</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -2102,28 +2120,28 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>21.65</v>
+        <v>21.2</v>
       </c>
       <c r="C45" t="n">
-        <v>21.65</v>
+        <v>21.2</v>
       </c>
       <c r="D45" t="n">
-        <v>21.65</v>
+        <v>21.2</v>
       </c>
       <c r="E45" t="n">
-        <v>21.65</v>
+        <v>21.2</v>
       </c>
       <c r="F45" t="n">
-        <v>12000</v>
+        <v>26808.0381</v>
       </c>
       <c r="G45" t="n">
-        <v>-332518.9272521</v>
+        <v>-616684.6257</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -2138,28 +2156,28 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>21.6</v>
+        <v>21.2</v>
       </c>
       <c r="C46" t="n">
-        <v>21.6</v>
+        <v>21.2</v>
       </c>
       <c r="D46" t="n">
-        <v>21.6</v>
+        <v>21.2</v>
       </c>
       <c r="E46" t="n">
-        <v>21.6</v>
+        <v>21.2</v>
       </c>
       <c r="F46" t="n">
-        <v>2090.5717</v>
+        <v>27979.2719</v>
       </c>
       <c r="G46" t="n">
-        <v>-334609.4989520999</v>
+        <v>-616684.6257</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2174,22 +2192,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>21.6</v>
+        <v>21.2</v>
       </c>
       <c r="C47" t="n">
-        <v>21.5</v>
+        <v>21.2</v>
       </c>
       <c r="D47" t="n">
-        <v>21.6</v>
+        <v>21.2</v>
       </c>
       <c r="E47" t="n">
-        <v>21.5</v>
+        <v>21.2</v>
       </c>
       <c r="F47" t="n">
-        <v>61865.9754</v>
+        <v>3303.9059</v>
       </c>
       <c r="G47" t="n">
-        <v>-396475.4743520999</v>
+        <v>-616684.6257</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2210,22 +2228,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>21.45</v>
+        <v>21.12</v>
       </c>
       <c r="C48" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="D48" t="n">
-        <v>21.45</v>
+        <v>21.2</v>
       </c>
       <c r="E48" t="n">
-        <v>21.4</v>
+        <v>21.12</v>
       </c>
       <c r="F48" t="n">
-        <v>2829.367</v>
+        <v>19501.9662</v>
       </c>
       <c r="G48" t="n">
-        <v>-399304.8413521</v>
+        <v>-616684.6257</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2246,22 +2264,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="C49" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="D49" t="n">
-        <v>21.4</v>
+        <v>21.21</v>
       </c>
       <c r="E49" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="F49" t="n">
-        <v>2330.6074</v>
+        <v>46000</v>
       </c>
       <c r="G49" t="n">
-        <v>-399304.8413521</v>
+        <v>-616684.6257</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2282,22 +2300,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>21.31</v>
+        <v>21.2</v>
       </c>
       <c r="C50" t="n">
-        <v>21.31</v>
+        <v>21.2</v>
       </c>
       <c r="D50" t="n">
-        <v>21.31</v>
+        <v>21.2</v>
       </c>
       <c r="E50" t="n">
-        <v>21.31</v>
+        <v>21.12</v>
       </c>
       <c r="F50" t="n">
-        <v>28900</v>
+        <v>70047.5828</v>
       </c>
       <c r="G50" t="n">
-        <v>-428204.8413521</v>
+        <v>-616684.6257</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2318,22 +2336,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="C51" t="n">
-        <v>21.9</v>
+        <v>21.2</v>
       </c>
       <c r="D51" t="n">
-        <v>21.9</v>
+        <v>21.2</v>
       </c>
       <c r="E51" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="F51" t="n">
-        <v>59103.6673</v>
+        <v>12000</v>
       </c>
       <c r="G51" t="n">
-        <v>-369101.1740520999</v>
+        <v>-616684.6257</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2354,22 +2372,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>21.85</v>
+        <v>21.21</v>
       </c>
       <c r="C52" t="n">
-        <v>21.85</v>
+        <v>21.21</v>
       </c>
       <c r="D52" t="n">
-        <v>21.91</v>
+        <v>21.21</v>
       </c>
       <c r="E52" t="n">
-        <v>21.85</v>
+        <v>21.21</v>
       </c>
       <c r="F52" t="n">
-        <v>59410</v>
+        <v>9167.510200000001</v>
       </c>
       <c r="G52" t="n">
-        <v>-428511.1740520999</v>
+        <v>-607517.1155</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2390,28 +2408,28 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>21.91</v>
+        <v>21.21</v>
       </c>
       <c r="C53" t="n">
-        <v>21.9</v>
+        <v>21.21</v>
       </c>
       <c r="D53" t="n">
-        <v>21.91</v>
+        <v>21.21</v>
       </c>
       <c r="E53" t="n">
-        <v>21.9</v>
+        <v>21.21</v>
       </c>
       <c r="F53" t="n">
-        <v>40521.2586</v>
+        <v>590.8256</v>
       </c>
       <c r="G53" t="n">
-        <v>-387989.9154520999</v>
+        <v>-607517.1155</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2426,28 +2444,28 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>21.9</v>
+        <v>21.21</v>
       </c>
       <c r="C54" t="n">
-        <v>21.9</v>
+        <v>21.21</v>
       </c>
       <c r="D54" t="n">
-        <v>21.9</v>
+        <v>21.21</v>
       </c>
       <c r="E54" t="n">
-        <v>21.9</v>
+        <v>21.21</v>
       </c>
       <c r="F54" t="n">
-        <v>6808</v>
+        <v>1020</v>
       </c>
       <c r="G54" t="n">
-        <v>-387989.9154520999</v>
+        <v>-607517.1155</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2462,28 +2480,28 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>21.9</v>
+        <v>21.21</v>
       </c>
       <c r="C55" t="n">
-        <v>21.9</v>
+        <v>21.21</v>
       </c>
       <c r="D55" t="n">
-        <v>21.9</v>
+        <v>21.21</v>
       </c>
       <c r="E55" t="n">
-        <v>21.9</v>
+        <v>21.21</v>
       </c>
       <c r="F55" t="n">
-        <v>218179.5339</v>
+        <v>21672</v>
       </c>
       <c r="G55" t="n">
-        <v>-387989.9154520999</v>
+        <v>-607517.1155</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2498,28 +2516,28 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>21.85</v>
+        <v>21.21</v>
       </c>
       <c r="C56" t="n">
-        <v>21.8</v>
+        <v>21.38</v>
       </c>
       <c r="D56" t="n">
-        <v>21.85</v>
+        <v>21.38</v>
       </c>
       <c r="E56" t="n">
-        <v>21.8</v>
+        <v>21.21</v>
       </c>
       <c r="F56" t="n">
-        <v>82041.0613</v>
+        <v>49237</v>
       </c>
       <c r="G56" t="n">
-        <v>-470030.9767520999</v>
+        <v>-558280.1155</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2534,28 +2552,28 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>21.7</v>
+        <v>21.38</v>
       </c>
       <c r="C57" t="n">
-        <v>21.51</v>
+        <v>21.38</v>
       </c>
       <c r="D57" t="n">
-        <v>21.7</v>
+        <v>21.38</v>
       </c>
       <c r="E57" t="n">
-        <v>21.51</v>
+        <v>21.38</v>
       </c>
       <c r="F57" t="n">
-        <v>96555.5307</v>
+        <v>10113</v>
       </c>
       <c r="G57" t="n">
-        <v>-566586.5074520999</v>
+        <v>-558280.1155</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2570,28 +2588,28 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>21.6</v>
+        <v>21.38</v>
       </c>
       <c r="C58" t="n">
-        <v>21.6</v>
+        <v>21.38</v>
       </c>
       <c r="D58" t="n">
-        <v>21.6</v>
+        <v>21.38</v>
       </c>
       <c r="E58" t="n">
-        <v>21.6</v>
+        <v>21.38</v>
       </c>
       <c r="F58" t="n">
-        <v>1112.9954</v>
+        <v>46772.6847521</v>
       </c>
       <c r="G58" t="n">
-        <v>-565473.5120520999</v>
+        <v>-558280.1155</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2606,22 +2624,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>21.6</v>
+        <v>21.38</v>
       </c>
       <c r="C59" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="D59" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="E59" t="n">
-        <v>21.6</v>
+        <v>21.38</v>
       </c>
       <c r="F59" t="n">
-        <v>4247.93</v>
+        <v>40155.15293417</v>
       </c>
       <c r="G59" t="n">
-        <v>-565473.5120520999</v>
+        <v>-518124.96256583</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2642,22 +2660,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>21.62</v>
+        <v>21.2</v>
       </c>
       <c r="C60" t="n">
-        <v>21.6</v>
+        <v>21.13</v>
       </c>
       <c r="D60" t="n">
-        <v>21.62</v>
+        <v>21.2</v>
       </c>
       <c r="E60" t="n">
-        <v>21.6</v>
+        <v>21.13</v>
       </c>
       <c r="F60" t="n">
-        <v>6472.6113</v>
+        <v>9000</v>
       </c>
       <c r="G60" t="n">
-        <v>-565473.5120520999</v>
+        <v>-527124.96256583</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2678,22 +2696,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>21.59</v>
+        <v>21.13</v>
       </c>
       <c r="C61" t="n">
-        <v>21.59</v>
+        <v>21.13</v>
       </c>
       <c r="D61" t="n">
-        <v>21.59</v>
+        <v>21.13</v>
       </c>
       <c r="E61" t="n">
-        <v>21.59</v>
+        <v>21.13</v>
       </c>
       <c r="F61" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G61" t="n">
-        <v>-567473.5120520999</v>
+        <v>-527124.96256583</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2714,22 +2732,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>21.6</v>
+        <v>21.13</v>
       </c>
       <c r="C62" t="n">
-        <v>21.59</v>
+        <v>21.13</v>
       </c>
       <c r="D62" t="n">
-        <v>21.6</v>
+        <v>21.13</v>
       </c>
       <c r="E62" t="n">
-        <v>21.59</v>
+        <v>21.13</v>
       </c>
       <c r="F62" t="n">
-        <v>7255</v>
+        <v>3000</v>
       </c>
       <c r="G62" t="n">
-        <v>-567473.5120520999</v>
+        <v>-527124.96256583</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2750,22 +2768,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>21.59</v>
+        <v>21.13</v>
       </c>
       <c r="C63" t="n">
-        <v>21.58</v>
+        <v>21.13</v>
       </c>
       <c r="D63" t="n">
-        <v>21.59</v>
+        <v>21.13</v>
       </c>
       <c r="E63" t="n">
-        <v>21.58</v>
+        <v>21.13</v>
       </c>
       <c r="F63" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G63" t="n">
-        <v>-575473.5120520999</v>
+        <v>-527124.96256583</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2786,22 +2804,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>21.58</v>
+        <v>21.4</v>
       </c>
       <c r="C64" t="n">
-        <v>21.58</v>
+        <v>21.5</v>
       </c>
       <c r="D64" t="n">
-        <v>21.58</v>
+        <v>21.5</v>
       </c>
       <c r="E64" t="n">
-        <v>21.58</v>
+        <v>21.4</v>
       </c>
       <c r="F64" t="n">
-        <v>1167.5102</v>
+        <v>140116.95121373</v>
       </c>
       <c r="G64" t="n">
-        <v>-575473.5120520999</v>
+        <v>-387008.0113520999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2822,22 +2840,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>21.58</v>
+        <v>21.5</v>
       </c>
       <c r="C65" t="n">
-        <v>21.58</v>
+        <v>21.5</v>
       </c>
       <c r="D65" t="n">
-        <v>21.58</v>
+        <v>21.5</v>
       </c>
       <c r="E65" t="n">
-        <v>21.58</v>
+        <v>21.5</v>
       </c>
       <c r="F65" t="n">
-        <v>3572.228</v>
+        <v>81825.2763</v>
       </c>
       <c r="G65" t="n">
-        <v>-575473.5120520999</v>
+        <v>-387008.0113520999</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2858,22 +2876,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>21.57</v>
+        <v>21.53</v>
       </c>
       <c r="C66" t="n">
-        <v>21.57</v>
+        <v>21.65</v>
       </c>
       <c r="D66" t="n">
-        <v>21.57</v>
+        <v>21.65</v>
       </c>
       <c r="E66" t="n">
-        <v>21.57</v>
+        <v>21.53</v>
       </c>
       <c r="F66" t="n">
-        <v>2651.7045</v>
+        <v>19000</v>
       </c>
       <c r="G66" t="n">
-        <v>-578125.2165520999</v>
+        <v>-368008.0113520999</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2894,22 +2912,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>21.56</v>
+        <v>21.65</v>
       </c>
       <c r="C67" t="n">
-        <v>21.56</v>
+        <v>21.65</v>
       </c>
       <c r="D67" t="n">
-        <v>21.56</v>
+        <v>21.65</v>
       </c>
       <c r="E67" t="n">
-        <v>21.56</v>
+        <v>21.65</v>
       </c>
       <c r="F67" t="n">
-        <v>2000</v>
+        <v>40824.6196</v>
       </c>
       <c r="G67" t="n">
-        <v>-580125.2165520999</v>
+        <v>-368008.0113520999</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2930,22 +2948,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>21.51</v>
+        <v>21.8</v>
       </c>
       <c r="C68" t="n">
-        <v>21.51</v>
+        <v>21.8</v>
       </c>
       <c r="D68" t="n">
-        <v>21.51</v>
+        <v>21.8</v>
       </c>
       <c r="E68" t="n">
-        <v>21.51</v>
+        <v>21.8</v>
       </c>
       <c r="F68" t="n">
-        <v>28016.4583</v>
+        <v>6726.7802</v>
       </c>
       <c r="G68" t="n">
-        <v>-608141.6748521</v>
+        <v>-361281.2311521</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2966,22 +2984,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>21.5</v>
+        <v>21.8</v>
       </c>
       <c r="C69" t="n">
-        <v>21.5</v>
+        <v>21.9</v>
       </c>
       <c r="D69" t="n">
-        <v>21.5</v>
+        <v>21.9</v>
       </c>
       <c r="E69" t="n">
-        <v>21.5</v>
+        <v>21.8</v>
       </c>
       <c r="F69" t="n">
-        <v>4000</v>
+        <v>44712.1108</v>
       </c>
       <c r="G69" t="n">
-        <v>-612141.6748521</v>
+        <v>-316569.1203520999</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3002,22 +3020,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>21.5</v>
+        <v>21.94</v>
       </c>
       <c r="C70" t="n">
-        <v>21.5</v>
+        <v>21.94</v>
       </c>
       <c r="D70" t="n">
-        <v>21.5</v>
+        <v>21.94</v>
       </c>
       <c r="E70" t="n">
-        <v>21.5</v>
+        <v>21.94</v>
       </c>
       <c r="F70" t="n">
-        <v>18597.9817</v>
+        <v>12000</v>
       </c>
       <c r="G70" t="n">
-        <v>-612141.6748521</v>
+        <v>-304569.1203520999</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3038,35 +3056,31 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>21.51</v>
+        <v>21.95</v>
       </c>
       <c r="C71" t="n">
-        <v>21.51</v>
+        <v>21.95</v>
       </c>
       <c r="D71" t="n">
-        <v>21.51</v>
+        <v>21.95</v>
       </c>
       <c r="E71" t="n">
-        <v>21.51</v>
+        <v>21.95</v>
       </c>
       <c r="F71" t="n">
-        <v>2000</v>
+        <v>15248.1931</v>
       </c>
       <c r="G71" t="n">
-        <v>-610141.6748521</v>
+        <v>-289320.9272521</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K71" t="n">
-        <v>21.5</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
@@ -3078,22 +3092,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>21.51</v>
+        <v>21.9</v>
       </c>
       <c r="C72" t="n">
-        <v>21.51</v>
+        <v>21.9</v>
       </c>
       <c r="D72" t="n">
-        <v>21.51</v>
+        <v>21.9</v>
       </c>
       <c r="E72" t="n">
-        <v>21.51</v>
+        <v>21.9</v>
       </c>
       <c r="F72" t="n">
-        <v>5000</v>
+        <v>28198</v>
       </c>
       <c r="G72" t="n">
-        <v>-610141.6748521</v>
+        <v>-317518.9272521</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3102,14 +3116,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3120,22 +3128,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>21.5</v>
+        <v>21.9</v>
       </c>
       <c r="C73" t="n">
-        <v>21.5</v>
+        <v>21.68</v>
       </c>
       <c r="D73" t="n">
-        <v>21.5</v>
+        <v>21.9</v>
       </c>
       <c r="E73" t="n">
-        <v>21.5</v>
+        <v>21.68</v>
       </c>
       <c r="F73" t="n">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="G73" t="n">
-        <v>-610241.6748521</v>
+        <v>-320518.9272521</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3144,14 +3152,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3162,40 +3164,32 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>21.5</v>
+        <v>21.65</v>
       </c>
       <c r="C74" t="n">
-        <v>21.48</v>
+        <v>21.65</v>
       </c>
       <c r="D74" t="n">
-        <v>21.5</v>
+        <v>21.65</v>
       </c>
       <c r="E74" t="n">
-        <v>21.48</v>
+        <v>21.65</v>
       </c>
       <c r="F74" t="n">
-        <v>4496.1302</v>
+        <v>12000</v>
       </c>
       <c r="G74" t="n">
-        <v>-614737.8050521</v>
+        <v>-332518.9272521</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K74" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3206,22 +3200,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>21.51</v>
+        <v>21.6</v>
       </c>
       <c r="C75" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="D75" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="E75" t="n">
-        <v>21.51</v>
+        <v>21.6</v>
       </c>
       <c r="F75" t="n">
-        <v>2000</v>
+        <v>2090.5717</v>
       </c>
       <c r="G75" t="n">
-        <v>-612737.8050521</v>
+        <v>-334609.4989520999</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3230,14 +3224,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3248,40 +3236,32 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>21.49</v>
+        <v>21.6</v>
       </c>
       <c r="C76" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="D76" t="n">
-        <v>21.49</v>
+        <v>21.6</v>
       </c>
       <c r="E76" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="F76" t="n">
-        <v>18307.1577</v>
+        <v>61865.9754</v>
       </c>
       <c r="G76" t="n">
-        <v>-631044.9627521</v>
+        <v>-396475.4743520999</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="K76" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3292,22 +3272,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>21.6</v>
+        <v>21.45</v>
       </c>
       <c r="C77" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="D77" t="n">
-        <v>21.6</v>
+        <v>21.45</v>
       </c>
       <c r="E77" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="F77" t="n">
-        <v>9341.6109</v>
+        <v>2829.367</v>
       </c>
       <c r="G77" t="n">
-        <v>-621703.3518521</v>
+        <v>-399304.8413521</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3316,14 +3296,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3334,22 +3308,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="C78" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="D78" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="E78" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="F78" t="n">
-        <v>2321.9273</v>
+        <v>2330.6074</v>
       </c>
       <c r="G78" t="n">
-        <v>-621703.3518521</v>
+        <v>-399304.8413521</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3358,14 +3332,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3376,22 +3344,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>21.5</v>
+        <v>21.31</v>
       </c>
       <c r="C79" t="n">
-        <v>21.5</v>
+        <v>21.31</v>
       </c>
       <c r="D79" t="n">
-        <v>21.5</v>
+        <v>21.31</v>
       </c>
       <c r="E79" t="n">
-        <v>21.5</v>
+        <v>21.31</v>
       </c>
       <c r="F79" t="n">
-        <v>368.3708</v>
+        <v>28900</v>
       </c>
       <c r="G79" t="n">
-        <v>-622071.7226521</v>
+        <v>-428204.8413521</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3400,14 +3368,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3418,22 +3380,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="C80" t="n">
-        <v>21.34</v>
+        <v>21.9</v>
       </c>
       <c r="D80" t="n">
-        <v>21.5</v>
+        <v>21.9</v>
       </c>
       <c r="E80" t="n">
-        <v>21.34</v>
+        <v>21.4</v>
       </c>
       <c r="F80" t="n">
-        <v>30000</v>
+        <v>59103.6673</v>
       </c>
       <c r="G80" t="n">
-        <v>-652071.7226521</v>
+        <v>-369101.1740520999</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3442,14 +3404,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3460,22 +3416,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>21.5</v>
+        <v>21.85</v>
       </c>
       <c r="C81" t="n">
-        <v>21.5</v>
+        <v>21.85</v>
       </c>
       <c r="D81" t="n">
-        <v>21.5</v>
+        <v>21.91</v>
       </c>
       <c r="E81" t="n">
-        <v>21.5</v>
+        <v>21.85</v>
       </c>
       <c r="F81" t="n">
-        <v>1187.6127</v>
+        <v>59410</v>
       </c>
       <c r="G81" t="n">
-        <v>-650884.1099521</v>
+        <v>-428511.1740520999</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3484,14 +3440,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3502,40 +3452,32 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>21.5</v>
+        <v>21.91</v>
       </c>
       <c r="C82" t="n">
-        <v>21.5</v>
+        <v>21.9</v>
       </c>
       <c r="D82" t="n">
-        <v>21.5</v>
+        <v>21.91</v>
       </c>
       <c r="E82" t="n">
-        <v>21.5</v>
+        <v>21.9</v>
       </c>
       <c r="F82" t="n">
-        <v>4479.7607</v>
+        <v>40521.2586</v>
       </c>
       <c r="G82" t="n">
-        <v>-650884.1099521</v>
+        <v>-387989.9154520999</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K82" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3546,22 +3488,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>21.5</v>
+        <v>21.9</v>
       </c>
       <c r="C83" t="n">
-        <v>21.76</v>
+        <v>21.9</v>
       </c>
       <c r="D83" t="n">
-        <v>21.77</v>
+        <v>21.9</v>
       </c>
       <c r="E83" t="n">
-        <v>21.5</v>
+        <v>21.9</v>
       </c>
       <c r="F83" t="n">
-        <v>49866.49836465</v>
+        <v>6808</v>
       </c>
       <c r="G83" t="n">
-        <v>-601017.61158745</v>
+        <v>-387989.9154520999</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3570,14 +3512,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3588,22 +3524,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>21.69</v>
+        <v>21.9</v>
       </c>
       <c r="C84" t="n">
-        <v>21.69</v>
+        <v>21.9</v>
       </c>
       <c r="D84" t="n">
-        <v>21.69</v>
+        <v>21.9</v>
       </c>
       <c r="E84" t="n">
-        <v>21.69</v>
+        <v>21.9</v>
       </c>
       <c r="F84" t="n">
-        <v>1854</v>
+        <v>218179.5339</v>
       </c>
       <c r="G84" t="n">
-        <v>-602871.61158745</v>
+        <v>-387989.9154520999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3612,14 +3548,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3630,22 +3560,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>21.69</v>
+        <v>21.85</v>
       </c>
       <c r="C85" t="n">
-        <v>21.69</v>
+        <v>21.8</v>
       </c>
       <c r="D85" t="n">
-        <v>21.69</v>
+        <v>21.85</v>
       </c>
       <c r="E85" t="n">
-        <v>21.69</v>
+        <v>21.8</v>
       </c>
       <c r="F85" t="n">
-        <v>3470.6905</v>
+        <v>82041.0613</v>
       </c>
       <c r="G85" t="n">
-        <v>-602871.61158745</v>
+        <v>-470030.9767520999</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3654,14 +3584,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3672,22 +3596,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>21.69</v>
+        <v>21.7</v>
       </c>
       <c r="C86" t="n">
-        <v>21.69</v>
+        <v>21.51</v>
       </c>
       <c r="D86" t="n">
-        <v>21.69</v>
+        <v>21.7</v>
       </c>
       <c r="E86" t="n">
-        <v>21.69</v>
+        <v>21.51</v>
       </c>
       <c r="F86" t="n">
-        <v>2034.5367</v>
+        <v>96555.5307</v>
       </c>
       <c r="G86" t="n">
-        <v>-602871.61158745</v>
+        <v>-566586.5074520999</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3696,14 +3620,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3714,22 +3632,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>21.55</v>
+        <v>21.6</v>
       </c>
       <c r="C87" t="n">
-        <v>21.55</v>
+        <v>21.6</v>
       </c>
       <c r="D87" t="n">
-        <v>21.55</v>
+        <v>21.6</v>
       </c>
       <c r="E87" t="n">
-        <v>21.55</v>
+        <v>21.6</v>
       </c>
       <c r="F87" t="n">
-        <v>5000</v>
+        <v>1112.9954</v>
       </c>
       <c r="G87" t="n">
-        <v>-607871.61158745</v>
+        <v>-565473.5120520999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3738,14 +3656,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3756,22 +3668,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>21.55</v>
+        <v>21.6</v>
       </c>
       <c r="C88" t="n">
-        <v>21.55</v>
+        <v>21.6</v>
       </c>
       <c r="D88" t="n">
-        <v>21.55</v>
+        <v>21.6</v>
       </c>
       <c r="E88" t="n">
-        <v>21.55</v>
+        <v>21.6</v>
       </c>
       <c r="F88" t="n">
-        <v>311.5212</v>
+        <v>4247.93</v>
       </c>
       <c r="G88" t="n">
-        <v>-607871.61158745</v>
+        <v>-565473.5120520999</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3780,14 +3692,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3798,22 +3704,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>21.55</v>
+        <v>21.62</v>
       </c>
       <c r="C89" t="n">
-        <v>21.55</v>
+        <v>21.6</v>
       </c>
       <c r="D89" t="n">
-        <v>21.55</v>
+        <v>21.62</v>
       </c>
       <c r="E89" t="n">
-        <v>21.55</v>
+        <v>21.6</v>
       </c>
       <c r="F89" t="n">
-        <v>2000</v>
+        <v>6472.6113</v>
       </c>
       <c r="G89" t="n">
-        <v>-607871.61158745</v>
+        <v>-565473.5120520999</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3822,14 +3728,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3840,22 +3740,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>21.55</v>
+        <v>21.59</v>
       </c>
       <c r="C90" t="n">
-        <v>21.36</v>
+        <v>21.59</v>
       </c>
       <c r="D90" t="n">
-        <v>21.55</v>
+        <v>21.59</v>
       </c>
       <c r="E90" t="n">
-        <v>21.36</v>
+        <v>21.59</v>
       </c>
       <c r="F90" t="n">
-        <v>63800</v>
+        <v>2000</v>
       </c>
       <c r="G90" t="n">
-        <v>-671671.61158745</v>
+        <v>-567473.5120520999</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3864,14 +3764,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3882,22 +3776,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="C91" t="n">
-        <v>21.5</v>
+        <v>21.59</v>
       </c>
       <c r="D91" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="E91" t="n">
-        <v>21.5</v>
+        <v>21.59</v>
       </c>
       <c r="F91" t="n">
-        <v>6891</v>
+        <v>7255</v>
       </c>
       <c r="G91" t="n">
-        <v>-664780.61158745</v>
+        <v>-567473.5120520999</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3906,14 +3800,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3924,22 +3812,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>21.5</v>
+        <v>21.59</v>
       </c>
       <c r="C92" t="n">
-        <v>21.35</v>
+        <v>21.58</v>
       </c>
       <c r="D92" t="n">
-        <v>21.5</v>
+        <v>21.59</v>
       </c>
       <c r="E92" t="n">
-        <v>21.35</v>
+        <v>21.58</v>
       </c>
       <c r="F92" t="n">
-        <v>30500</v>
+        <v>8000</v>
       </c>
       <c r="G92" t="n">
-        <v>-695280.61158745</v>
+        <v>-575473.5120520999</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3948,14 +3836,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3966,22 +3848,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>21.35</v>
+        <v>21.58</v>
       </c>
       <c r="C93" t="n">
-        <v>21.35</v>
+        <v>21.58</v>
       </c>
       <c r="D93" t="n">
-        <v>21.35</v>
+        <v>21.58</v>
       </c>
       <c r="E93" t="n">
-        <v>21.35</v>
+        <v>21.58</v>
       </c>
       <c r="F93" t="n">
-        <v>425</v>
+        <v>1167.5102</v>
       </c>
       <c r="G93" t="n">
-        <v>-695280.61158745</v>
+        <v>-575473.5120520999</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3990,14 +3872,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4008,22 +3884,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>21.7</v>
+        <v>21.58</v>
       </c>
       <c r="C94" t="n">
-        <v>21.7</v>
+        <v>21.58</v>
       </c>
       <c r="D94" t="n">
-        <v>21.7</v>
+        <v>21.58</v>
       </c>
       <c r="E94" t="n">
-        <v>21.7</v>
+        <v>21.58</v>
       </c>
       <c r="F94" t="n">
-        <v>200</v>
+        <v>3572.228</v>
       </c>
       <c r="G94" t="n">
-        <v>-695080.61158745</v>
+        <v>-575473.5120520999</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4032,14 +3908,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4050,22 +3920,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>21.68</v>
+        <v>21.57</v>
       </c>
       <c r="C95" t="n">
-        <v>21.68</v>
+        <v>21.57</v>
       </c>
       <c r="D95" t="n">
-        <v>21.68</v>
+        <v>21.57</v>
       </c>
       <c r="E95" t="n">
-        <v>21.68</v>
+        <v>21.57</v>
       </c>
       <c r="F95" t="n">
-        <v>2444.64944649</v>
+        <v>2651.7045</v>
       </c>
       <c r="G95" t="n">
-        <v>-697525.26103394</v>
+        <v>-578125.2165520999</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4074,14 +3944,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4092,22 +3956,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>21.68</v>
+        <v>21.56</v>
       </c>
       <c r="C96" t="n">
-        <v>21.68</v>
+        <v>21.56</v>
       </c>
       <c r="D96" t="n">
-        <v>21.68</v>
+        <v>21.56</v>
       </c>
       <c r="E96" t="n">
-        <v>21.68</v>
+        <v>21.56</v>
       </c>
       <c r="F96" t="n">
-        <v>2300.5073</v>
+        <v>2000</v>
       </c>
       <c r="G96" t="n">
-        <v>-697525.26103394</v>
+        <v>-580125.2165520999</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4116,14 +3980,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4134,22 +3992,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>21.68</v>
+        <v>21.51</v>
       </c>
       <c r="C97" t="n">
-        <v>21.68</v>
+        <v>21.51</v>
       </c>
       <c r="D97" t="n">
-        <v>21.68</v>
+        <v>21.51</v>
       </c>
       <c r="E97" t="n">
-        <v>21.68</v>
+        <v>21.51</v>
       </c>
       <c r="F97" t="n">
-        <v>12420.7523</v>
+        <v>28016.4583</v>
       </c>
       <c r="G97" t="n">
-        <v>-697525.26103394</v>
+        <v>-608141.6748521</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4158,14 +4016,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4176,22 +4028,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>21.68</v>
+        <v>21.5</v>
       </c>
       <c r="C98" t="n">
-        <v>21.69</v>
+        <v>21.5</v>
       </c>
       <c r="D98" t="n">
-        <v>21.69</v>
+        <v>21.5</v>
       </c>
       <c r="E98" t="n">
-        <v>21.68</v>
+        <v>21.5</v>
       </c>
       <c r="F98" t="n">
-        <v>3600.6222</v>
+        <v>4000</v>
       </c>
       <c r="G98" t="n">
-        <v>-693924.63883394</v>
+        <v>-612141.6748521</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4200,14 +4052,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4218,22 +4064,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>21.69</v>
+        <v>21.5</v>
       </c>
       <c r="C99" t="n">
-        <v>21.9</v>
+        <v>21.5</v>
       </c>
       <c r="D99" t="n">
-        <v>21.9</v>
+        <v>21.5</v>
       </c>
       <c r="E99" t="n">
-        <v>21.69</v>
+        <v>21.5</v>
       </c>
       <c r="F99" t="n">
-        <v>87460.41025351</v>
+        <v>18597.9817</v>
       </c>
       <c r="G99" t="n">
-        <v>-606464.22858043</v>
+        <v>-612141.6748521</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4242,14 +4088,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4260,22 +4100,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>21.9</v>
+        <v>21.51</v>
       </c>
       <c r="C100" t="n">
-        <v>21.91</v>
+        <v>21.51</v>
       </c>
       <c r="D100" t="n">
-        <v>21.91</v>
+        <v>21.51</v>
       </c>
       <c r="E100" t="n">
-        <v>21.9</v>
+        <v>21.51</v>
       </c>
       <c r="F100" t="n">
-        <v>7423.0031</v>
+        <v>2000</v>
       </c>
       <c r="G100" t="n">
-        <v>-599041.2254804301</v>
+        <v>-610141.6748521</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4284,14 +4124,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4302,22 +4136,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>21.91</v>
+        <v>21.51</v>
       </c>
       <c r="C101" t="n">
-        <v>21.91</v>
+        <v>21.51</v>
       </c>
       <c r="D101" t="n">
-        <v>21.91</v>
+        <v>21.51</v>
       </c>
       <c r="E101" t="n">
-        <v>21.91</v>
+        <v>21.51</v>
       </c>
       <c r="F101" t="n">
-        <v>30000</v>
+        <v>5000</v>
       </c>
       <c r="G101" t="n">
-        <v>-599041.2254804301</v>
+        <v>-610141.6748521</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4326,14 +4160,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4344,22 +4172,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>21.91</v>
+        <v>21.5</v>
       </c>
       <c r="C102" t="n">
-        <v>21.91</v>
+        <v>21.5</v>
       </c>
       <c r="D102" t="n">
-        <v>21.91</v>
+        <v>21.5</v>
       </c>
       <c r="E102" t="n">
-        <v>21.91</v>
+        <v>21.5</v>
       </c>
       <c r="F102" t="n">
-        <v>20511.627</v>
+        <v>100</v>
       </c>
       <c r="G102" t="n">
-        <v>-599041.2254804301</v>
+        <v>-610241.6748521</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4368,14 +4196,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4386,22 +4208,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>21.94</v>
+        <v>21.5</v>
       </c>
       <c r="C103" t="n">
-        <v>21.94</v>
+        <v>21.48</v>
       </c>
       <c r="D103" t="n">
-        <v>21.94</v>
+        <v>21.5</v>
       </c>
       <c r="E103" t="n">
-        <v>21.94</v>
+        <v>21.48</v>
       </c>
       <c r="F103" t="n">
-        <v>496.6249</v>
+        <v>4496.1302</v>
       </c>
       <c r="G103" t="n">
-        <v>-598544.60058043</v>
+        <v>-614737.8050521</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4410,14 +4232,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4428,38 +4244,36 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>21.94</v>
+        <v>21.51</v>
       </c>
       <c r="C104" t="n">
-        <v>21.94</v>
+        <v>21.8</v>
       </c>
       <c r="D104" t="n">
-        <v>21.94</v>
+        <v>21.8</v>
       </c>
       <c r="E104" t="n">
-        <v>21.94</v>
+        <v>21.51</v>
       </c>
       <c r="F104" t="n">
-        <v>135898.9408</v>
+        <v>2000</v>
       </c>
       <c r="G104" t="n">
-        <v>-598544.60058043</v>
+        <v>-612737.8050521</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>21.48</v>
+      </c>
       <c r="K104" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>21.48</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4470,22 +4284,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>21.95</v>
+        <v>21.49</v>
       </c>
       <c r="C105" t="n">
-        <v>22.09</v>
+        <v>21.4</v>
       </c>
       <c r="D105" t="n">
-        <v>22.09</v>
+        <v>21.49</v>
       </c>
       <c r="E105" t="n">
-        <v>21.95</v>
+        <v>21.4</v>
       </c>
       <c r="F105" t="n">
-        <v>19807.0534</v>
+        <v>18307.1577</v>
       </c>
       <c r="G105" t="n">
-        <v>-578737.54718043</v>
+        <v>-631044.9627521</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4495,11 +4309,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>21.5</v>
+        <v>21.48</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M105" t="n">
@@ -4512,22 +4326,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>22.09</v>
+        <v>21.6</v>
       </c>
       <c r="C106" t="n">
-        <v>22.09</v>
+        <v>21.6</v>
       </c>
       <c r="D106" t="n">
-        <v>22.09</v>
+        <v>21.6</v>
       </c>
       <c r="E106" t="n">
-        <v>22.09</v>
+        <v>21.6</v>
       </c>
       <c r="F106" t="n">
-        <v>1198.2552</v>
+        <v>9341.6109</v>
       </c>
       <c r="G106" t="n">
-        <v>-578737.54718043</v>
+        <v>-621703.3518521</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4537,7 +4351,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>21.5</v>
+        <v>21.48</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4554,66 +4368,64 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>22.09</v>
+        <v>21.6</v>
       </c>
       <c r="C107" t="n">
-        <v>22.09</v>
+        <v>21.6</v>
       </c>
       <c r="D107" t="n">
-        <v>22.09</v>
+        <v>21.6</v>
       </c>
       <c r="E107" t="n">
-        <v>22.09</v>
+        <v>21.6</v>
       </c>
       <c r="F107" t="n">
-        <v>23001.4635</v>
+        <v>2321.9273</v>
       </c>
       <c r="G107" t="n">
-        <v>-578737.54718043</v>
+        <v>-621703.3518521</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>21.5</v>
+        <v>21.48</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>1.022441860465116</v>
-      </c>
-      <c r="N107" t="n">
-        <v>1.040777619724988</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>22.09</v>
+        <v>21.5</v>
       </c>
       <c r="C108" t="n">
-        <v>22.19</v>
+        <v>21.5</v>
       </c>
       <c r="D108" t="n">
-        <v>22.19</v>
+        <v>21.5</v>
       </c>
       <c r="E108" t="n">
-        <v>22.09</v>
+        <v>21.5</v>
       </c>
       <c r="F108" t="n">
-        <v>66550.27099999999</v>
+        <v>368.3708</v>
       </c>
       <c r="G108" t="n">
-        <v>-512187.27618043</v>
+        <v>-622071.7226521</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4622,8 +4434,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4634,32 +4452,38 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>22.19</v>
+        <v>21.5</v>
       </c>
       <c r="C109" t="n">
-        <v>22.19</v>
+        <v>21.34</v>
       </c>
       <c r="D109" t="n">
-        <v>22.19</v>
+        <v>21.5</v>
       </c>
       <c r="E109" t="n">
-        <v>22.19</v>
+        <v>21.34</v>
       </c>
       <c r="F109" t="n">
-        <v>69</v>
+        <v>30000</v>
       </c>
       <c r="G109" t="n">
-        <v>-512187.27618043</v>
+        <v>-652071.7226521</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4670,32 +4494,38 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>22.19</v>
+        <v>21.5</v>
       </c>
       <c r="C110" t="n">
-        <v>22.19</v>
+        <v>21.5</v>
       </c>
       <c r="D110" t="n">
-        <v>22.19</v>
+        <v>21.5</v>
       </c>
       <c r="E110" t="n">
-        <v>22.19</v>
+        <v>21.5</v>
       </c>
       <c r="F110" t="n">
-        <v>1449.5001</v>
+        <v>1187.6127</v>
       </c>
       <c r="G110" t="n">
-        <v>-512187.27618043</v>
+        <v>-650884.1099521</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4706,32 +4536,38 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>22.02</v>
+        <v>21.5</v>
       </c>
       <c r="C111" t="n">
-        <v>22.02</v>
+        <v>21.5</v>
       </c>
       <c r="D111" t="n">
-        <v>22.02</v>
+        <v>21.5</v>
       </c>
       <c r="E111" t="n">
-        <v>22.02</v>
+        <v>21.5</v>
       </c>
       <c r="F111" t="n">
-        <v>12000</v>
+        <v>4479.7607</v>
       </c>
       <c r="G111" t="n">
-        <v>-524187.27618043</v>
+        <v>-650884.1099521</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4742,32 +4578,38 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>22.02</v>
+        <v>21.5</v>
       </c>
       <c r="C112" t="n">
-        <v>22.02</v>
+        <v>21.76</v>
       </c>
       <c r="D112" t="n">
-        <v>22.02</v>
+        <v>21.77</v>
       </c>
       <c r="E112" t="n">
-        <v>22.02</v>
+        <v>21.5</v>
       </c>
       <c r="F112" t="n">
-        <v>2264.9863</v>
+        <v>49866.49836465</v>
       </c>
       <c r="G112" t="n">
-        <v>-524187.27618043</v>
+        <v>-601017.61158745</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4778,32 +4620,38 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>21.99</v>
+        <v>21.69</v>
       </c>
       <c r="C113" t="n">
-        <v>21.99</v>
+        <v>21.69</v>
       </c>
       <c r="D113" t="n">
-        <v>21.99</v>
+        <v>21.69</v>
       </c>
       <c r="E113" t="n">
-        <v>21.99</v>
+        <v>21.69</v>
       </c>
       <c r="F113" t="n">
-        <v>16327.7923</v>
+        <v>1854</v>
       </c>
       <c r="G113" t="n">
-        <v>-540515.0684804301</v>
+        <v>-602871.61158745</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4814,22 +4662,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>21.99</v>
+        <v>21.69</v>
       </c>
       <c r="C114" t="n">
-        <v>21.99</v>
+        <v>21.69</v>
       </c>
       <c r="D114" t="n">
-        <v>21.99</v>
+        <v>21.69</v>
       </c>
       <c r="E114" t="n">
-        <v>21.99</v>
+        <v>21.69</v>
       </c>
       <c r="F114" t="n">
-        <v>2018.5904</v>
+        <v>3470.6905</v>
       </c>
       <c r="G114" t="n">
-        <v>-540515.0684804301</v>
+        <v>-602871.61158745</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4838,8 +4686,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4850,22 +4704,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>21.99</v>
+        <v>21.69</v>
       </c>
       <c r="C115" t="n">
-        <v>21.99</v>
+        <v>21.69</v>
       </c>
       <c r="D115" t="n">
-        <v>21.99</v>
+        <v>21.69</v>
       </c>
       <c r="E115" t="n">
-        <v>21.99</v>
+        <v>21.69</v>
       </c>
       <c r="F115" t="n">
-        <v>860.5569</v>
+        <v>2034.5367</v>
       </c>
       <c r="G115" t="n">
-        <v>-540515.0684804301</v>
+        <v>-602871.61158745</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4874,8 +4728,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4886,32 +4746,38 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>21.99</v>
+        <v>21.55</v>
       </c>
       <c r="C116" t="n">
-        <v>21.99</v>
+        <v>21.55</v>
       </c>
       <c r="D116" t="n">
-        <v>21.99</v>
+        <v>21.55</v>
       </c>
       <c r="E116" t="n">
-        <v>21.99</v>
+        <v>21.55</v>
       </c>
       <c r="F116" t="n">
-        <v>793.0604</v>
+        <v>5000</v>
       </c>
       <c r="G116" t="n">
-        <v>-540515.0684804301</v>
+        <v>-607871.61158745</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4922,32 +4788,38 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>21.99</v>
+        <v>21.55</v>
       </c>
       <c r="C117" t="n">
-        <v>21.87</v>
+        <v>21.55</v>
       </c>
       <c r="D117" t="n">
-        <v>21.99</v>
+        <v>21.55</v>
       </c>
       <c r="E117" t="n">
-        <v>21.87</v>
+        <v>21.55</v>
       </c>
       <c r="F117" t="n">
-        <v>4000</v>
+        <v>311.5212</v>
       </c>
       <c r="G117" t="n">
-        <v>-544515.0684804301</v>
+        <v>-607871.61158745</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4958,32 +4830,38 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>21.87</v>
+        <v>21.55</v>
       </c>
       <c r="C118" t="n">
-        <v>22.02</v>
+        <v>21.55</v>
       </c>
       <c r="D118" t="n">
-        <v>22.02</v>
+        <v>21.55</v>
       </c>
       <c r="E118" t="n">
-        <v>21.66</v>
+        <v>21.55</v>
       </c>
       <c r="F118" t="n">
-        <v>11430.6267</v>
+        <v>2000</v>
       </c>
       <c r="G118" t="n">
-        <v>-533084.44178043</v>
+        <v>-607871.61158745</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4994,32 +4872,40 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>22.02</v>
+        <v>21.55</v>
       </c>
       <c r="C119" t="n">
-        <v>22.02</v>
+        <v>21.36</v>
       </c>
       <c r="D119" t="n">
-        <v>22.02</v>
+        <v>21.55</v>
       </c>
       <c r="E119" t="n">
-        <v>22.02</v>
+        <v>21.36</v>
       </c>
       <c r="F119" t="n">
-        <v>2264.9863</v>
+        <v>63800</v>
       </c>
       <c r="G119" t="n">
-        <v>-533084.44178043</v>
+        <v>-671671.61158745</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>21.55</v>
+      </c>
+      <c r="K119" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5030,32 +4916,40 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>22.02</v>
+        <v>21.5</v>
       </c>
       <c r="C120" t="n">
-        <v>22.02</v>
+        <v>21.5</v>
       </c>
       <c r="D120" t="n">
-        <v>22.02</v>
+        <v>21.5</v>
       </c>
       <c r="E120" t="n">
-        <v>22.02</v>
+        <v>21.5</v>
       </c>
       <c r="F120" t="n">
-        <v>3604.5877</v>
+        <v>6891</v>
       </c>
       <c r="G120" t="n">
-        <v>-533084.44178043</v>
+        <v>-664780.61158745</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>21.36</v>
+      </c>
+      <c r="K120" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5066,32 +4960,40 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>22.2</v>
+        <v>21.5</v>
       </c>
       <c r="C121" t="n">
-        <v>22.2</v>
+        <v>21.35</v>
       </c>
       <c r="D121" t="n">
-        <v>22.2</v>
+        <v>21.5</v>
       </c>
       <c r="E121" t="n">
-        <v>22.2</v>
+        <v>21.35</v>
       </c>
       <c r="F121" t="n">
-        <v>1000</v>
+        <v>30500</v>
       </c>
       <c r="G121" t="n">
-        <v>-532084.44178043</v>
+        <v>-695280.61158745</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K121" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5102,32 +5004,40 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>22.02</v>
+        <v>21.35</v>
       </c>
       <c r="C122" t="n">
-        <v>22.2</v>
+        <v>21.35</v>
       </c>
       <c r="D122" t="n">
-        <v>22.2</v>
+        <v>21.35</v>
       </c>
       <c r="E122" t="n">
-        <v>22.02</v>
+        <v>21.35</v>
       </c>
       <c r="F122" t="n">
-        <v>550</v>
+        <v>425</v>
       </c>
       <c r="G122" t="n">
-        <v>-532084.44178043</v>
+        <v>-695280.61158745</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>21.35</v>
+      </c>
+      <c r="K122" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5138,32 +5048,40 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>22.2</v>
+        <v>21.7</v>
       </c>
       <c r="C123" t="n">
-        <v>22.2</v>
+        <v>21.7</v>
       </c>
       <c r="D123" t="n">
-        <v>22.2</v>
+        <v>21.7</v>
       </c>
       <c r="E123" t="n">
-        <v>22.2</v>
+        <v>21.7</v>
       </c>
       <c r="F123" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G123" t="n">
-        <v>-532084.44178043</v>
+        <v>-695080.61158745</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>21.35</v>
+      </c>
+      <c r="K123" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5174,32 +5092,38 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>22.15</v>
+        <v>21.68</v>
       </c>
       <c r="C124" t="n">
-        <v>22.15</v>
+        <v>21.68</v>
       </c>
       <c r="D124" t="n">
-        <v>22.15</v>
+        <v>21.68</v>
       </c>
       <c r="E124" t="n">
-        <v>22.15</v>
+        <v>21.68</v>
       </c>
       <c r="F124" t="n">
-        <v>25</v>
+        <v>2444.64944649</v>
       </c>
       <c r="G124" t="n">
-        <v>-532109.44178043</v>
+        <v>-697525.26103394</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5210,32 +5134,38 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>22.19</v>
+        <v>21.68</v>
       </c>
       <c r="C125" t="n">
-        <v>22.19</v>
+        <v>21.68</v>
       </c>
       <c r="D125" t="n">
-        <v>22.19</v>
+        <v>21.68</v>
       </c>
       <c r="E125" t="n">
-        <v>22.19</v>
+        <v>21.68</v>
       </c>
       <c r="F125" t="n">
-        <v>12000</v>
+        <v>2300.5073</v>
       </c>
       <c r="G125" t="n">
-        <v>-520109.44178043</v>
+        <v>-697525.26103394</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5246,32 +5176,38 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>22.2</v>
+        <v>21.68</v>
       </c>
       <c r="C126" t="n">
-        <v>22.2</v>
+        <v>21.68</v>
       </c>
       <c r="D126" t="n">
-        <v>22.2</v>
+        <v>21.68</v>
       </c>
       <c r="E126" t="n">
-        <v>22.2</v>
+        <v>21.68</v>
       </c>
       <c r="F126" t="n">
-        <v>10482.3707</v>
+        <v>12420.7523</v>
       </c>
       <c r="G126" t="n">
-        <v>-509627.0710804301</v>
+        <v>-697525.26103394</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5282,32 +5218,38 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>22.2</v>
+        <v>21.68</v>
       </c>
       <c r="C127" t="n">
-        <v>22.2</v>
+        <v>21.69</v>
       </c>
       <c r="D127" t="n">
-        <v>22.2</v>
+        <v>21.69</v>
       </c>
       <c r="E127" t="n">
-        <v>22.2</v>
+        <v>21.68</v>
       </c>
       <c r="F127" t="n">
-        <v>9.9293</v>
+        <v>3600.6222</v>
       </c>
       <c r="G127" t="n">
-        <v>-509627.0710804301</v>
+        <v>-693924.63883394</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5318,32 +5260,38 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>22.2</v>
+        <v>21.69</v>
       </c>
       <c r="C128" t="n">
-        <v>22.2</v>
+        <v>21.9</v>
       </c>
       <c r="D128" t="n">
-        <v>22.2</v>
+        <v>21.9</v>
       </c>
       <c r="E128" t="n">
-        <v>22.2</v>
+        <v>21.69</v>
       </c>
       <c r="F128" t="n">
-        <v>2905.4659</v>
+        <v>87460.41025351</v>
       </c>
       <c r="G128" t="n">
-        <v>-509627.0710804301</v>
+        <v>-606464.22858043</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5354,32 +5302,38 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>22.19</v>
+        <v>21.9</v>
       </c>
       <c r="C129" t="n">
-        <v>22.19</v>
+        <v>21.91</v>
       </c>
       <c r="D129" t="n">
-        <v>22.19</v>
+        <v>21.91</v>
       </c>
       <c r="E129" t="n">
-        <v>22.19</v>
+        <v>21.9</v>
       </c>
       <c r="F129" t="n">
-        <v>19781.5348</v>
+        <v>7423.0031</v>
       </c>
       <c r="G129" t="n">
-        <v>-529408.6058804301</v>
+        <v>-599041.2254804301</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5390,32 +5344,38 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>22.15</v>
+        <v>21.91</v>
       </c>
       <c r="C130" t="n">
-        <v>22.15</v>
+        <v>21.91</v>
       </c>
       <c r="D130" t="n">
-        <v>22.15</v>
+        <v>21.91</v>
       </c>
       <c r="E130" t="n">
-        <v>22.15</v>
+        <v>21.91</v>
       </c>
       <c r="F130" t="n">
-        <v>29857.5682</v>
+        <v>30000</v>
       </c>
       <c r="G130" t="n">
-        <v>-559266.1740804301</v>
+        <v>-599041.2254804301</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5426,32 +5386,38 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>22.29</v>
+        <v>21.91</v>
       </c>
       <c r="C131" t="n">
-        <v>22.29</v>
+        <v>21.91</v>
       </c>
       <c r="D131" t="n">
-        <v>22.29</v>
+        <v>21.91</v>
       </c>
       <c r="E131" t="n">
-        <v>22.29</v>
+        <v>21.91</v>
       </c>
       <c r="F131" t="n">
-        <v>216.2403</v>
+        <v>20511.627</v>
       </c>
       <c r="G131" t="n">
-        <v>-559049.9337804301</v>
+        <v>-599041.2254804301</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5462,32 +5428,38 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>22.15</v>
+        <v>21.94</v>
       </c>
       <c r="C132" t="n">
-        <v>22.15</v>
+        <v>21.94</v>
       </c>
       <c r="D132" t="n">
-        <v>22.15</v>
+        <v>21.94</v>
       </c>
       <c r="E132" t="n">
-        <v>22.15</v>
+        <v>21.94</v>
       </c>
       <c r="F132" t="n">
-        <v>46822.828</v>
+        <v>496.6249</v>
       </c>
       <c r="G132" t="n">
-        <v>-605872.7617804301</v>
+        <v>-598544.60058043</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5498,32 +5470,38 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>22.1</v>
+        <v>21.94</v>
       </c>
       <c r="C133" t="n">
-        <v>22.1</v>
+        <v>21.94</v>
       </c>
       <c r="D133" t="n">
-        <v>22.1</v>
+        <v>21.94</v>
       </c>
       <c r="E133" t="n">
-        <v>22.1</v>
+        <v>21.94</v>
       </c>
       <c r="F133" t="n">
-        <v>68213.397</v>
+        <v>135898.9408</v>
       </c>
       <c r="G133" t="n">
-        <v>-674086.1587804301</v>
+        <v>-598544.60058043</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5534,32 +5512,38 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>22.1</v>
+        <v>21.95</v>
       </c>
       <c r="C134" t="n">
-        <v>22.1</v>
+        <v>22.09</v>
       </c>
       <c r="D134" t="n">
-        <v>22.1</v>
+        <v>22.09</v>
       </c>
       <c r="E134" t="n">
-        <v>22.1</v>
+        <v>21.95</v>
       </c>
       <c r="F134" t="n">
-        <v>7720.0635</v>
+        <v>19807.0534</v>
       </c>
       <c r="G134" t="n">
-        <v>-674086.1587804301</v>
+        <v>-578737.54718043</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5570,32 +5554,38 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>22.1</v>
+        <v>22.09</v>
       </c>
       <c r="C135" t="n">
-        <v>22.1</v>
+        <v>22.09</v>
       </c>
       <c r="D135" t="n">
-        <v>22.1</v>
+        <v>22.09</v>
       </c>
       <c r="E135" t="n">
-        <v>22.1</v>
+        <v>22.09</v>
       </c>
       <c r="F135" t="n">
-        <v>271.9357</v>
+        <v>1198.2552</v>
       </c>
       <c r="G135" t="n">
-        <v>-674086.1587804301</v>
+        <v>-578737.54718043</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5606,32 +5596,38 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>22.2</v>
+        <v>22.09</v>
       </c>
       <c r="C136" t="n">
-        <v>22.2</v>
+        <v>22.09</v>
       </c>
       <c r="D136" t="n">
-        <v>22.2</v>
+        <v>22.09</v>
       </c>
       <c r="E136" t="n">
-        <v>22.2</v>
+        <v>22.09</v>
       </c>
       <c r="F136" t="n">
-        <v>500</v>
+        <v>23001.4635</v>
       </c>
       <c r="G136" t="n">
-        <v>-673586.1587804301</v>
+        <v>-578737.54718043</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5642,32 +5638,38 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>22.2</v>
+        <v>22.09</v>
       </c>
       <c r="C137" t="n">
-        <v>22.2</v>
+        <v>22.19</v>
       </c>
       <c r="D137" t="n">
-        <v>22.2</v>
+        <v>22.19</v>
       </c>
       <c r="E137" t="n">
-        <v>22.2</v>
+        <v>22.09</v>
       </c>
       <c r="F137" t="n">
-        <v>500</v>
+        <v>66550.27099999999</v>
       </c>
       <c r="G137" t="n">
-        <v>-673586.1587804301</v>
+        <v>-512187.27618043</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5678,36 +5680,1260 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="C138" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="D138" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="E138" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="F138" t="n">
+        <v>69</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-512187.27618043</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="C139" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="D139" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="E139" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1449.5001</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-512187.27618043</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="C140" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="D140" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="E140" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="F140" t="n">
+        <v>12000</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-524187.27618043</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="C141" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="D141" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="E141" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2264.9863</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-524187.27618043</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="C142" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="D142" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="E142" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="F142" t="n">
+        <v>16327.7923</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-540515.0684804301</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="C143" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="D143" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="E143" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2018.5904</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-540515.0684804301</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="C144" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="D144" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="E144" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="F144" t="n">
+        <v>860.5569</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-540515.0684804301</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="C145" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="D145" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="E145" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="F145" t="n">
+        <v>793.0604</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-540515.0684804301</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="C146" t="n">
+        <v>21.87</v>
+      </c>
+      <c r="D146" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="E146" t="n">
+        <v>21.87</v>
+      </c>
+      <c r="F146" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-544515.0684804301</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>21.87</v>
+      </c>
+      <c r="C147" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="D147" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="E147" t="n">
+        <v>21.66</v>
+      </c>
+      <c r="F147" t="n">
+        <v>11430.6267</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-533084.44178043</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="C148" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="D148" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="E148" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="F148" t="n">
+        <v>2264.9863</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-533084.44178043</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="C149" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="D149" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="E149" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="F149" t="n">
+        <v>3604.5877</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-533084.44178043</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="C150" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="D150" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="E150" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-532084.44178043</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="C151" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="D151" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="E151" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="F151" t="n">
+        <v>550</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-532084.44178043</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="C152" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="D152" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="E152" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-532084.44178043</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>22.15</v>
+      </c>
+      <c r="C153" t="n">
+        <v>22.15</v>
+      </c>
+      <c r="D153" t="n">
+        <v>22.15</v>
+      </c>
+      <c r="E153" t="n">
+        <v>22.15</v>
+      </c>
+      <c r="F153" t="n">
+        <v>25</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-532109.44178043</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="C154" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="D154" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="E154" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="F154" t="n">
+        <v>12000</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-520109.44178043</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="C155" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="D155" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="E155" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="F155" t="n">
+        <v>10482.3707</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-509627.0710804301</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="C156" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="D156" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="E156" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="F156" t="n">
+        <v>9.9293</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-509627.0710804301</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="C157" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="D157" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="E157" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="F157" t="n">
+        <v>2905.4659</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-509627.0710804301</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="C158" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="D158" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="E158" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="F158" t="n">
+        <v>19781.5348</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-529408.6058804301</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>22.15</v>
+      </c>
+      <c r="C159" t="n">
+        <v>22.15</v>
+      </c>
+      <c r="D159" t="n">
+        <v>22.15</v>
+      </c>
+      <c r="E159" t="n">
+        <v>22.15</v>
+      </c>
+      <c r="F159" t="n">
+        <v>29857.5682</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-559266.1740804301</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>22.29</v>
+      </c>
+      <c r="C160" t="n">
+        <v>22.29</v>
+      </c>
+      <c r="D160" t="n">
+        <v>22.29</v>
+      </c>
+      <c r="E160" t="n">
+        <v>22.29</v>
+      </c>
+      <c r="F160" t="n">
+        <v>216.2403</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-559049.9337804301</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>22.15</v>
+      </c>
+      <c r="C161" t="n">
+        <v>22.15</v>
+      </c>
+      <c r="D161" t="n">
+        <v>22.15</v>
+      </c>
+      <c r="E161" t="n">
+        <v>22.15</v>
+      </c>
+      <c r="F161" t="n">
+        <v>46822.828</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-605872.7617804301</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
         <v>22.1</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C162" t="n">
         <v>22.1</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D162" t="n">
         <v>22.1</v>
       </c>
-      <c r="E138" t="n">
+      <c r="E162" t="n">
         <v>22.1</v>
       </c>
-      <c r="F138" t="n">
+      <c r="F162" t="n">
+        <v>68213.397</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-674086.1587804301</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="C163" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="D163" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="E163" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="F163" t="n">
+        <v>7720.0635</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-674086.1587804301</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="C164" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="D164" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="E164" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="F164" t="n">
+        <v>271.9357</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-674086.1587804301</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="C165" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="D165" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="E165" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="F165" t="n">
+        <v>500</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-673586.1587804301</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="C166" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="D166" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="E166" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="F166" t="n">
+        <v>500</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-673586.1587804301</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="C167" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="D167" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="E167" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="F167" t="n">
         <v>25</v>
       </c>
-      <c r="G138" t="n">
+      <c r="G167" t="n">
         <v>-673611.1587804301</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-16 BackTest WAXP.xlsx
+++ b/BackTest/2020-01-16 BackTest WAXP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N167"/>
+  <dimension ref="A1:M167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>-209015.4165000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,22 +682,15 @@
         <v>-209015.4165000001</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="K9" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -748,110 +715,99 @@
         <v>-209015.4165000001</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>21.48</v>
       </c>
       <c r="J10" t="n">
         <v>21.48</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
         <v>21.48</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="C11" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="D11" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="E11" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-209015.4165000001</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="J11" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
         <v>21.48</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>21.48</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>21.48</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E12" t="n">
         <v>21.48</v>
       </c>
-      <c r="F11" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="F12" t="n">
+        <v>57558.1115</v>
+      </c>
+      <c r="G12" t="n">
         <v>-209015.4165000001</v>
       </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
         <v>21.48</v>
       </c>
-      <c r="K11" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L11" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="C12" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="D12" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="E12" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="F12" t="n">
-        <v>57558.1115</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-209015.4165000001</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="K12" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -876,154 +832,134 @@
         <v>-196483.7315000001</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="K13" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L13" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>21.53</v>
+      </c>
+      <c r="C14" t="n">
+        <v>21.53</v>
+      </c>
+      <c r="D14" t="n">
+        <v>21.53</v>
+      </c>
+      <c r="E14" t="n">
+        <v>21.53</v>
+      </c>
+      <c r="F14" t="n">
+        <v>185.2604</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-196298.4711000001</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>21.53</v>
+      </c>
+      <c r="C15" t="n">
+        <v>21.53</v>
+      </c>
+      <c r="D15" t="n">
+        <v>21.53</v>
+      </c>
+      <c r="E15" t="n">
+        <v>21.53</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-196298.4711000001</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>21.53</v>
+      </c>
+      <c r="J15" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
         <v>21.53</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C16" t="n">
         <v>21.53</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D16" t="n">
         <v>21.53</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E16" t="n">
         <v>21.53</v>
       </c>
-      <c r="F14" t="n">
-        <v>185.2604</v>
-      </c>
-      <c r="G14" t="n">
+      <c r="F16" t="n">
+        <v>789</v>
+      </c>
+      <c r="G16" t="n">
         <v>-196298.4711000001</v>
       </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K14" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L14" t="inlineStr">
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>21.53</v>
+      </c>
+      <c r="J16" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>21.53</v>
-      </c>
-      <c r="C15" t="n">
-        <v>21.53</v>
-      </c>
-      <c r="D15" t="n">
-        <v>21.53</v>
-      </c>
-      <c r="E15" t="n">
-        <v>21.53</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-196298.4711000001</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>21.53</v>
-      </c>
-      <c r="K15" t="n">
-        <v>21.53</v>
-      </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>21.53</v>
-      </c>
-      <c r="C16" t="n">
-        <v>21.53</v>
-      </c>
-      <c r="D16" t="n">
-        <v>21.53</v>
-      </c>
-      <c r="E16" t="n">
-        <v>21.53</v>
-      </c>
-      <c r="F16" t="n">
-        <v>789</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-196298.4711000001</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>21.53</v>
-      </c>
-      <c r="K16" t="n">
-        <v>21.53</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1048,26 +984,23 @@
         <v>-176209.9871000001</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>21.53</v>
       </c>
       <c r="J17" t="n">
-        <v>21.53</v>
-      </c>
-      <c r="K17" t="n">
-        <v>21.53</v>
-      </c>
-      <c r="L17" t="inlineStr">
+        <v>21.5</v>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1092,26 +1025,23 @@
         <v>-175862.6012000001</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>21.59</v>
       </c>
       <c r="J18" t="n">
-        <v>21.59</v>
-      </c>
-      <c r="K18" t="n">
-        <v>21.53</v>
-      </c>
-      <c r="L18" t="inlineStr">
+        <v>21.5</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1136,26 +1066,23 @@
         <v>-236649.5913000001</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>21.61</v>
       </c>
       <c r="J19" t="n">
-        <v>21.61</v>
-      </c>
-      <c r="K19" t="n">
-        <v>21.53</v>
-      </c>
-      <c r="L19" t="inlineStr">
+        <v>21.5</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1180,26 +1107,23 @@
         <v>-216053.5913000001</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>21.31</v>
       </c>
       <c r="J20" t="n">
-        <v>21.31</v>
-      </c>
-      <c r="K20" t="n">
-        <v>21.53</v>
-      </c>
-      <c r="L20" t="inlineStr">
+        <v>21.5</v>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1224,26 +1148,23 @@
         <v>-180580.5914823601</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>21.88</v>
       </c>
       <c r="J21" t="n">
-        <v>21.88</v>
-      </c>
-      <c r="K21" t="n">
-        <v>21.53</v>
-      </c>
-      <c r="L21" t="inlineStr">
+        <v>21.5</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1268,24 +1189,21 @@
         <v>-190580.6789823601</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>21.53</v>
-      </c>
-      <c r="L22" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1310,24 +1228,23 @@
         <v>-177379.0589823601</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>21.53</v>
-      </c>
-      <c r="L23" t="inlineStr">
+        <v>21.72</v>
+      </c>
+      <c r="J23" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1352,24 +1269,21 @@
         <v>-188358.1821823601</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>21.53</v>
-      </c>
-      <c r="L24" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1394,24 +1308,21 @@
         <v>-188358.1821823601</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>21.53</v>
-      </c>
-      <c r="L25" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1436,24 +1347,21 @@
         <v>-103518.1221000001</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>21.53</v>
-      </c>
-      <c r="L26" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1480,22 +1388,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>21.53</v>
-      </c>
-      <c r="L27" t="inlineStr">
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1522,346 +1427,370 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>21.53</v>
-      </c>
-      <c r="L28" t="inlineStr">
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>21.61</v>
+      </c>
+      <c r="C29" t="n">
+        <v>20.95</v>
+      </c>
+      <c r="D29" t="n">
+        <v>21.61</v>
+      </c>
+      <c r="E29" t="n">
+        <v>20.95</v>
+      </c>
+      <c r="F29" t="n">
+        <v>150000</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-410451.0313</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>21.49</v>
+      </c>
+      <c r="C30" t="n">
+        <v>21.49</v>
+      </c>
+      <c r="D30" t="n">
+        <v>21.49</v>
+      </c>
+      <c r="E30" t="n">
+        <v>21.49</v>
+      </c>
+      <c r="F30" t="n">
+        <v>23</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-410428.0313</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>21.28</v>
+      </c>
+      <c r="C31" t="n">
+        <v>21.28</v>
+      </c>
+      <c r="D31" t="n">
+        <v>21.28</v>
+      </c>
+      <c r="E31" t="n">
+        <v>21.28</v>
+      </c>
+      <c r="F31" t="n">
+        <v>12000</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-422428.0313</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>21.28</v>
+      </c>
+      <c r="C32" t="n">
+        <v>21.49</v>
+      </c>
+      <c r="D32" t="n">
+        <v>21.49</v>
+      </c>
+      <c r="E32" t="n">
+        <v>21.28</v>
+      </c>
+      <c r="F32" t="n">
+        <v>12050</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-410378.0313</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>21.49</v>
+      </c>
+      <c r="C33" t="n">
+        <v>21.49</v>
+      </c>
+      <c r="D33" t="n">
+        <v>21.49</v>
+      </c>
+      <c r="E33" t="n">
+        <v>21.49</v>
+      </c>
+      <c r="F33" t="n">
+        <v>30</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-410378.0313</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>21.49</v>
+      </c>
+      <c r="C34" t="n">
+        <v>21.49</v>
+      </c>
+      <c r="D34" t="n">
+        <v>21.49</v>
+      </c>
+      <c r="E34" t="n">
+        <v>21.49</v>
+      </c>
+      <c r="F34" t="n">
+        <v>606</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-410378.0313</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>21.49</v>
+      </c>
+      <c r="C35" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="D35" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="E35" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="F35" t="n">
+        <v>39485.3054</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-370892.7259</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>21.49</v>
+      </c>
+      <c r="C36" t="n">
+        <v>21.49</v>
+      </c>
+      <c r="D36" t="n">
+        <v>21.49</v>
+      </c>
+      <c r="E36" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="F36" t="n">
+        <v>115651.3873</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-486544.1132</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>21.49</v>
+      </c>
+      <c r="C37" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="D37" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="E37" t="n">
+        <v>21.49</v>
+      </c>
+      <c r="F37" t="n">
+        <v>45370.7504</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-441173.3628</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>0.9987157454714352</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>21.61</v>
-      </c>
-      <c r="C29" t="n">
-        <v>20.95</v>
-      </c>
-      <c r="D29" t="n">
-        <v>21.61</v>
-      </c>
-      <c r="E29" t="n">
-        <v>20.95</v>
-      </c>
-      <c r="F29" t="n">
-        <v>150000</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-410451.0313</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>21.49</v>
-      </c>
-      <c r="C30" t="n">
-        <v>21.49</v>
-      </c>
-      <c r="D30" t="n">
-        <v>21.49</v>
-      </c>
-      <c r="E30" t="n">
-        <v>21.49</v>
-      </c>
-      <c r="F30" t="n">
-        <v>23</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-410428.0313</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>21.28</v>
-      </c>
-      <c r="C31" t="n">
-        <v>21.28</v>
-      </c>
-      <c r="D31" t="n">
-        <v>21.28</v>
-      </c>
-      <c r="E31" t="n">
-        <v>21.28</v>
-      </c>
-      <c r="F31" t="n">
-        <v>12000</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-422428.0313</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>21.28</v>
-      </c>
-      <c r="C32" t="n">
-        <v>21.49</v>
-      </c>
-      <c r="D32" t="n">
-        <v>21.49</v>
-      </c>
-      <c r="E32" t="n">
-        <v>21.28</v>
-      </c>
-      <c r="F32" t="n">
-        <v>12050</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-410378.0313</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>21.49</v>
-      </c>
-      <c r="C33" t="n">
-        <v>21.49</v>
-      </c>
-      <c r="D33" t="n">
-        <v>21.49</v>
-      </c>
-      <c r="E33" t="n">
-        <v>21.49</v>
-      </c>
-      <c r="F33" t="n">
-        <v>30</v>
-      </c>
-      <c r="G33" t="n">
-        <v>-410378.0313</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>21.49</v>
-      </c>
-      <c r="C34" t="n">
-        <v>21.49</v>
-      </c>
-      <c r="D34" t="n">
-        <v>21.49</v>
-      </c>
-      <c r="E34" t="n">
-        <v>21.49</v>
-      </c>
-      <c r="F34" t="n">
-        <v>606</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-410378.0313</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>21.49</v>
-      </c>
-      <c r="C35" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="D35" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="E35" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="F35" t="n">
-        <v>39485.3054</v>
-      </c>
-      <c r="G35" t="n">
-        <v>-370892.7259</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>21.49</v>
-      </c>
-      <c r="C36" t="n">
-        <v>21.49</v>
-      </c>
-      <c r="D36" t="n">
-        <v>21.49</v>
-      </c>
-      <c r="E36" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="F36" t="n">
-        <v>115651.3873</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-486544.1132</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>21.49</v>
-      </c>
-      <c r="C37" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="D37" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="E37" t="n">
-        <v>21.49</v>
-      </c>
-      <c r="F37" t="n">
-        <v>45370.7504</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-441173.3628</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1888,16 +1817,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1922,18 +1848,15 @@
         <v>-631173.3628</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1960,16 +1883,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1996,16 +1916,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2032,16 +1949,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2068,16 +1982,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2104,16 +2015,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2140,16 +2048,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2176,16 +2081,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2212,16 +2114,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2248,16 +2147,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2284,16 +2180,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2320,16 +2213,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2356,16 +2246,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2392,16 +2279,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2428,16 +2312,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2464,16 +2345,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2498,18 +2376,19 @@
         <v>-607517.1155</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
+        <v>21.21</v>
+      </c>
+      <c r="J55" t="n">
+        <v>21.21</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2534,18 +2413,23 @@
         <v>-558280.1155</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+        <v>21.21</v>
+      </c>
+      <c r="J56" t="n">
+        <v>21.21</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2572,16 +2456,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>21.21</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2608,16 +2495,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>21.21</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2644,16 +2534,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>21.21</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2680,16 +2573,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>21.21</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2716,16 +2612,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>21.21</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2752,16 +2651,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>21.21</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2788,16 +2690,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>21.21</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2824,16 +2729,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>21.21</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2860,16 +2768,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>21.21</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2896,16 +2807,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>21.21</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2932,16 +2846,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>21.21</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2968,16 +2885,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>21.21</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3002,18 +2922,21 @@
         <v>-316569.1203520999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>21.21</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1.027531824611033</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3038,18 +2961,15 @@
         <v>-304569.1203520999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3074,18 +2994,15 @@
         <v>-289320.9272521</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3110,18 +3027,15 @@
         <v>-317518.9272521</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3146,18 +3060,15 @@
         <v>-320518.9272521</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3182,18 +3093,15 @@
         <v>-332518.9272521</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3218,18 +3126,15 @@
         <v>-334609.4989520999</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3256,16 +3161,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3292,16 +3194,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3328,16 +3227,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3364,16 +3260,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3400,16 +3293,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3436,16 +3326,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3472,16 +3359,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3506,18 +3390,15 @@
         <v>-387989.9154520999</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3542,18 +3423,15 @@
         <v>-387989.9154520999</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3580,16 +3458,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3614,18 +3489,15 @@
         <v>-566586.5074520999</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3650,18 +3522,15 @@
         <v>-565473.5120520999</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3688,16 +3557,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3724,16 +3590,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3760,16 +3623,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3796,16 +3656,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3832,16 +3689,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3868,16 +3722,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3904,16 +3755,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3940,16 +3788,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3976,16 +3821,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4012,16 +3854,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4048,16 +3887,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4082,18 +3918,15 @@
         <v>-612141.6748521</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4118,18 +3951,15 @@
         <v>-610141.6748521</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4154,18 +3984,15 @@
         <v>-610141.6748521</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4192,16 +4019,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4228,16 +4052,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4262,22 +4083,15 @@
         <v>-612737.8050521</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="K104" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4304,22 +4118,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4346,22 +4151,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4388,22 +4184,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4430,22 +4217,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4472,22 +4250,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4514,22 +4283,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4556,22 +4316,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4598,22 +4349,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4638,24 +4380,15 @@
         <v>-602871.61158745</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4682,22 +4415,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4724,22 +4448,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4766,22 +4481,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4808,22 +4514,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4850,22 +4547,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4890,26 +4578,15 @@
         <v>-671671.61158745</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="n">
-        <v>21.55</v>
-      </c>
-      <c r="K119" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4934,26 +4611,15 @@
         <v>-664780.61158745</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
-        <v>21.36</v>
-      </c>
-      <c r="K120" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4978,26 +4644,15 @@
         <v>-695280.61158745</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K121" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5022,26 +4677,15 @@
         <v>-695280.61158745</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="n">
-        <v>21.35</v>
-      </c>
-      <c r="K122" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5066,26 +4710,15 @@
         <v>-695080.61158745</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="n">
-        <v>21.35</v>
-      </c>
-      <c r="K123" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5112,22 +4745,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5154,22 +4778,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5196,22 +4811,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5238,22 +4844,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5280,22 +4877,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5322,22 +4910,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5362,24 +4941,15 @@
         <v>-599041.2254804301</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5406,22 +4976,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5448,22 +5009,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5490,22 +5042,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5532,22 +5075,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5574,22 +5108,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5616,22 +5141,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5658,22 +5174,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5700,22 +5207,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5742,22 +5240,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5782,24 +5271,15 @@
         <v>-524187.27618043</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5826,22 +5306,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5868,22 +5339,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5910,22 +5372,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5952,22 +5405,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5994,22 +5438,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6036,22 +5471,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6078,22 +5504,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6120,22 +5537,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6162,22 +5570,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6204,22 +5603,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6246,22 +5636,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6286,24 +5667,15 @@
         <v>-532084.44178043</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6328,24 +5700,15 @@
         <v>-532109.44178043</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6372,22 +5735,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6414,22 +5768,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6456,22 +5801,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6498,22 +5834,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6540,22 +5867,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6582,22 +5900,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6624,22 +5933,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6666,22 +5966,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6708,22 +5999,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6750,22 +6032,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6792,22 +6065,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6834,22 +6098,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6876,22 +6131,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6918,24 +6164,15 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest WAXP.xlsx
+++ b/BackTest/2020-01-16 BackTest WAXP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -649,7 +649,7 @@
         <v>-209015.4165000001</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -715,14 +715,10 @@
         <v>-209015.4165000001</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="J10" t="n">
-        <v>21.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
@@ -752,19 +748,11 @@
         <v>-209015.4165000001</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="J11" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -796,14 +784,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>21.48</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -865,14 +847,10 @@
         <v>-196298.4711000001</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="J14" t="n">
-        <v>21.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
@@ -902,19 +880,11 @@
         <v>-196298.4711000001</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>21.53</v>
-      </c>
-      <c r="J15" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -943,19 +913,11 @@
         <v>-196298.4711000001</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>21.53</v>
-      </c>
-      <c r="J16" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -984,19 +946,11 @@
         <v>-176209.9871000001</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>21.53</v>
-      </c>
-      <c r="J17" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1025,19 +979,11 @@
         <v>-175862.6012000001</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>21.59</v>
-      </c>
-      <c r="J18" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1066,19 +1012,11 @@
         <v>-236649.5913000001</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>21.61</v>
-      </c>
-      <c r="J19" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1107,19 +1045,11 @@
         <v>-216053.5913000001</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>21.31</v>
-      </c>
-      <c r="J20" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1148,19 +1078,11 @@
         <v>-180580.5914823601</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>21.88</v>
-      </c>
-      <c r="J21" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1189,17 +1111,11 @@
         <v>-190580.6789823601</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1228,19 +1144,11 @@
         <v>-177379.0589823601</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>21.72</v>
-      </c>
-      <c r="J23" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1269,17 +1177,11 @@
         <v>-188358.1821823601</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1308,17 +1210,11 @@
         <v>-188358.1821823601</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1347,17 +1243,11 @@
         <v>-103518.1221000001</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1386,17 +1276,11 @@
         <v>-105451.0313000001</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1425,17 +1309,11 @@
         <v>-260451.0313000001</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1464,17 +1342,11 @@
         <v>-410451.0313</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1503,17 +1375,11 @@
         <v>-410428.0313</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1542,17 +1408,11 @@
         <v>-422428.0313</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1581,17 +1441,11 @@
         <v>-410378.0313</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1620,17 +1474,11 @@
         <v>-410378.0313</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1659,17 +1507,11 @@
         <v>-410378.0313</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1698,17 +1540,11 @@
         <v>-370892.7259</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1737,17 +1573,11 @@
         <v>-486544.1132</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1776,19 +1606,13 @@
         <v>-441173.3628</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="M37" t="inlineStr"/>
     </row>
@@ -1815,7 +1639,7 @@
         <v>-631173.3628</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1848,7 +1672,7 @@
         <v>-631173.3628</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1881,7 +1705,7 @@
         <v>-631173.3628</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1914,7 +1738,7 @@
         <v>-643274.3778</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -2376,14 +2200,10 @@
         <v>-607517.1155</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="n">
-        <v>21.21</v>
-      </c>
-      <c r="J55" t="n">
-        <v>21.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
@@ -2413,19 +2233,11 @@
         <v>-558280.1155</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>21.21</v>
-      </c>
-      <c r="J56" t="n">
-        <v>21.21</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2457,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>21.21</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2496,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>21.21</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2535,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>21.21</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2574,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>21.21</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2613,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>21.21</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2652,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>21.21</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2691,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>21.21</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2730,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>21.21</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2769,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>21.21</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2808,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>21.21</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2847,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>21.21</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2886,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>21.21</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2922,19 +2662,13 @@
         <v>-316569.1203520999</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>21.21</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
-        <v>1.027531824611033</v>
+        <v>1</v>
       </c>
       <c r="M69" t="inlineStr"/>
     </row>
@@ -2961,7 +2695,7 @@
         <v>-304569.1203520999</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2994,7 +2728,7 @@
         <v>-289320.9272521</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3027,7 +2761,7 @@
         <v>-317518.9272521</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3060,7 +2794,7 @@
         <v>-320518.9272521</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3093,7 +2827,7 @@
         <v>-332518.9272521</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3126,7 +2860,7 @@
         <v>-334609.4989520999</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3390,7 +3124,7 @@
         <v>-387989.9154520999</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3423,7 +3157,7 @@
         <v>-387989.9154520999</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3489,7 +3223,7 @@
         <v>-566586.5074520999</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3522,7 +3256,7 @@
         <v>-565473.5120520999</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3720,10 +3454,14 @@
         <v>-575473.5120520999</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>21.58</v>
+      </c>
+      <c r="J93" t="n">
+        <v>21.58</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
@@ -3753,11 +3491,19 @@
         <v>-575473.5120520999</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>21.58</v>
+      </c>
+      <c r="J94" t="n">
+        <v>21.58</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3786,11 +3532,19 @@
         <v>-578125.2165520999</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>21.58</v>
+      </c>
+      <c r="J95" t="n">
+        <v>21.58</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3819,10 +3573,14 @@
         <v>-580125.2165520999</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>21.57</v>
+      </c>
+      <c r="J96" t="n">
+        <v>21.57</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
@@ -3852,11 +3610,19 @@
         <v>-608141.6748521</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>21.56</v>
+      </c>
+      <c r="J97" t="n">
+        <v>21.57</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3888,8 +3654,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>21.57</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3920,8 +3692,12 @@
       <c r="H99" t="n">
         <v>1</v>
       </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>21.5</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
@@ -3953,9 +3729,17 @@
       <c r="H100" t="n">
         <v>1</v>
       </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="J100" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3986,9 +3770,17 @@
       <c r="H101" t="n">
         <v>1</v>
       </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="J101" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4050,11 +3842,17 @@
         <v>-614737.8050521</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>21.5</v>
+      </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4087,7 +3885,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4116,11 +3918,17 @@
         <v>-631044.9627521</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>21.8</v>
+      </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4153,7 +3961,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4186,7 +3998,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4219,7 +4035,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4252,7 +4072,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4285,7 +4109,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4318,7 +4146,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4351,7 +4183,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4380,11 +4216,15 @@
         <v>-602871.61158745</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4417,7 +4257,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4450,7 +4294,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4483,7 +4331,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4516,7 +4368,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4549,7 +4405,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4582,7 +4442,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4615,7 +4479,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4644,11 +4512,17 @@
         <v>-695280.61158745</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>21.5</v>
+      </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4681,7 +4555,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4710,11 +4588,17 @@
         <v>-695080.61158745</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>21.35</v>
+      </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4747,7 +4631,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4780,7 +4668,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4813,7 +4705,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4842,11 +4738,17 @@
         <v>-693924.63883394</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>21.68</v>
+      </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4875,11 +4777,17 @@
         <v>-606464.22858043</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>21.69</v>
+      </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4908,11 +4816,17 @@
         <v>-599041.2254804301</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>21.9</v>
+      </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4941,11 +4855,17 @@
         <v>-599041.2254804301</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>21.91</v>
+      </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4974,11 +4894,17 @@
         <v>-599041.2254804301</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>21.91</v>
+      </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5007,11 +4933,17 @@
         <v>-598544.60058043</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>21.91</v>
+      </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5040,11 +4972,17 @@
         <v>-598544.60058043</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>21.94</v>
+      </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5077,7 +5015,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5110,7 +5052,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5143,7 +5089,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5176,7 +5126,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5209,7 +5163,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5242,7 +5200,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5271,11 +5233,15 @@
         <v>-524187.27618043</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5304,11 +5270,17 @@
         <v>-524187.27618043</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>22.02</v>
+      </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5337,11 +5309,17 @@
         <v>-540515.0684804301</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>22.02</v>
+      </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5374,7 +5352,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5407,7 +5389,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5440,7 +5426,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5473,7 +5463,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5506,7 +5500,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5535,11 +5533,17 @@
         <v>-533084.44178043</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>22.02</v>
+      </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5572,7 +5576,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5605,7 +5613,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5638,7 +5650,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5667,11 +5683,15 @@
         <v>-532084.44178043</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5700,11 +5720,15 @@
         <v>-532109.44178043</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5737,7 +5761,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5770,7 +5798,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5803,7 +5835,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5836,7 +5872,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5869,7 +5909,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5902,7 +5946,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5935,7 +5983,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5968,7 +6020,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6001,7 +6057,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6034,7 +6094,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6067,7 +6131,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6100,7 +6168,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6133,7 +6205,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6166,13 +6242,17 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
       <c r="M167" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest WAXP.xlsx
+++ b/BackTest/2020-01-16 BackTest WAXP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -847,7 +847,7 @@
         <v>-196298.4711000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-196298.4711000001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-196298.4711000001</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-176209.9871000001</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-175862.6012000001</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-236649.5913000001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-216053.5913000001</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-180580.5914823601</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-188358.1821823601</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-410451.0313</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-410428.0313</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-422428.0313</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-410378.0313</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-410378.0313</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-410378.0313</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-370892.7259</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-486544.1132</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-441173.3628</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-631173.3628</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-631173.3628</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-631173.3628</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-643274.3778</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -3454,14 +3454,10 @@
         <v>-575473.5120520999</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>21.58</v>
-      </c>
-      <c r="J93" t="n">
-        <v>21.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
@@ -3491,19 +3487,11 @@
         <v>-575473.5120520999</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>21.58</v>
-      </c>
-      <c r="J94" t="n">
-        <v>21.58</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3532,19 +3520,11 @@
         <v>-578125.2165520999</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>21.58</v>
-      </c>
-      <c r="J95" t="n">
-        <v>21.58</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3573,14 +3553,10 @@
         <v>-580125.2165520999</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>21.57</v>
-      </c>
-      <c r="J96" t="n">
-        <v>21.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
@@ -3610,19 +3586,11 @@
         <v>-608141.6748521</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>21.56</v>
-      </c>
-      <c r="J97" t="n">
-        <v>21.57</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3654,14 +3622,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>21.57</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3690,14 +3652,10 @@
         <v>-612141.6748521</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="J99" t="n">
-        <v>21.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
@@ -3727,19 +3685,11 @@
         <v>-610141.6748521</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="J100" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3768,19 +3718,11 @@
         <v>-610141.6748521</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>21.51</v>
-      </c>
-      <c r="J101" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3842,17 +3784,11 @@
         <v>-614737.8050521</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>21.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3885,11 +3821,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3918,17 +3850,11 @@
         <v>-631044.9627521</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>21.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3961,11 +3887,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3998,11 +3920,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4035,11 +3953,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4072,11 +3986,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4109,11 +4019,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4146,11 +4052,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4183,11 +4085,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4220,11 +4118,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4257,11 +4151,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4294,11 +4184,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4331,11 +4217,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4368,11 +4250,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4405,11 +4283,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4442,11 +4316,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4479,11 +4349,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4512,17 +4378,11 @@
         <v>-695280.61158745</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>21.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4555,11 +4415,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4588,17 +4444,11 @@
         <v>-695080.61158745</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>21.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4631,11 +4481,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4668,11 +4514,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4705,11 +4547,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4738,17 +4576,11 @@
         <v>-693924.63883394</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>21.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4777,17 +4609,11 @@
         <v>-606464.22858043</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>21.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4816,17 +4642,11 @@
         <v>-599041.2254804301</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>21.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4855,17 +4675,11 @@
         <v>-599041.2254804301</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>21.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4899,12 +4713,10 @@
       <c r="I131" t="n">
         <v>21.91</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="n">
+        <v>21.91</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4933,15 +4745,15 @@
         <v>-598544.60058043</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
         <v>21.91</v>
       </c>
-      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L132" t="n">
@@ -4977,10 +4789,12 @@
       <c r="I133" t="n">
         <v>21.94</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>21.91</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L133" t="n">
@@ -5011,15 +4825,15 @@
         <v>-578737.54718043</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>21.94</v>
+      </c>
+      <c r="J134" t="n">
+        <v>21.94</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5048,13 +4862,17 @@
         <v>-578737.54718043</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>22.09</v>
+      </c>
+      <c r="J135" t="n">
+        <v>21.94</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L135" t="n">
@@ -5088,10 +4906,12 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>21.94</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L136" t="n">
@@ -5126,11 +4946,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5163,11 +4979,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5200,11 +5012,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5237,11 +5045,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5270,17 +5074,11 @@
         <v>-524187.27618043</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>22.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5309,17 +5107,11 @@
         <v>-540515.0684804301</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>22.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5352,11 +5144,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5389,11 +5177,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5426,11 +5210,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5463,11 +5243,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5500,11 +5276,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5533,17 +5305,11 @@
         <v>-533084.44178043</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>22.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5576,11 +5342,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5613,11 +5375,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5650,11 +5408,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5687,11 +5441,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5724,11 +5474,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5761,11 +5507,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5798,11 +5540,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5835,11 +5573,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5872,11 +5606,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5909,11 +5639,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5946,11 +5672,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5983,11 +5705,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6020,11 +5738,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6057,11 +5771,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6094,11 +5804,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6131,11 +5837,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6168,11 +5870,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6205,11 +5903,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6242,17 +5936,13 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
       <c r="M167" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest WAXP.xlsx
+++ b/BackTest/2020-01-16 BackTest WAXP.xlsx
@@ -847,7 +847,7 @@
         <v>-196298.4711000001</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-196298.4711000001</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-196298.4711000001</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-176209.9871000001</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-175862.6012000001</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-236649.5913000001</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-216053.5913000001</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-180580.5914823601</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-188358.1821823601</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-410451.0313</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-410428.0313</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-289320.9272521</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-317518.9272521</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-320518.9272521</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-332518.9272521</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-387989.9154520999</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-387989.9154520999</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-387989.9154520999</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-470030.9767520999</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-566586.5074520999</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3652,10 +3652,14 @@
         <v>-612141.6748521</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>21.5</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
@@ -3688,8 +3692,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3721,8 +3731,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4048,10 +4064,14 @@
         <v>-650884.1099521</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="J111" t="n">
+        <v>21.5</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
@@ -4081,11 +4101,19 @@
         <v>-601017.61158745</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="J112" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4117,8 +4145,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4150,8 +4184,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4180,11 +4220,19 @@
         <v>-602871.61158745</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="J115" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4216,8 +4264,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4246,11 +4300,19 @@
         <v>-607871.61158745</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>21.55</v>
+      </c>
+      <c r="J117" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4279,11 +4341,19 @@
         <v>-607871.61158745</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>21.55</v>
+      </c>
+      <c r="J118" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4312,11 +4382,19 @@
         <v>-671671.61158745</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>21.55</v>
+      </c>
+      <c r="J119" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4345,11 +4423,19 @@
         <v>-664780.61158745</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>21.36</v>
+      </c>
+      <c r="J120" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4378,11 +4464,19 @@
         <v>-695280.61158745</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="J121" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4411,11 +4505,19 @@
         <v>-695280.61158745</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>21.35</v>
+      </c>
+      <c r="J122" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4444,11 +4546,19 @@
         <v>-695080.61158745</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>21.35</v>
+      </c>
+      <c r="J123" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4480,8 +4590,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4513,8 +4629,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4543,11 +4665,19 @@
         <v>-697525.26103394</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>21.68</v>
+      </c>
+      <c r="J126" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4576,11 +4706,19 @@
         <v>-693924.63883394</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>21.68</v>
+      </c>
+      <c r="J127" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4609,11 +4747,19 @@
         <v>-606464.22858043</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="J128" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4642,11 +4788,19 @@
         <v>-599041.2254804301</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="J129" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4675,11 +4829,19 @@
         <v>-599041.2254804301</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>21.91</v>
+      </c>
+      <c r="J130" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4714,9 +4876,13 @@
         <v>21.91</v>
       </c>
       <c r="J131" t="n">
-        <v>21.91</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
+        <v>21.5</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4745,472 +4911,534 @@
         <v>-598544.60058043</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>21.91</v>
+      </c>
       <c r="J132" t="n">
-        <v>21.91</v>
+        <v>21.5</v>
       </c>
       <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>21.94</v>
+      </c>
+      <c r="C133" t="n">
+        <v>21.94</v>
+      </c>
+      <c r="D133" t="n">
+        <v>21.94</v>
+      </c>
+      <c r="E133" t="n">
+        <v>21.94</v>
+      </c>
+      <c r="F133" t="n">
+        <v>135898.9408</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-598544.60058043</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>21.94</v>
+      </c>
+      <c r="J133" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>21.95</v>
+      </c>
+      <c r="C134" t="n">
+        <v>22.09</v>
+      </c>
+      <c r="D134" t="n">
+        <v>22.09</v>
+      </c>
+      <c r="E134" t="n">
+        <v>21.95</v>
+      </c>
+      <c r="F134" t="n">
+        <v>19807.0534</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-578737.54718043</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>22.09</v>
+      </c>
+      <c r="C135" t="n">
+        <v>22.09</v>
+      </c>
+      <c r="D135" t="n">
+        <v>22.09</v>
+      </c>
+      <c r="E135" t="n">
+        <v>22.09</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1198.2552</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-578737.54718043</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>22.09</v>
+      </c>
+      <c r="C136" t="n">
+        <v>22.09</v>
+      </c>
+      <c r="D136" t="n">
+        <v>22.09</v>
+      </c>
+      <c r="E136" t="n">
+        <v>22.09</v>
+      </c>
+      <c r="F136" t="n">
+        <v>23001.4635</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-578737.54718043</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>22.09</v>
+      </c>
+      <c r="C137" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="D137" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="E137" t="n">
+        <v>22.09</v>
+      </c>
+      <c r="F137" t="n">
+        <v>66550.27099999999</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-512187.27618043</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="C138" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="D138" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="E138" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="F138" t="n">
+        <v>69</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-512187.27618043</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="J138" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="C139" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="D139" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="E139" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1449.5001</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-512187.27618043</v>
+      </c>
+      <c r="H139" t="n">
+        <v>2</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1.027093023255814</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="C140" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="D140" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="E140" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="F140" t="n">
+        <v>12000</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-524187.27618043</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="J140" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="K140" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>21.94</v>
-      </c>
-      <c r="C133" t="n">
-        <v>21.94</v>
-      </c>
-      <c r="D133" t="n">
-        <v>21.94</v>
-      </c>
-      <c r="E133" t="n">
-        <v>21.94</v>
-      </c>
-      <c r="F133" t="n">
-        <v>135898.9408</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-598544.60058043</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>21.94</v>
-      </c>
-      <c r="J133" t="n">
-        <v>21.91</v>
-      </c>
-      <c r="K133" t="inlineStr">
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="C141" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="D141" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="E141" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2264.9863</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-524187.27618043</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="J141" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="C142" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="D142" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="E142" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="F142" t="n">
+        <v>16327.7923</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-540515.0684804301</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="J142" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="K142" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>21.95</v>
-      </c>
-      <c r="C134" t="n">
-        <v>22.09</v>
-      </c>
-      <c r="D134" t="n">
-        <v>22.09</v>
-      </c>
-      <c r="E134" t="n">
-        <v>21.95</v>
-      </c>
-      <c r="F134" t="n">
-        <v>19807.0534</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-578737.54718043</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>21.94</v>
-      </c>
-      <c r="J134" t="n">
-        <v>21.94</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>22.09</v>
-      </c>
-      <c r="C135" t="n">
-        <v>22.09</v>
-      </c>
-      <c r="D135" t="n">
-        <v>22.09</v>
-      </c>
-      <c r="E135" t="n">
-        <v>22.09</v>
-      </c>
-      <c r="F135" t="n">
-        <v>1198.2552</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-578737.54718043</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>22.09</v>
-      </c>
-      <c r="J135" t="n">
-        <v>21.94</v>
-      </c>
-      <c r="K135" t="inlineStr">
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="C143" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="D143" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="E143" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2018.5904</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-540515.0684804301</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="J143" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="K143" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>22.09</v>
-      </c>
-      <c r="C136" t="n">
-        <v>22.09</v>
-      </c>
-      <c r="D136" t="n">
-        <v>22.09</v>
-      </c>
-      <c r="E136" t="n">
-        <v>22.09</v>
-      </c>
-      <c r="F136" t="n">
-        <v>23001.4635</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-578737.54718043</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>21.94</v>
-      </c>
-      <c r="K136" t="inlineStr">
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="C144" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="D144" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="E144" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="F144" t="n">
+        <v>860.5569</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-540515.0684804301</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="J144" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="C145" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="D145" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="E145" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="F145" t="n">
+        <v>793.0604</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-540515.0684804301</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="J145" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="K145" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>22.09</v>
-      </c>
-      <c r="C137" t="n">
-        <v>22.19</v>
-      </c>
-      <c r="D137" t="n">
-        <v>22.19</v>
-      </c>
-      <c r="E137" t="n">
-        <v>22.09</v>
-      </c>
-      <c r="F137" t="n">
-        <v>66550.27099999999</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-512187.27618043</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>22.19</v>
-      </c>
-      <c r="C138" t="n">
-        <v>22.19</v>
-      </c>
-      <c r="D138" t="n">
-        <v>22.19</v>
-      </c>
-      <c r="E138" t="n">
-        <v>22.19</v>
-      </c>
-      <c r="F138" t="n">
-        <v>69</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-512187.27618043</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>22.19</v>
-      </c>
-      <c r="C139" t="n">
-        <v>22.19</v>
-      </c>
-      <c r="D139" t="n">
-        <v>22.19</v>
-      </c>
-      <c r="E139" t="n">
-        <v>22.19</v>
-      </c>
-      <c r="F139" t="n">
-        <v>1449.5001</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-512187.27618043</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>22.02</v>
-      </c>
-      <c r="C140" t="n">
-        <v>22.02</v>
-      </c>
-      <c r="D140" t="n">
-        <v>22.02</v>
-      </c>
-      <c r="E140" t="n">
-        <v>22.02</v>
-      </c>
-      <c r="F140" t="n">
-        <v>12000</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-524187.27618043</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>22.02</v>
-      </c>
-      <c r="C141" t="n">
-        <v>22.02</v>
-      </c>
-      <c r="D141" t="n">
-        <v>22.02</v>
-      </c>
-      <c r="E141" t="n">
-        <v>22.02</v>
-      </c>
-      <c r="F141" t="n">
-        <v>2264.9863</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-524187.27618043</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="C142" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="D142" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="E142" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="F142" t="n">
-        <v>16327.7923</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-540515.0684804301</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="C143" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="D143" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="E143" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="F143" t="n">
-        <v>2018.5904</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-540515.0684804301</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="C144" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="D144" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="E144" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="F144" t="n">
-        <v>860.5569</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-540515.0684804301</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="C145" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="D145" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="E145" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="F145" t="n">
-        <v>793.0604</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-540515.0684804301</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5239,11 +5467,19 @@
         <v>-544515.0684804301</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="J146" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5272,11 +5508,19 @@
         <v>-533084.44178043</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>21.87</v>
+      </c>
+      <c r="J147" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5305,11 +5549,19 @@
         <v>-533084.44178043</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="J148" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5338,11 +5590,19 @@
         <v>-533084.44178043</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="J149" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5371,11 +5631,19 @@
         <v>-532084.44178043</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="J150" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5404,11 +5672,19 @@
         <v>-532084.44178043</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="J151" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5437,11 +5713,17 @@
         <v>-532084.44178043</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5470,11 +5752,17 @@
         <v>-532109.44178043</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5503,11 +5791,17 @@
         <v>-520109.44178043</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5536,11 +5830,17 @@
         <v>-509627.0710804301</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5569,11 +5869,17 @@
         <v>-509627.0710804301</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5602,13 +5908,19 @@
         <v>-509627.0710804301</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L157" t="n">
-        <v>1</v>
+        <v>1.004549795361528</v>
       </c>
       <c r="M157" t="inlineStr"/>
     </row>
@@ -5635,7 +5947,7 @@
         <v>-529408.6058804301</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5668,7 +5980,7 @@
         <v>-559266.1740804301</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5701,7 +6013,7 @@
         <v>-559049.9337804301</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5734,7 +6046,7 @@
         <v>-605872.7617804301</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5767,7 +6079,7 @@
         <v>-674086.1587804301</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5800,10 +6112,14 @@
         <v>-674086.1587804301</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>22.1</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
@@ -5833,11 +6149,19 @@
         <v>-674086.1587804301</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="J164" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5866,11 +6190,19 @@
         <v>-673586.1587804301</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="J165" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5899,7 +6231,7 @@
         <v>-673586.1587804301</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5932,10 +6264,14 @@
         <v>-673611.1587804301</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="J167" t="n">
+        <v>22.2</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>

--- a/BackTest/2020-01-16 BackTest WAXP.xlsx
+++ b/BackTest/2020-01-16 BackTest WAXP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M167"/>
+  <dimension ref="A1:L167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>5000</v>
       </c>
       <c r="G2" t="n">
-        <v>-225090.4165000001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,21 @@
         <v>16075</v>
       </c>
       <c r="G3" t="n">
-        <v>-209015.4165000001</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>21.4</v>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +509,21 @@
         <v>3000</v>
       </c>
       <c r="G4" t="n">
-        <v>-209015.4165000001</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>21.48</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +545,21 @@
         <v>3000</v>
       </c>
       <c r="G5" t="n">
-        <v>-209015.4165000001</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>21.48</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +581,21 @@
         <v>12517</v>
       </c>
       <c r="G6" t="n">
-        <v>-209015.4165000001</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>21.48</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +617,21 @@
         <v>11000</v>
       </c>
       <c r="G7" t="n">
-        <v>-209015.4165000001</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>21.48</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +653,21 @@
         <v>17302</v>
       </c>
       <c r="G8" t="n">
-        <v>-209015.4165000001</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>21.48</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +689,19 @@
         <v>4000</v>
       </c>
       <c r="G9" t="n">
-        <v>-209015.4165000001</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +723,19 @@
         <v>11000</v>
       </c>
       <c r="G10" t="n">
-        <v>-209015.4165000001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +757,19 @@
         <v>4000</v>
       </c>
       <c r="G11" t="n">
-        <v>-209015.4165000001</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +791,19 @@
         <v>57558.1115</v>
       </c>
       <c r="G12" t="n">
-        <v>-209015.4165000001</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +825,21 @@
         <v>12531.685</v>
       </c>
       <c r="G13" t="n">
-        <v>-196483.7315000001</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>21.48</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +861,21 @@
         <v>185.2604</v>
       </c>
       <c r="G14" t="n">
-        <v>-196298.4711000001</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>21.5</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +897,21 @@
         <v>1000</v>
       </c>
       <c r="G15" t="n">
-        <v>-196298.4711000001</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>21.53</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +933,21 @@
         <v>789</v>
       </c>
       <c r="G16" t="n">
-        <v>-196298.4711000001</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>21.53</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +969,21 @@
         <v>20088.484</v>
       </c>
       <c r="G17" t="n">
-        <v>-176209.9871000001</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>21.53</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +1005,21 @@
         <v>347.3859</v>
       </c>
       <c r="G18" t="n">
-        <v>-175862.6012000001</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>21.59</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +1041,19 @@
         <v>60786.9901</v>
       </c>
       <c r="G19" t="n">
-        <v>-236649.5913000001</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1075,21 @@
         <v>20596</v>
       </c>
       <c r="G20" t="n">
-        <v>-216053.5913000001</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>21.31</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1111,19 @@
         <v>35472.99981764</v>
       </c>
       <c r="G21" t="n">
-        <v>-180580.5914823601</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1145,19 @@
         <v>10000.0875</v>
       </c>
       <c r="G22" t="n">
-        <v>-190580.6789823601</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1179,19 @@
         <v>13201.62</v>
       </c>
       <c r="G23" t="n">
-        <v>-177379.0589823601</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1213,19 @@
         <v>10979.1232</v>
       </c>
       <c r="G24" t="n">
-        <v>-188358.1821823601</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1247,19 @@
         <v>6191.4408</v>
       </c>
       <c r="G25" t="n">
-        <v>-188358.1821823601</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1281,19 @@
         <v>84840.06008236</v>
       </c>
       <c r="G26" t="n">
-        <v>-103518.1221000001</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1315,19 @@
         <v>1932.9092</v>
       </c>
       <c r="G27" t="n">
-        <v>-105451.0313000001</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1349,19 @@
         <v>155000</v>
       </c>
       <c r="G28" t="n">
-        <v>-260451.0313000001</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1383,19 @@
         <v>150000</v>
       </c>
       <c r="G29" t="n">
-        <v>-410451.0313</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1417,19 @@
         <v>23</v>
       </c>
       <c r="G30" t="n">
-        <v>-410428.0313</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1451,19 @@
         <v>12000</v>
       </c>
       <c r="G31" t="n">
-        <v>-422428.0313</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1485,19 @@
         <v>12050</v>
       </c>
       <c r="G32" t="n">
-        <v>-410378.0313</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1519,19 @@
         <v>30</v>
       </c>
       <c r="G33" t="n">
-        <v>-410378.0313</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1553,19 @@
         <v>606</v>
       </c>
       <c r="G34" t="n">
-        <v>-410378.0313</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1587,19 @@
         <v>39485.3054</v>
       </c>
       <c r="G35" t="n">
-        <v>-370892.7259</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1621,19 @@
         <v>115651.3873</v>
       </c>
       <c r="G36" t="n">
-        <v>-486544.1132</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1655,19 @@
         <v>45370.7504</v>
       </c>
       <c r="G37" t="n">
-        <v>-441173.3628</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1689,19 @@
         <v>190000</v>
       </c>
       <c r="G38" t="n">
-        <v>-631173.3628</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1723,19 @@
         <v>8379.3001</v>
       </c>
       <c r="G39" t="n">
-        <v>-631173.3628</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1757,19 @@
         <v>24170.2654</v>
       </c>
       <c r="G40" t="n">
-        <v>-631173.3628</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1791,19 @@
         <v>12101.015</v>
       </c>
       <c r="G41" t="n">
-        <v>-643274.3778</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1825,19 @@
         <v>221.1012</v>
       </c>
       <c r="G42" t="n">
-        <v>-643053.2766</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1859,19 @@
         <v>26368.6509</v>
       </c>
       <c r="G43" t="n">
-        <v>-616684.6257</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1893,19 @@
         <v>4737.0914</v>
       </c>
       <c r="G44" t="n">
-        <v>-616684.6257</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1927,19 @@
         <v>26808.0381</v>
       </c>
       <c r="G45" t="n">
-        <v>-616684.6257</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1961,19 @@
         <v>27979.2719</v>
       </c>
       <c r="G46" t="n">
-        <v>-616684.6257</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1995,19 @@
         <v>3303.9059</v>
       </c>
       <c r="G47" t="n">
-        <v>-616684.6257</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +2029,19 @@
         <v>19501.9662</v>
       </c>
       <c r="G48" t="n">
-        <v>-616684.6257</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +2063,21 @@
         <v>46000</v>
       </c>
       <c r="G49" t="n">
-        <v>-616684.6257</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>21.2</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2099,21 @@
         <v>70047.5828</v>
       </c>
       <c r="G50" t="n">
-        <v>-616684.6257</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>21.2</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2135,21 @@
         <v>12000</v>
       </c>
       <c r="G51" t="n">
-        <v>-616684.6257</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>21.2</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2171,21 @@
         <v>9167.510200000001</v>
       </c>
       <c r="G52" t="n">
-        <v>-607517.1155</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>21.2</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2207,21 @@
         <v>590.8256</v>
       </c>
       <c r="G53" t="n">
-        <v>-607517.1155</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>21.21</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2243,21 @@
         <v>1020</v>
       </c>
       <c r="G54" t="n">
-        <v>-607517.1155</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>21.21</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2279,21 @@
         <v>21672</v>
       </c>
       <c r="G55" t="n">
-        <v>-607517.1155</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>21.21</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2315,19 @@
         <v>49237</v>
       </c>
       <c r="G56" t="n">
-        <v>-558280.1155</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2349,19 @@
         <v>10113</v>
       </c>
       <c r="G57" t="n">
-        <v>-558280.1155</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2383,19 @@
         <v>46772.6847521</v>
       </c>
       <c r="G58" t="n">
-        <v>-558280.1155</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2417,19 @@
         <v>40155.15293417</v>
       </c>
       <c r="G59" t="n">
-        <v>-518124.96256583</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2451,19 @@
         <v>9000</v>
       </c>
       <c r="G60" t="n">
-        <v>-527124.96256583</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2485,21 @@
         <v>3000</v>
       </c>
       <c r="G61" t="n">
-        <v>-527124.96256583</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>21.13</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2521,21 @@
         <v>3000</v>
       </c>
       <c r="G62" t="n">
-        <v>-527124.96256583</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>21.13</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2557,21 @@
         <v>1000</v>
       </c>
       <c r="G63" t="n">
-        <v>-527124.96256583</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>21.13</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2593,19 @@
         <v>140116.95121373</v>
       </c>
       <c r="G64" t="n">
-        <v>-387008.0113520999</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2627,19 @@
         <v>81825.2763</v>
       </c>
       <c r="G65" t="n">
-        <v>-387008.0113520999</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2661,19 @@
         <v>19000</v>
       </c>
       <c r="G66" t="n">
-        <v>-368008.0113520999</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2695,19 @@
         <v>40824.6196</v>
       </c>
       <c r="G67" t="n">
-        <v>-368008.0113520999</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2729,19 @@
         <v>6726.7802</v>
       </c>
       <c r="G68" t="n">
-        <v>-361281.2311521</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2763,19 @@
         <v>44712.1108</v>
       </c>
       <c r="G69" t="n">
-        <v>-316569.1203520999</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2797,19 @@
         <v>12000</v>
       </c>
       <c r="G70" t="n">
-        <v>-304569.1203520999</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2831,19 @@
         <v>15248.1931</v>
       </c>
       <c r="G71" t="n">
-        <v>-289320.9272521</v>
-      </c>
-      <c r="H71" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2865,19 @@
         <v>28198</v>
       </c>
       <c r="G72" t="n">
-        <v>-317518.9272521</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2899,19 @@
         <v>3000</v>
       </c>
       <c r="G73" t="n">
-        <v>-320518.9272521</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2933,19 @@
         <v>12000</v>
       </c>
       <c r="G74" t="n">
-        <v>-332518.9272521</v>
-      </c>
-      <c r="H74" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2967,19 @@
         <v>2090.5717</v>
       </c>
       <c r="G75" t="n">
-        <v>-334609.4989520999</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +3001,19 @@
         <v>61865.9754</v>
       </c>
       <c r="G76" t="n">
-        <v>-396475.4743520999</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +3035,19 @@
         <v>2829.367</v>
       </c>
       <c r="G77" t="n">
-        <v>-399304.8413521</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +3069,19 @@
         <v>2330.6074</v>
       </c>
       <c r="G78" t="n">
-        <v>-399304.8413521</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +3103,19 @@
         <v>28900</v>
       </c>
       <c r="G79" t="n">
-        <v>-428204.8413521</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +3137,19 @@
         <v>59103.6673</v>
       </c>
       <c r="G80" t="n">
-        <v>-369101.1740520999</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +3171,19 @@
         <v>59410</v>
       </c>
       <c r="G81" t="n">
-        <v>-428511.1740520999</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +3205,19 @@
         <v>40521.2586</v>
       </c>
       <c r="G82" t="n">
-        <v>-387989.9154520999</v>
-      </c>
-      <c r="H82" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3239,19 @@
         <v>6808</v>
       </c>
       <c r="G83" t="n">
-        <v>-387989.9154520999</v>
-      </c>
-      <c r="H83" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3273,19 @@
         <v>218179.5339</v>
       </c>
       <c r="G84" t="n">
-        <v>-387989.9154520999</v>
-      </c>
-      <c r="H84" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3307,19 @@
         <v>82041.0613</v>
       </c>
       <c r="G85" t="n">
-        <v>-470030.9767520999</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3341,19 @@
         <v>96555.5307</v>
       </c>
       <c r="G86" t="n">
-        <v>-566586.5074520999</v>
-      </c>
-      <c r="H86" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3375,19 @@
         <v>1112.9954</v>
       </c>
       <c r="G87" t="n">
-        <v>-565473.5120520999</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3409,19 @@
         <v>4247.93</v>
       </c>
       <c r="G88" t="n">
-        <v>-565473.5120520999</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3443,19 @@
         <v>6472.6113</v>
       </c>
       <c r="G89" t="n">
-        <v>-565473.5120520999</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3477,19 @@
         <v>2000</v>
       </c>
       <c r="G90" t="n">
-        <v>-567473.5120520999</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3511,19 @@
         <v>7255</v>
       </c>
       <c r="G91" t="n">
-        <v>-567473.5120520999</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3545,19 @@
         <v>8000</v>
       </c>
       <c r="G92" t="n">
-        <v>-575473.5120520999</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3579,19 @@
         <v>1167.5102</v>
       </c>
       <c r="G93" t="n">
-        <v>-575473.5120520999</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3613,19 @@
         <v>3572.228</v>
       </c>
       <c r="G94" t="n">
-        <v>-575473.5120520999</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3647,19 @@
         <v>2651.7045</v>
       </c>
       <c r="G95" t="n">
-        <v>-578125.2165520999</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3681,19 @@
         <v>2000</v>
       </c>
       <c r="G96" t="n">
-        <v>-580125.2165520999</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3715,19 @@
         <v>28016.4583</v>
       </c>
       <c r="G97" t="n">
-        <v>-608141.6748521</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3749,21 @@
         <v>4000</v>
       </c>
       <c r="G98" t="n">
-        <v>-612141.6748521</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>21.51</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,22 +3785,21 @@
         <v>18597.9817</v>
       </c>
       <c r="G99" t="n">
-        <v>-612141.6748521</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
         <v>21.5</v>
       </c>
-      <c r="J99" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3686,24 +3821,19 @@
         <v>2000</v>
       </c>
       <c r="G100" t="n">
-        <v>-610141.6748521</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3725,24 +3855,19 @@
         <v>5000</v>
       </c>
       <c r="G101" t="n">
-        <v>-610141.6748521</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3764,18 +3889,19 @@
         <v>100</v>
       </c>
       <c r="G102" t="n">
-        <v>-610241.6748521</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3797,18 +3923,19 @@
         <v>4496.1302</v>
       </c>
       <c r="G103" t="n">
-        <v>-614737.8050521</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3830,18 +3957,19 @@
         <v>2000</v>
       </c>
       <c r="G104" t="n">
-        <v>-612737.8050521</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3863,18 +3991,19 @@
         <v>18307.1577</v>
       </c>
       <c r="G105" t="n">
-        <v>-631044.9627521</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3896,18 +4025,19 @@
         <v>9341.6109</v>
       </c>
       <c r="G106" t="n">
-        <v>-621703.3518521</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3929,18 +4059,21 @@
         <v>2321.9273</v>
       </c>
       <c r="G107" t="n">
-        <v>-621703.3518521</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3962,18 +4095,19 @@
         <v>368.3708</v>
       </c>
       <c r="G108" t="n">
-        <v>-622071.7226521</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3995,18 +4129,21 @@
         <v>30000</v>
       </c>
       <c r="G109" t="n">
-        <v>-652071.7226521</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>21.5</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4028,18 +4165,19 @@
         <v>1187.6127</v>
       </c>
       <c r="G110" t="n">
-        <v>-650884.1099521</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4061,22 +4199,19 @@
         <v>4479.7607</v>
       </c>
       <c r="G111" t="n">
-        <v>-650884.1099521</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="J111" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4098,26 +4233,19 @@
         <v>49866.49836465</v>
       </c>
       <c r="G112" t="n">
-        <v>-601017.61158745</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="J112" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4139,24 +4267,19 @@
         <v>1854</v>
       </c>
       <c r="G113" t="n">
-        <v>-602871.61158745</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4178,24 +4301,19 @@
         <v>3470.6905</v>
       </c>
       <c r="G114" t="n">
-        <v>-602871.61158745</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4217,26 +4335,19 @@
         <v>2034.5367</v>
       </c>
       <c r="G115" t="n">
-        <v>-602871.61158745</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>21.69</v>
-      </c>
-      <c r="J115" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4258,24 +4369,19 @@
         <v>5000</v>
       </c>
       <c r="G116" t="n">
-        <v>-607871.61158745</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4297,26 +4403,19 @@
         <v>311.5212</v>
       </c>
       <c r="G117" t="n">
-        <v>-607871.61158745</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>21.55</v>
-      </c>
-      <c r="J117" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4338,26 +4437,19 @@
         <v>2000</v>
       </c>
       <c r="G118" t="n">
-        <v>-607871.61158745</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>21.55</v>
-      </c>
-      <c r="J118" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4379,26 +4471,19 @@
         <v>63800</v>
       </c>
       <c r="G119" t="n">
-        <v>-671671.61158745</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>21.55</v>
-      </c>
-      <c r="J119" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4420,26 +4505,19 @@
         <v>6891</v>
       </c>
       <c r="G120" t="n">
-        <v>-664780.61158745</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>21.36</v>
-      </c>
-      <c r="J120" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4461,26 +4539,19 @@
         <v>30500</v>
       </c>
       <c r="G121" t="n">
-        <v>-695280.61158745</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="J121" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4502,26 +4573,19 @@
         <v>425</v>
       </c>
       <c r="G122" t="n">
-        <v>-695280.61158745</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>21.35</v>
-      </c>
-      <c r="J122" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4543,26 +4607,19 @@
         <v>200</v>
       </c>
       <c r="G123" t="n">
-        <v>-695080.61158745</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>21.35</v>
-      </c>
-      <c r="J123" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4584,24 +4641,19 @@
         <v>2444.64944649</v>
       </c>
       <c r="G124" t="n">
-        <v>-697525.26103394</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4623,24 +4675,19 @@
         <v>2300.5073</v>
       </c>
       <c r="G125" t="n">
-        <v>-697525.26103394</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4662,26 +4709,19 @@
         <v>12420.7523</v>
       </c>
       <c r="G126" t="n">
-        <v>-697525.26103394</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>21.68</v>
-      </c>
-      <c r="J126" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4703,26 +4743,19 @@
         <v>3600.6222</v>
       </c>
       <c r="G127" t="n">
-        <v>-693924.63883394</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>21.68</v>
-      </c>
-      <c r="J127" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4744,26 +4777,19 @@
         <v>87460.41025351</v>
       </c>
       <c r="G128" t="n">
-        <v>-606464.22858043</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>21.69</v>
-      </c>
-      <c r="J128" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4785,26 +4811,19 @@
         <v>7423.0031</v>
       </c>
       <c r="G129" t="n">
-        <v>-599041.2254804301</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="J129" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4826,26 +4845,19 @@
         <v>30000</v>
       </c>
       <c r="G130" t="n">
-        <v>-599041.2254804301</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>21.91</v>
-      </c>
-      <c r="J130" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4867,26 +4879,19 @@
         <v>20511.627</v>
       </c>
       <c r="G131" t="n">
-        <v>-599041.2254804301</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>21.91</v>
-      </c>
-      <c r="J131" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4908,26 +4913,19 @@
         <v>496.6249</v>
       </c>
       <c r="G132" t="n">
-        <v>-598544.60058043</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>21.91</v>
-      </c>
-      <c r="J132" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4949,26 +4947,19 @@
         <v>135898.9408</v>
       </c>
       <c r="G133" t="n">
-        <v>-598544.60058043</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>21.94</v>
-      </c>
-      <c r="J133" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4990,24 +4981,19 @@
         <v>19807.0534</v>
       </c>
       <c r="G134" t="n">
-        <v>-578737.54718043</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5029,24 +5015,19 @@
         <v>1198.2552</v>
       </c>
       <c r="G135" t="n">
-        <v>-578737.54718043</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5068,24 +5049,19 @@
         <v>23001.4635</v>
       </c>
       <c r="G136" t="n">
-        <v>-578737.54718043</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5107,24 +5083,19 @@
         <v>66550.27099999999</v>
       </c>
       <c r="G137" t="n">
-        <v>-512187.27618043</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5146,26 +5117,19 @@
         <v>69</v>
       </c>
       <c r="G138" t="n">
-        <v>-512187.27618043</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>22.19</v>
-      </c>
-      <c r="J138" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5187,24 +5151,19 @@
         <v>1449.5001</v>
       </c>
       <c r="G139" t="n">
-        <v>-512187.27618043</v>
-      </c>
-      <c r="H139" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1.027093023255814</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5226,26 +5185,19 @@
         <v>12000</v>
       </c>
       <c r="G140" t="n">
-        <v>-524187.27618043</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>22.19</v>
-      </c>
-      <c r="J140" t="n">
-        <v>22.19</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5267,22 +5219,19 @@
         <v>2264.9863</v>
       </c>
       <c r="G141" t="n">
-        <v>-524187.27618043</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>22.02</v>
-      </c>
-      <c r="J141" t="n">
-        <v>22.02</v>
-      </c>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5304,26 +5253,19 @@
         <v>16327.7923</v>
       </c>
       <c r="G142" t="n">
-        <v>-540515.0684804301</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>22.02</v>
-      </c>
-      <c r="J142" t="n">
-        <v>22.02</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5345,26 +5287,19 @@
         <v>2018.5904</v>
       </c>
       <c r="G143" t="n">
-        <v>-540515.0684804301</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="J143" t="n">
-        <v>22.02</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5386,22 +5321,19 @@
         <v>860.5569</v>
       </c>
       <c r="G144" t="n">
-        <v>-540515.0684804301</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="J144" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5423,26 +5355,19 @@
         <v>793.0604</v>
       </c>
       <c r="G145" t="n">
-        <v>-540515.0684804301</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="J145" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5464,26 +5389,19 @@
         <v>4000</v>
       </c>
       <c r="G146" t="n">
-        <v>-544515.0684804301</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="J146" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5505,26 +5423,19 @@
         <v>11430.6267</v>
       </c>
       <c r="G147" t="n">
-        <v>-533084.44178043</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>21.87</v>
-      </c>
-      <c r="J147" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5546,26 +5457,19 @@
         <v>2264.9863</v>
       </c>
       <c r="G148" t="n">
-        <v>-533084.44178043</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>22.02</v>
-      </c>
-      <c r="J148" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5587,26 +5491,19 @@
         <v>3604.5877</v>
       </c>
       <c r="G149" t="n">
-        <v>-533084.44178043</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>22.02</v>
-      </c>
-      <c r="J149" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5628,26 +5525,19 @@
         <v>1000</v>
       </c>
       <c r="G150" t="n">
-        <v>-532084.44178043</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>22.02</v>
-      </c>
-      <c r="J150" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5669,26 +5559,19 @@
         <v>550</v>
       </c>
       <c r="G151" t="n">
-        <v>-532084.44178043</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="J151" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5710,24 +5593,19 @@
         <v>1000</v>
       </c>
       <c r="G152" t="n">
-        <v>-532084.44178043</v>
-      </c>
-      <c r="H152" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5749,24 +5627,19 @@
         <v>25</v>
       </c>
       <c r="G153" t="n">
-        <v>-532109.44178043</v>
-      </c>
-      <c r="H153" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5788,24 +5661,19 @@
         <v>12000</v>
       </c>
       <c r="G154" t="n">
-        <v>-520109.44178043</v>
-      </c>
-      <c r="H154" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5827,24 +5695,19 @@
         <v>10482.3707</v>
       </c>
       <c r="G155" t="n">
-        <v>-509627.0710804301</v>
-      </c>
-      <c r="H155" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5866,24 +5729,17 @@
         <v>9.9293</v>
       </c>
       <c r="G156" t="n">
-        <v>-509627.0710804301</v>
-      </c>
-      <c r="H156" t="n">
         <v>2</v>
       </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5905,24 +5761,15 @@
         <v>2905.4659</v>
       </c>
       <c r="G157" t="n">
-        <v>-509627.0710804301</v>
-      </c>
-      <c r="H157" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1.004549795361528</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5944,18 +5791,15 @@
         <v>19781.5348</v>
       </c>
       <c r="G158" t="n">
-        <v>-529408.6058804301</v>
-      </c>
-      <c r="H158" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5977,18 +5821,15 @@
         <v>29857.5682</v>
       </c>
       <c r="G159" t="n">
-        <v>-559266.1740804301</v>
-      </c>
-      <c r="H159" t="n">
         <v>2</v>
       </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6010,18 +5851,15 @@
         <v>216.2403</v>
       </c>
       <c r="G160" t="n">
-        <v>-559049.9337804301</v>
-      </c>
-      <c r="H160" t="n">
         <v>2</v>
       </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6043,18 +5881,15 @@
         <v>46822.828</v>
       </c>
       <c r="G161" t="n">
-        <v>-605872.7617804301</v>
-      </c>
-      <c r="H161" t="n">
         <v>2</v>
       </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6076,18 +5911,15 @@
         <v>68213.397</v>
       </c>
       <c r="G162" t="n">
-        <v>-674086.1587804301</v>
-      </c>
-      <c r="H162" t="n">
         <v>2</v>
       </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6109,22 +5941,15 @@
         <v>7720.0635</v>
       </c>
       <c r="G163" t="n">
-        <v>-674086.1587804301</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="J163" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6146,26 +5971,15 @@
         <v>271.9357</v>
       </c>
       <c r="G164" t="n">
-        <v>-674086.1587804301</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="J164" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6187,26 +6001,15 @@
         <v>500</v>
       </c>
       <c r="G165" t="n">
-        <v>-673586.1587804301</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="J165" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6228,18 +6031,15 @@
         <v>500</v>
       </c>
       <c r="G166" t="n">
-        <v>-673586.1587804301</v>
-      </c>
-      <c r="H166" t="n">
         <v>2</v>
       </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6261,22 +6061,15 @@
         <v>25</v>
       </c>
       <c r="G167" t="n">
-        <v>-673611.1587804301</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="J167" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
